--- a/pollster-ratings/pollster-stats-full.xlsx
+++ b/pollster-ratings/pollster-stats-full.xlsx
@@ -27287,8 +27287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/pollster-ratings/pollster-stats-full.xlsx
+++ b/pollster-ratings/pollster-stats-full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1081,9 +1081,6 @@
     <t>University of South Florida</t>
   </si>
   <si>
-    <t>University of Southern California</t>
-  </si>
-  <si>
     <t>University of Tennessee</t>
   </si>
   <si>
@@ -1331,6 +1328,9 @@
   </si>
   <si>
     <t>A checkmark indicates the polling firm is routinely placing calls to cellphones (in addition to landlines) in its polls as of June 28, 2016. In addition to being important on its own -- polls that include cellphones are more representative and more accurate -- this is also another proxy for methodological quality. As a default, we assume a polling firm has not begun to include cellphones in its samples until we have evidence to the contrary. Pollsters that have routinely begun to include cellphones in their samples but which are listed without a checkmark should contact FiveThirtyEight. Only actual phone calls placed to mobile devices earn a checkmark in this category; a poll conducted by text messages to mobile devices would not count, by contrast.</t>
+  </si>
+  <si>
+    <t>Greenberg Quinlan Rosner/American Viewpoint</t>
   </si>
 </sst>
 </file>
@@ -3692,11 +3692,11 @@
   <dimension ref="A1:AA374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3777,10 +3777,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>208</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>15</v>
@@ -3835,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1">
@@ -3849,16 +3849,16 @@
         <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="13">
@@ -3924,16 +3924,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13">
@@ -3999,16 +3999,16 @@
         <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13">
@@ -4074,16 +4074,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13">
@@ -4149,16 +4149,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="13">
@@ -4224,16 +4224,16 @@
         <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13">
@@ -4299,16 +4299,16 @@
         <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
@@ -4374,16 +4374,16 @@
         <v>146</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13">
@@ -4449,16 +4449,16 @@
         <v>22</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13">
@@ -4524,16 +4524,16 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13">
@@ -4599,16 +4599,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="13">
@@ -4674,16 +4674,16 @@
         <v>763</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="13">
@@ -4749,16 +4749,16 @@
         <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="13">
@@ -4824,16 +4824,16 @@
         <v>42</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="13">
@@ -4899,16 +4899,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="13">
@@ -4974,16 +4974,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="13">
@@ -5049,16 +5049,16 @@
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="13">
@@ -5124,16 +5124,16 @@
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="13">
@@ -5199,16 +5199,16 @@
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="13">
@@ -5274,16 +5274,16 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="13">
@@ -5349,16 +5349,16 @@
         <v>25</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="13">
@@ -5424,16 +5424,16 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="13">
@@ -5499,16 +5499,16 @@
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="13">
@@ -5574,16 +5574,16 @@
         <v>29</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="13">
@@ -5643,22 +5643,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C27" s="11">
         <v>49</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="13">
@@ -5724,16 +5724,16 @@
         <v>169</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="13">
@@ -5799,16 +5799,16 @@
         <v>4</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="13">
@@ -5874,16 +5874,16 @@
         <v>17</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="13">
@@ -5949,16 +5949,16 @@
         <v>55</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="13">
@@ -6024,16 +6024,16 @@
         <v>89</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="13">
@@ -6099,16 +6099,16 @@
         <v>40</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="13">
@@ -6174,16 +6174,16 @@
         <v>11</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="13">
@@ -6249,16 +6249,16 @@
         <v>12</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="13">
@@ -6324,16 +6324,16 @@
         <v>43</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="13">
@@ -6393,22 +6393,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C37" s="11">
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="13">
@@ -6474,16 +6474,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="13">
@@ -6549,16 +6549,16 @@
         <v>93</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="13">
@@ -6624,16 +6624,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="13">
@@ -6699,16 +6699,16 @@
         <v>2</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="13">
@@ -6774,16 +6774,16 @@
         <v>19</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="13">
@@ -6843,22 +6843,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C43" s="11">
         <v>3</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="13">
@@ -6916,16 +6916,16 @@
         <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="13">
@@ -6991,16 +6991,16 @@
         <v>32</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="13">
@@ -7066,16 +7066,16 @@
         <v>22</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="13">
@@ -7141,16 +7141,16 @@
         <v>18</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="13">
@@ -7216,16 +7216,16 @@
         <v>26</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="13">
@@ -7291,16 +7291,16 @@
         <v>8</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="13">
@@ -7360,22 +7360,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="13">
@@ -7441,16 +7441,16 @@
         <v>415</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="13">
@@ -7516,16 +7516,16 @@
         <v>20</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="13">
@@ -7591,16 +7591,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="13">
@@ -7666,16 +7666,16 @@
         <v>26</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="13">
@@ -7741,16 +7741,16 @@
         <v>15</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="13">
@@ -7816,16 +7816,16 @@
         <v>7</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="13">
@@ -7891,16 +7891,16 @@
         <v>7</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="13">
@@ -7966,16 +7966,16 @@
         <v>7</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="13">
@@ -8035,22 +8035,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="13">
@@ -8108,16 +8108,16 @@
         <v>4</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="13">
@@ -8183,16 +8183,16 @@
         <v>42</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="13">
@@ -8258,16 +8258,16 @@
         <v>383</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="13">
@@ -8327,22 +8327,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="C63" s="11">
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="13">
@@ -8402,22 +8402,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C64" s="11">
         <v>14</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="13">
@@ -8483,16 +8483,16 @@
         <v>9</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="13">
@@ -8558,16 +8558,16 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="13">
@@ -8633,16 +8633,16 @@
         <v>67</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="13">
@@ -8708,16 +8708,16 @@
         <v>17</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="13">
@@ -8777,22 +8777,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" s="11">
         <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="13">
@@ -8858,16 +8858,16 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="13">
@@ -8933,16 +8933,16 @@
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="13">
@@ -9008,16 +9008,16 @@
         <v>4</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="13">
@@ -9083,16 +9083,16 @@
         <v>12</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="13">
@@ -9158,16 +9158,16 @@
         <v>31</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="13">
@@ -9233,16 +9233,16 @@
         <v>12</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="13">
@@ -9308,16 +9308,16 @@
         <v>11</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="13">
@@ -9383,16 +9383,16 @@
         <v>4</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="13">
@@ -9458,16 +9458,16 @@
         <v>3</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="13">
@@ -9533,16 +9533,16 @@
         <v>3</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="13">
@@ -9608,16 +9608,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="13">
@@ -9683,16 +9683,16 @@
         <v>4</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="13">
@@ -9752,22 +9752,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C82" s="11">
         <v>14</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="13">
@@ -9833,16 +9833,16 @@
         <v>707</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="13">
@@ -9902,22 +9902,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="11">
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="13">
@@ -9983,16 +9983,16 @@
         <v>16</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="13">
@@ -10058,16 +10058,16 @@
         <v>4</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="13">
@@ -10127,22 +10127,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C87" s="11">
         <v>3</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="13">
@@ -10208,16 +10208,16 @@
         <v>24</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="13">
@@ -10283,16 +10283,16 @@
         <v>53</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="13">
@@ -10358,16 +10358,16 @@
         <v>4</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="13">
@@ -10427,22 +10427,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="11">
         <v>2</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="13">
@@ -10508,16 +10508,16 @@
         <v>2</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="13">
@@ -10583,16 +10583,16 @@
         <v>2</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="13">
@@ -10652,22 +10652,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" s="11">
         <v>2</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="13">
@@ -10733,16 +10733,16 @@
         <v>2</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="13">
@@ -10808,16 +10808,16 @@
         <v>2</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="13">
@@ -10883,16 +10883,16 @@
         <v>5</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="13">
@@ -10958,16 +10958,16 @@
         <v>3</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="13">
@@ -11033,16 +11033,16 @@
         <v>2</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="13">
@@ -11108,16 +11108,16 @@
         <v>15</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="13">
@@ -11183,16 +11183,16 @@
         <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="13">
@@ -11258,16 +11258,16 @@
         <v>24</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="13">
@@ -11333,16 +11333,16 @@
         <v>9</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="13">
@@ -11408,16 +11408,16 @@
         <v>7</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="13">
@@ -11477,22 +11477,22 @@
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C105" s="11">
         <v>3</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="13">
@@ -11558,16 +11558,16 @@
         <v>12</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="13">
@@ -11633,16 +11633,16 @@
         <v>129</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="13">
@@ -11708,16 +11708,16 @@
         <v>34</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="13">
@@ -11783,16 +11783,16 @@
         <v>10</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="13">
@@ -11858,16 +11858,16 @@
         <v>11</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="13">
@@ -11927,22 +11927,22 @@
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="13">
@@ -12000,16 +12000,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="13">
@@ -12075,16 +12075,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="13">
@@ -12136,22 +12136,22 @@
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" s="11">
         <v>2</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="13">
@@ -12209,16 +12209,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H115" s="11"/>
       <c r="I115" s="13">
@@ -12284,16 +12284,16 @@
         <v>4</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116" s="13">
@@ -12359,16 +12359,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="13">
@@ -12428,22 +12428,22 @@
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C118" s="11">
         <v>6</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H118" s="11"/>
       <c r="I118" s="13">
@@ -12509,16 +12509,16 @@
         <v>15</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H119" s="11"/>
       <c r="I119" s="13">
@@ -12584,16 +12584,16 @@
         <v>32</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H120" s="11"/>
       <c r="I120" s="13">
@@ -12659,16 +12659,16 @@
         <v>34</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H121" s="11"/>
       <c r="I121" s="13">
@@ -12734,16 +12734,16 @@
         <v>2</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H122" s="11"/>
       <c r="I122" s="13">
@@ -12809,16 +12809,16 @@
         <v>2</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="13">
@@ -12876,16 +12876,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" s="13">
@@ -12951,16 +12951,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" s="13">
@@ -13026,16 +13026,16 @@
         <v>9</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" s="13">
@@ -13095,22 +13095,22 @@
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C127" s="11">
         <v>2</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H127" s="11"/>
       <c r="I127" s="13">
@@ -13162,22 +13162,22 @@
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C128" s="11">
         <v>1</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H128" s="11"/>
       <c r="I128" s="13">
@@ -13235,16 +13235,16 @@
         <v>80</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H129" s="11"/>
       <c r="I129" s="13">
@@ -13310,16 +13310,16 @@
         <v>48</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H130" s="11"/>
       <c r="I130" s="13">
@@ -13379,22 +13379,22 @@
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C131" s="11">
         <v>6</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" s="13">
@@ -13454,22 +13454,22 @@
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C132" s="11">
         <v>2</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="13">
@@ -13529,22 +13529,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C133" s="11">
         <v>1</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="13">
@@ -13610,16 +13610,16 @@
         <v>29</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H134" s="11"/>
       <c r="I134" s="13">
@@ -13685,16 +13685,16 @@
         <v>3</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H135" s="11"/>
       <c r="I135" s="13">
@@ -13754,22 +13754,22 @@
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C136" s="11">
         <v>1</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H136" s="11"/>
       <c r="I136" s="13">
@@ -13827,16 +13827,16 @@
         <v>4</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H137" s="11"/>
       <c r="I137" s="13">
@@ -13902,16 +13902,16 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" s="13">
@@ -13971,22 +13971,22 @@
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C139" s="11">
         <v>1</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="13">
@@ -14050,16 +14050,16 @@
         <v>3</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="13">
@@ -14125,16 +14125,16 @@
         <v>6</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H141" s="11"/>
       <c r="I141" s="13">
@@ -14200,16 +14200,16 @@
         <v>3</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="13">
@@ -14269,22 +14269,22 @@
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C143" s="11">
         <v>5</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="13">
@@ -14350,16 +14350,16 @@
         <v>9</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H144" s="11"/>
       <c r="I144" s="13">
@@ -14425,16 +14425,16 @@
         <v>4</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="13">
@@ -14500,16 +14500,16 @@
         <v>4</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H146" s="11"/>
       <c r="I146" s="13">
@@ -14575,16 +14575,16 @@
         <v>11</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H147" s="11"/>
       <c r="I147" s="13">
@@ -14650,16 +14650,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H148" s="11"/>
       <c r="I148" s="13">
@@ -14725,16 +14725,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="13">
@@ -14800,16 +14800,16 @@
         <v>8</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="13">
@@ -14875,16 +14875,16 @@
         <v>9</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H151" s="11"/>
       <c r="I151" s="13">
@@ -14950,16 +14950,16 @@
         <v>5</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H152" s="11"/>
       <c r="I152" s="13">
@@ -15023,16 +15023,16 @@
         <v>7</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="13">
@@ -15098,16 +15098,16 @@
         <v>6</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H154" s="11"/>
       <c r="I154" s="13">
@@ -15173,16 +15173,16 @@
         <v>13</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" s="13">
@@ -15248,16 +15248,16 @@
         <v>1</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H156" s="11"/>
       <c r="I156" s="13">
@@ -15321,16 +15321,16 @@
         <v>8</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H157" s="11"/>
       <c r="I157" s="13">
@@ -15390,22 +15390,22 @@
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C158" s="11">
         <v>12</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H158" s="11"/>
       <c r="I158" s="13">
@@ -15457,22 +15457,22 @@
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C159" s="11">
         <v>2</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H159" s="11"/>
       <c r="I159" s="13">
@@ -15538,16 +15538,16 @@
         <v>5</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H160" s="11"/>
       <c r="I160" s="13">
@@ -15613,16 +15613,16 @@
         <v>10</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H161" s="11"/>
       <c r="I161" s="13">
@@ -15682,22 +15682,22 @@
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C162" s="11">
         <v>4</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H162" s="11"/>
       <c r="I162" s="13">
@@ -15763,16 +15763,16 @@
         <v>4</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H163" s="11"/>
       <c r="I163" s="13">
@@ -15838,16 +15838,16 @@
         <v>4</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H164" s="11"/>
       <c r="I164" s="13">
@@ -15905,16 +15905,16 @@
         <v>4</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H165" s="11"/>
       <c r="I165" s="13">
@@ -15980,16 +15980,16 @@
         <v>4</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H166" s="11"/>
       <c r="I166" s="13">
@@ -16055,16 +16055,16 @@
         <v>4</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H167" s="11"/>
       <c r="I167" s="13">
@@ -16122,16 +16122,16 @@
         <v>9</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H168" s="11"/>
       <c r="I168" s="13">
@@ -16191,22 +16191,22 @@
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C169" s="11">
         <v>2</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H169" s="11"/>
       <c r="I169" s="13">
@@ -16272,16 +16272,16 @@
         <v>7</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H170" s="11"/>
       <c r="I170" s="13">
@@ -16347,16 +16347,16 @@
         <v>4</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="13">
@@ -16422,16 +16422,16 @@
         <v>4</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H172" s="11"/>
       <c r="I172" s="13">
@@ -16491,22 +16491,22 @@
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C173" s="11">
         <v>10</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H173" s="11"/>
       <c r="I173" s="13">
@@ -16572,16 +16572,16 @@
         <v>22</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H174" s="11"/>
       <c r="I174" s="13">
@@ -16647,16 +16647,16 @@
         <v>11</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H175" s="11"/>
       <c r="I175" s="13">
@@ -16722,16 +16722,16 @@
         <v>4</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="13">
@@ -16797,16 +16797,16 @@
         <v>21</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="13">
@@ -16872,16 +16872,16 @@
         <v>18</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="13">
@@ -16941,22 +16941,22 @@
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C179" s="11">
         <v>3</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H179" s="11"/>
       <c r="I179" s="13">
@@ -17022,16 +17022,16 @@
         <v>3</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H180" s="11"/>
       <c r="I180" s="13">
@@ -17089,16 +17089,16 @@
         <v>3</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="13">
@@ -17164,16 +17164,16 @@
         <v>3</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="13">
@@ -17239,16 +17239,16 @@
         <v>3</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H183" s="11"/>
       <c r="I183" s="13">
@@ -17306,16 +17306,16 @@
         <v>55</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H184" s="11"/>
       <c r="I184" s="13">
@@ -17381,16 +17381,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="13">
@@ -17456,16 +17456,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="13">
@@ -17531,16 +17531,16 @@
         <v>4</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="13">
@@ -17606,16 +17606,16 @@
         <v>4</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="13">
@@ -17681,16 +17681,16 @@
         <v>279</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="13">
@@ -17756,16 +17756,16 @@
         <v>2</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H190" s="11"/>
       <c r="I190" s="13">
@@ -17829,16 +17829,16 @@
         <v>6</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="13">
@@ -17898,22 +17898,22 @@
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C192" s="11">
         <v>3</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="13">
@@ -17979,16 +17979,16 @@
         <v>3</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="13">
@@ -18054,16 +18054,16 @@
         <v>4</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="13">
@@ -18129,16 +18129,16 @@
         <v>3</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H195" s="11"/>
       <c r="I195" s="13">
@@ -18204,16 +18204,16 @@
         <v>2</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="13">
@@ -18279,16 +18279,16 @@
         <v>2</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H197" s="11"/>
       <c r="I197" s="13">
@@ -18348,22 +18348,22 @@
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" s="11">
         <v>2</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H198" s="11"/>
       <c r="I198" s="13">
@@ -18415,22 +18415,22 @@
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C199" s="11">
         <v>2</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H199" s="11"/>
       <c r="I199" s="13">
@@ -18488,16 +18488,16 @@
         <v>2</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H200" s="11"/>
       <c r="I200" s="13">
@@ -18557,22 +18557,22 @@
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C201" s="11">
         <v>2</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H201" s="11"/>
       <c r="I201" s="13">
@@ -18632,22 +18632,22 @@
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" s="11">
         <v>2</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H202" s="11"/>
       <c r="I202" s="13">
@@ -18705,16 +18705,16 @@
         <v>2</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H203" s="11"/>
       <c r="I203" s="13">
@@ -18772,16 +18772,16 @@
         <v>4</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H204" s="11"/>
       <c r="I204" s="13">
@@ -18847,16 +18847,16 @@
         <v>9</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="13">
@@ -18922,16 +18922,16 @@
         <v>3</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H206" s="11"/>
       <c r="I206" s="13">
@@ -18989,16 +18989,16 @@
         <v>3</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H207" s="11"/>
       <c r="I207" s="13">
@@ -19064,16 +19064,16 @@
         <v>3</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H208" s="11"/>
       <c r="I208" s="13">
@@ -19131,22 +19131,22 @@
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C209" s="11">
         <v>2</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H209" s="11"/>
       <c r="I209" s="13">
@@ -19204,16 +19204,16 @@
         <v>9</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H210" s="11"/>
       <c r="I210" s="13">
@@ -19279,16 +19279,16 @@
         <v>2</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H211" s="11"/>
       <c r="I211" s="13">
@@ -19354,16 +19354,16 @@
         <v>1</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H212" s="11"/>
       <c r="I212" s="13">
@@ -19415,22 +19415,22 @@
         <v>211</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C213" s="11">
         <v>1</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H213" s="11"/>
       <c r="I213" s="13">
@@ -19496,16 +19496,16 @@
         <v>1</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H214" s="11"/>
       <c r="I214" s="13">
@@ -19571,16 +19571,16 @@
         <v>1</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H215" s="11"/>
       <c r="I215" s="13">
@@ -19644,16 +19644,16 @@
         <v>1</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="13">
@@ -19719,16 +19719,16 @@
         <v>1</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H217" s="11"/>
       <c r="I217" s="13">
@@ -19794,16 +19794,16 @@
         <v>1</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H218" s="11"/>
       <c r="I218" s="13">
@@ -19869,16 +19869,16 @@
         <v>1</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H219" s="11"/>
       <c r="I219" s="13">
@@ -19944,16 +19944,16 @@
         <v>1</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H220" s="11"/>
       <c r="I220" s="13">
@@ -20011,16 +20011,16 @@
         <v>1</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H221" s="11"/>
       <c r="I221" s="13">
@@ -20084,16 +20084,16 @@
         <v>1</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H222" s="11"/>
       <c r="I222" s="13">
@@ -20159,16 +20159,16 @@
         <v>1</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H223" s="11"/>
       <c r="I223" s="13">
@@ -20228,22 +20228,22 @@
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C224" s="11">
         <v>1</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H224" s="11"/>
       <c r="I224" s="13">
@@ -20295,22 +20295,22 @@
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C225" s="11">
         <v>1</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H225" s="11"/>
       <c r="I225" s="13">
@@ -20368,16 +20368,16 @@
         <v>1</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H226" s="11"/>
       <c r="I226" s="13">
@@ -20443,16 +20443,16 @@
         <v>1</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H227" s="11"/>
       <c r="I227" s="13">
@@ -20516,16 +20516,16 @@
         <v>1</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H228" s="11"/>
       <c r="I228" s="13">
@@ -20583,16 +20583,16 @@
         <v>1</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H229" s="11"/>
       <c r="I229" s="13">
@@ -20656,16 +20656,16 @@
         <v>1</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H230" s="11"/>
       <c r="I230" s="13">
@@ -20725,22 +20725,22 @@
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C231" s="11">
         <v>1</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H231" s="11"/>
       <c r="I231" s="13">
@@ -20806,16 +20806,16 @@
         <v>1</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H232" s="11"/>
       <c r="I232" s="13">
@@ -20881,16 +20881,16 @@
         <v>1</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H233" s="11"/>
       <c r="I233" s="13">
@@ -20954,16 +20954,16 @@
         <v>4</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H234" s="11"/>
       <c r="I234" s="13">
@@ -21029,16 +21029,16 @@
         <v>1</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H235" s="11"/>
       <c r="I235" s="13">
@@ -21104,16 +21104,16 @@
         <v>1</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H236" s="11"/>
       <c r="I236" s="13">
@@ -21171,16 +21171,16 @@
         <v>7</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H237" s="11"/>
       <c r="I237" s="13">
@@ -21246,16 +21246,16 @@
         <v>1</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H238" s="11"/>
       <c r="I238" s="13">
@@ -21315,22 +21315,22 @@
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C239" s="11">
         <v>1</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="13">
@@ -21396,16 +21396,16 @@
         <v>6</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H240" s="11"/>
       <c r="I240" s="13">
@@ -21471,16 +21471,16 @@
         <v>1</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H241" s="11"/>
       <c r="I241" s="13">
@@ -21546,16 +21546,16 @@
         <v>1</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H242" s="11"/>
       <c r="I242" s="13">
@@ -21621,16 +21621,16 @@
         <v>8</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H243" s="11"/>
       <c r="I243" s="13">
@@ -21696,16 +21696,16 @@
         <v>3</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="13">
@@ -21771,16 +21771,16 @@
         <v>5</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H245" s="11"/>
       <c r="I245" s="13">
@@ -21846,16 +21846,16 @@
         <v>1</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="13">
@@ -21919,16 +21919,16 @@
         <v>1</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H247" s="11"/>
       <c r="I247" s="13">
@@ -21988,22 +21988,22 @@
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C248" s="11">
         <v>7</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H248" s="11"/>
       <c r="I248" s="13">
@@ -22069,16 +22069,16 @@
         <v>1</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H249" s="11"/>
       <c r="I249" s="13">
@@ -22144,16 +22144,16 @@
         <v>2</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H250" s="11"/>
       <c r="I250" s="13">
@@ -22219,16 +22219,16 @@
         <v>1</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H251" s="11"/>
       <c r="I251" s="13">
@@ -22288,22 +22288,22 @@
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C252" s="11">
         <v>1</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H252" s="11"/>
       <c r="I252" s="13">
@@ -22355,22 +22355,22 @@
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C253" s="11">
         <v>3</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H253" s="11"/>
       <c r="I253" s="13">
@@ -22436,16 +22436,16 @@
         <v>1</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H254" s="11"/>
       <c r="I254" s="13">
@@ -22509,16 +22509,16 @@
         <v>2</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H255" s="11"/>
       <c r="I255" s="13">
@@ -22584,16 +22584,16 @@
         <v>9</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H256" s="11"/>
       <c r="I256" s="13">
@@ -22653,22 +22653,22 @@
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C257" s="11">
         <v>7</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H257" s="11"/>
       <c r="I257" s="13">
@@ -22734,16 +22734,16 @@
         <v>3</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H258" s="11"/>
       <c r="I258" s="13">
@@ -22803,22 +22803,22 @@
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C259" s="11">
         <v>1</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H259" s="11"/>
       <c r="I259" s="13">
@@ -22884,16 +22884,16 @@
         <v>5</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H260" s="11"/>
       <c r="I260" s="13">
@@ -22959,16 +22959,16 @@
         <v>7</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H261" s="11"/>
       <c r="I261" s="13">
@@ -23034,16 +23034,16 @@
         <v>260</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H262" s="11"/>
       <c r="I262" s="13">
@@ -23109,16 +23109,16 @@
         <v>1</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H263" s="11"/>
       <c r="I263" s="13">
@@ -23178,22 +23178,22 @@
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C264" s="11">
         <v>1</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H264" s="11"/>
       <c r="I264" s="13">
@@ -23251,16 +23251,16 @@
         <v>1</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H265" s="11"/>
       <c r="I265" s="13">
@@ -23326,16 +23326,16 @@
         <v>657</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H266" s="11"/>
       <c r="I266" s="13">
@@ -23401,16 +23401,16 @@
         <v>1</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H267" s="11"/>
       <c r="I267" s="13">
@@ -23470,22 +23470,22 @@
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C268" s="11">
         <v>2</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H268" s="11"/>
       <c r="I268" s="13">
@@ -23551,16 +23551,16 @@
         <v>1</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H269" s="11"/>
       <c r="I269" s="13">
@@ -23626,16 +23626,16 @@
         <v>2</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H270" s="11"/>
       <c r="I270" s="13">
@@ -23693,22 +23693,22 @@
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C271" s="11">
         <v>3</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H271" s="11"/>
       <c r="I271" s="13">
@@ -23768,22 +23768,22 @@
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C272" s="11">
         <v>2</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H272" s="11"/>
       <c r="I272" s="13">
@@ -23835,22 +23835,22 @@
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C273" s="11">
         <v>1</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H273" s="11"/>
       <c r="I273" s="13">
@@ -23908,16 +23908,16 @@
         <v>1</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H274" s="11"/>
       <c r="I274" s="13">
@@ -23983,16 +23983,16 @@
         <v>34</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H275" s="11"/>
       <c r="I275" s="13">
@@ -24058,16 +24058,16 @@
         <v>2</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H276" s="11"/>
       <c r="I276" s="13">
@@ -24133,16 +24133,16 @@
         <v>21</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H277" s="11"/>
       <c r="I277" s="13">
@@ -24208,16 +24208,16 @@
         <v>3</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H278" s="11"/>
       <c r="I278" s="13">
@@ -24283,16 +24283,16 @@
         <v>8</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H279" s="11"/>
       <c r="I279" s="13">
@@ -24358,16 +24358,16 @@
         <v>1</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H280" s="11"/>
       <c r="I280" s="13">
@@ -24425,16 +24425,16 @@
         <v>12</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H281" s="11"/>
       <c r="I281" s="13">
@@ -24494,22 +24494,22 @@
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C282" s="11">
         <v>10</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G282" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H282" s="11"/>
       <c r="I282" s="13">
@@ -24569,22 +24569,22 @@
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C283" s="11">
         <v>2</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G283" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H283" s="11"/>
       <c r="I283" s="13">
@@ -24642,16 +24642,16 @@
         <v>2</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H284" s="11"/>
       <c r="I284" s="13">
@@ -24717,16 +24717,16 @@
         <v>4</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G285" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H285" s="11"/>
       <c r="I285" s="13">
@@ -24792,16 +24792,16 @@
         <v>2</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H286" s="11"/>
       <c r="I286" s="13">
@@ -24867,16 +24867,16 @@
         <v>1</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H287" s="11"/>
       <c r="I287" s="13">
@@ -24942,16 +24942,16 @@
         <v>6</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H288" s="11"/>
       <c r="I288" s="13">
@@ -25009,16 +25009,16 @@
         <v>18</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E289" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H289" s="11"/>
       <c r="I289" s="13">
@@ -25084,16 +25084,16 @@
         <v>2</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H290" s="11"/>
       <c r="I290" s="13">
@@ -25159,16 +25159,16 @@
         <v>1</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G291" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H291" s="11"/>
       <c r="I291" s="13">
@@ -25234,16 +25234,16 @@
         <v>3</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H292" s="11"/>
       <c r="I292" s="13">
@@ -25309,16 +25309,16 @@
         <v>13</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H293" s="11"/>
       <c r="I293" s="13">
@@ -25384,16 +25384,16 @@
         <v>3</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G294" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H294" s="11"/>
       <c r="I294" s="13">
@@ -25459,16 +25459,16 @@
         <v>1</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H295" s="11"/>
       <c r="I295" s="13">
@@ -25520,22 +25520,22 @@
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C296" s="11">
         <v>5</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H296" s="11"/>
       <c r="I296" s="13">
@@ -25601,16 +25601,16 @@
         <v>2</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H297" s="11"/>
       <c r="I297" s="13">
@@ -25676,16 +25676,16 @@
         <v>5</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H298" s="11"/>
       <c r="I298" s="13">
@@ -25751,16 +25751,16 @@
         <v>1</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H299" s="11"/>
       <c r="I299" s="13">
@@ -25824,16 +25824,16 @@
         <v>1</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G300" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H300" s="11"/>
       <c r="I300" s="13">
@@ -25899,16 +25899,16 @@
         <v>3</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H301" s="11"/>
       <c r="I301" s="13">
@@ -25974,16 +25974,16 @@
         <v>1</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E302" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G302" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H302" s="11"/>
       <c r="I302" s="13">
@@ -26049,16 +26049,16 @@
         <v>1</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E303" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H303" s="11"/>
       <c r="I303" s="13">
@@ -26116,16 +26116,16 @@
         <v>13</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E304" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H304" s="11"/>
       <c r="I304" s="13">
@@ -26191,16 +26191,16 @@
         <v>2</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E305" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H305" s="11"/>
       <c r="I305" s="13">
@@ -26266,16 +26266,16 @@
         <v>1</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E306" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G306" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H306" s="11"/>
       <c r="I306" s="13">
@@ -26341,16 +26341,16 @@
         <v>3</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H307" s="11"/>
       <c r="I307" s="13">
@@ -26410,22 +26410,22 @@
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C308" s="11">
         <v>1</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F308" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H308" s="11"/>
       <c r="I308" s="13">
@@ -26477,22 +26477,22 @@
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C309" s="11">
         <v>1</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H309" s="11"/>
       <c r="I309" s="13">
@@ -26550,16 +26550,16 @@
         <v>1</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G310" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H310" s="11"/>
       <c r="I310" s="13">
@@ -26625,16 +26625,16 @@
         <v>1</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H311" s="11"/>
       <c r="I311" s="13">
@@ -26692,16 +26692,16 @@
         <v>2</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E312" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G312" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H312" s="11"/>
       <c r="I312" s="13">
@@ -26767,16 +26767,16 @@
         <v>1</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F313" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H313" s="11"/>
       <c r="I313" s="13">
@@ -26840,16 +26840,16 @@
         <v>3</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G314" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H314" s="11"/>
       <c r="I314" s="13">
@@ -26915,16 +26915,16 @@
         <v>5</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H315" s="11"/>
       <c r="I315" s="13">
@@ -26990,16 +26990,16 @@
         <v>1</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G316" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H316" s="11"/>
       <c r="I316" s="13">
@@ -27057,22 +27057,22 @@
         <v>315</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C317" s="11">
         <v>2</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G317" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H317" s="11"/>
       <c r="I317" s="13">
@@ -27138,16 +27138,16 @@
         <v>1</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G318" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H318" s="11"/>
       <c r="I318" s="13">
@@ -27213,16 +27213,16 @@
         <v>1</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G319" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H319" s="11"/>
       <c r="I319" s="13">
@@ -27280,16 +27280,16 @@
         <v>4</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H320" s="11"/>
       <c r="I320" s="13">
@@ -27353,16 +27353,16 @@
         <v>3</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E321" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H321" s="11"/>
       <c r="I321" s="13">
@@ -27428,16 +27428,16 @@
         <v>1</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G322" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H322" s="11"/>
       <c r="I322" s="13">
@@ -27503,16 +27503,16 @@
         <v>30</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E323" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G323" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H323" s="11"/>
       <c r="I323" s="13">
@@ -27578,16 +27578,16 @@
         <v>2</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H324" s="11"/>
       <c r="I324" s="13">
@@ -27653,16 +27653,16 @@
         <v>11</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G325" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H325" s="11"/>
       <c r="I325" s="13">
@@ -27728,16 +27728,16 @@
         <v>1</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H326" s="11"/>
       <c r="I326" s="13">
@@ -27803,16 +27803,16 @@
         <v>10</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E327" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F327" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G327" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H327" s="11"/>
       <c r="I327" s="13">
@@ -27878,16 +27878,16 @@
         <v>9</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E328" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F328" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G328" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H328" s="11"/>
       <c r="I328" s="13">
@@ -27953,16 +27953,16 @@
         <v>2</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F329" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G329" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H329" s="11"/>
       <c r="I329" s="13">
@@ -28028,16 +28028,16 @@
         <v>7</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F330" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G330" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H330" s="11"/>
       <c r="I330" s="13">
@@ -28103,16 +28103,16 @@
         <v>8</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F331" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G331" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H331" s="11"/>
       <c r="I331" s="13">
@@ -28178,16 +28178,16 @@
         <v>2</v>
       </c>
       <c r="D332" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E332" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F332" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G332" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H332" s="11"/>
       <c r="I332" s="13">
@@ -28245,16 +28245,16 @@
         <v>17</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E333" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G333" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H333" s="11"/>
       <c r="I333" s="13">
@@ -28320,16 +28320,16 @@
         <v>5</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F334" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G334" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H334" s="11"/>
       <c r="I334" s="13">
@@ -28389,22 +28389,22 @@
         <v>333</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C335" s="11">
         <v>3</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E335" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F335" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H335" s="11"/>
       <c r="I335" s="13">
@@ -28462,16 +28462,16 @@
         <v>1</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E336" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F336" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G336" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H336" s="11"/>
       <c r="I336" s="13">
@@ -28531,22 +28531,22 @@
         <v>335</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C337" s="11">
         <v>12</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F337" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G337" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H337" s="11"/>
       <c r="I337" s="13">
@@ -28604,16 +28604,16 @@
         <v>52</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E338" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F338" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G338" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H338" s="11"/>
       <c r="I338" s="13">
@@ -28679,16 +28679,16 @@
         <v>21</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E339" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F339" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G339" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H339" s="11"/>
       <c r="I339" s="13">
@@ -28748,22 +28748,22 @@
         <v>338</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C340" s="11">
         <v>105</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E340" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G340" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H340" s="11"/>
       <c r="I340" s="13">
@@ -28829,16 +28829,16 @@
         <v>1</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E341" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G341" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H341" s="11"/>
       <c r="I341" s="13">
@@ -28904,16 +28904,16 @@
         <v>4</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E342" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G342" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H342" s="11"/>
       <c r="I342" s="13">
@@ -28979,16 +28979,16 @@
         <v>2</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E343" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G343" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H343" s="11"/>
       <c r="I343" s="13">
@@ -29054,16 +29054,16 @@
         <v>19</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E344" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G344" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H344" s="11"/>
       <c r="I344" s="13">
@@ -29129,16 +29129,16 @@
         <v>1</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E345" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G345" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H345" s="11"/>
       <c r="I345" s="13">
@@ -29198,22 +29198,22 @@
         <v>344</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C346" s="11">
         <v>465</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E346" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F346" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G346" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H346" s="11"/>
       <c r="I346" s="13">
@@ -29279,16 +29279,16 @@
         <v>8</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E347" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F347" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G347" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H347" s="11"/>
       <c r="I347" s="13">
@@ -29348,22 +29348,22 @@
         <v>346</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C348" s="11">
         <v>135</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E348" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F348" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G348" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H348" s="11"/>
       <c r="I348" s="13">
@@ -29429,16 +29429,16 @@
         <v>2</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E349" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F349" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G349" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H349" s="11"/>
       <c r="I349" s="13">
@@ -29504,16 +29504,16 @@
         <v>5</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E350" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F350" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G350" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H350" s="11"/>
       <c r="I350" s="13">
@@ -29573,22 +29573,22 @@
         <v>349</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C351" s="11">
         <v>3</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F351" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G351" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H351" s="11"/>
       <c r="I351" s="13">
@@ -29646,16 +29646,16 @@
         <v>12</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F352" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G352" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H352" s="11"/>
       <c r="I352" s="13">
@@ -29715,22 +29715,22 @@
         <v>351</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C353" s="11">
         <v>4</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F353" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G353" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H353" s="11"/>
       <c r="I353" s="13">
@@ -29790,22 +29790,22 @@
         <v>352</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C354" s="11">
         <v>11</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F354" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G354" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H354" s="11"/>
       <c r="I354" s="13">
@@ -29863,16 +29863,16 @@
         <v>2</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F355" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G355" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H355" s="11"/>
       <c r="I355" s="13">
@@ -29932,22 +29932,22 @@
         <v>354</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C356" s="11">
         <v>9</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F356" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G356" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H356" s="11"/>
       <c r="I356" s="13">
@@ -30013,16 +30013,16 @@
         <v>3</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E357" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F357" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G357" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H357" s="11"/>
       <c r="I357" s="13">
@@ -30088,16 +30088,16 @@
         <v>6</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F358" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G358" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H358" s="11"/>
       <c r="I358" s="13">
@@ -30157,22 +30157,22 @@
         <v>357</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C359" s="11">
         <v>4</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E359" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F359" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G359" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H359" s="11"/>
       <c r="I359" s="13">
@@ -30230,16 +30230,16 @@
         <v>12</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E360" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F360" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G360" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H360" s="11"/>
       <c r="I360" s="13">
@@ -30305,16 +30305,16 @@
         <v>6</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F361" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G361" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H361" s="11"/>
       <c r="I361" s="13">
@@ -30380,16 +30380,16 @@
         <v>2</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E362" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F362" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G362" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H362" s="11"/>
       <c r="I362" s="13">
@@ -30449,22 +30449,22 @@
         <v>361</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C363" s="11">
         <v>3</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F363" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G363" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H363" s="11"/>
       <c r="I363" s="13">
@@ -30522,16 +30522,16 @@
         <v>7</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F364" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G364" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H364" s="11"/>
       <c r="I364" s="13">
@@ -30597,16 +30597,16 @@
         <v>1</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G365" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H365" s="11"/>
       <c r="I365" s="13">
@@ -30672,16 +30672,16 @@
         <v>2</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E366" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F366" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G366" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H366" s="11"/>
       <c r="I366" s="13">
@@ -30741,22 +30741,22 @@
         <v>365</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C367" s="11">
         <v>4</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F367" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G367" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H367" s="11"/>
       <c r="I367" s="13">
@@ -30822,16 +30822,16 @@
         <v>2</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F368" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G368" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H368" s="11"/>
       <c r="I368" s="13">
@@ -30895,16 +30895,16 @@
         <v>6</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E369" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F369" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G369" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H369" s="11"/>
       <c r="I369" s="13">
@@ -30970,16 +30970,16 @@
         <v>5</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F370" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G370" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H370" s="11"/>
       <c r="I370" s="13">
@@ -31039,22 +31039,22 @@
         <v>369</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C371" s="11">
         <v>1</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F371" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G371" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H371" s="11"/>
       <c r="I371" s="13">
@@ -31120,16 +31120,16 @@
         <v>47</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F372" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G372" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H372" s="11"/>
       <c r="I372" s="13">
@@ -31195,16 +31195,16 @@
         <v>10</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F373" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G373" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H373" s="11"/>
       <c r="I373" s="13">
@@ -31270,16 +31270,16 @@
         <v>133</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F374" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G374" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H374" s="11"/>
       <c r="I374" s="13">
@@ -31397,15 +31397,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120">
       <c r="A5" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
@@ -31422,10 +31422,10 @@
     </row>
     <row r="8" spans="1:2" ht="75">
       <c r="A8" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
@@ -31433,7 +31433,7 @@
         <v>211</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
@@ -31502,7 +31502,7 @@
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>214</v>
@@ -31513,7 +31513,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
@@ -31521,7 +31521,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31554,10 +31554,10 @@
     </row>
     <row r="26" spans="1:2" ht="105">
       <c r="A26" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>368</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:2">

--- a/pollster-ratings/pollster-stats-full.xlsx
+++ b/pollster-ratings/pollster-stats-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bycoffea/projects/data/pollster-ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661C76D-C3B8-CB46-BF3B-D3E583661242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFC56E8-742B-674F-BEB7-9913EECAE331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-75200" yWindow="4000" windowWidth="33420" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="540">
   <si>
     <t>Pollster</t>
   </si>
@@ -1780,6 +1780,9 @@
   </si>
   <si>
     <t>A herding penalty is triggered when a firm's ADPA is lower than the theoretical minimum based on the sampling error in it's polls. For instance, if a pollster's ADPA is 3.5, but you'd expect its polls to deviate by a minimum of 4.5 points from the polling average given sampling error based on its sample sizes, the firm would receive a herding penalty of 1 point. This penalty is added to a firm's Advanced Plus-Minus score before calculating Predictive Plus-Minus.</t>
+  </si>
+  <si>
+    <t>Latest Poll</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2315,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2375,6 +2378,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2739,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,7 +2846,9 @@
       <c r="AB1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="3"/>
+      <c r="AC1" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="AD1" s="5"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2914,6 +2920,9 @@
       </c>
       <c r="AB2" s="17">
         <v>0.20439105689350101</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>43903</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -2986,6 +2995,9 @@
       <c r="AB3" s="17">
         <v>0</v>
       </c>
+      <c r="AC3" s="26">
+        <v>43405</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -3057,6 +3069,9 @@
       <c r="AB4" s="17">
         <v>0.12444375995537101</v>
       </c>
+      <c r="AC4" s="26">
+        <v>43404</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -3128,6 +3143,9 @@
       <c r="AB5" s="17">
         <v>0.19315728714007399</v>
       </c>
+      <c r="AC5" s="26">
+        <v>43852</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -3199,6 +3217,9 @@
       <c r="AB6" s="17">
         <v>1.2533913674993E-2</v>
       </c>
+      <c r="AC6" s="26">
+        <v>42519</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -3270,6 +3291,9 @@
       <c r="AB7" s="17">
         <v>0</v>
       </c>
+      <c r="AC7" s="26">
+        <v>43917</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -3341,6 +3365,9 @@
       <c r="AB8" s="17">
         <v>0.96581265865375299</v>
       </c>
+      <c r="AC8" s="26">
+        <v>43403</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -3412,6 +3439,9 @@
       <c r="AB9" s="17">
         <v>0</v>
       </c>
+      <c r="AC9" s="26">
+        <v>43903</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -3483,6 +3513,9 @@
       <c r="AB10" s="17">
         <v>0.65361137694085902</v>
       </c>
+      <c r="AC10" s="26">
+        <v>43390</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -3554,6 +3587,9 @@
       <c r="AB11" s="17">
         <v>0.89361477288074898</v>
       </c>
+      <c r="AC11" s="26">
+        <v>39746</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -3625,6 +3661,9 @@
       <c r="AB12" s="17">
         <v>0</v>
       </c>
+      <c r="AC12" s="26">
+        <v>43401</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -3696,6 +3735,9 @@
       <c r="AB13" s="17">
         <v>0.11693714621463799</v>
       </c>
+      <c r="AC13" s="26">
+        <v>43895</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -3767,6 +3809,9 @@
       <c r="AB14" s="17">
         <v>0.59029400371983298</v>
       </c>
+      <c r="AC14" s="26">
+        <v>39015</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -3838,6 +3883,9 @@
       <c r="AB15" s="17">
         <v>0</v>
       </c>
+      <c r="AC15" s="26">
+        <v>43886</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -3909,8 +3957,11 @@
       <c r="AB16" s="17">
         <v>0.30120971268706698</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="26">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3980,8 +4031,11 @@
       <c r="AB17" s="17">
         <v>0.23017321545913899</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="26">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4051,8 +4105,11 @@
       <c r="AB18" s="17">
         <v>0.66669451059840901</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="26">
+        <v>41215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4122,8 +4179,11 @@
       <c r="AB19" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="26">
+        <v>39743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4193,8 +4253,11 @@
       <c r="AB20" s="17">
         <v>1.4582533263465101</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="26">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4264,8 +4327,11 @@
       <c r="AB21" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="26">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4335,8 +4401,11 @@
       <c r="AB22" s="17">
         <v>0.25241207297451101</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4406,8 +4475,11 @@
       <c r="AB23" s="17">
         <v>0.14801310265353099</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="26">
+        <v>39747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4475,8 +4547,11 @@
       <c r="AB24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="26">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4546,8 +4621,11 @@
       <c r="AB25" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="26">
+        <v>39741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4617,8 +4695,11 @@
       <c r="AB26" s="17">
         <v>0.46185303516572801</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="26">
+        <v>41215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4688,8 +4769,11 @@
       <c r="AB27" s="17">
         <v>7.7553583015047403E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="26">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4759,8 +4843,11 @@
       <c r="AB28" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="26">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4822,8 +4909,11 @@
       <c r="AB29" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="26">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4893,8 +4983,11 @@
       <c r="AB30" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="26">
+        <v>38012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4964,8 +5057,11 @@
       <c r="AB31" s="17">
         <v>0.14426666091288501</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="26">
+        <v>36821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -5033,8 +5129,11 @@
       <c r="AB32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="26">
+        <v>38278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -5104,8 +5203,11 @@
       <c r="AB33" s="17">
         <v>0.20319848701805801</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5175,8 +5277,11 @@
       <c r="AB34" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="26">
+        <v>36099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -5246,8 +5351,11 @@
       <c r="AB35" s="17">
         <v>1.2652657413852899</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="26">
+        <v>37557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5317,8 +5425,11 @@
       <c r="AB36" s="17">
         <v>0.50440251412910897</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="26">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -5388,8 +5499,11 @@
       <c r="AB37" s="17">
         <v>1.20066299638047</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="26">
+        <v>41938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -5459,8 +5573,11 @@
       <c r="AB38" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="26">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -5530,8 +5647,11 @@
       <c r="AB39" s="17">
         <v>0.150227536975824</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="26">
+        <v>40478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5601,8 +5721,11 @@
       <c r="AB40" s="17">
         <v>0.225175663719731</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="26">
+        <v>36825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5672,8 +5795,11 @@
       <c r="AB41" s="17">
         <v>5.1239315059432702E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="26">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5743,8 +5869,11 @@
       <c r="AB42" s="17">
         <v>2.6906638741212499</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="26">
+        <v>37555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5812,8 +5941,11 @@
       <c r="AB43" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="26">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5881,8 +6013,11 @@
       <c r="AB44" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="26">
+        <v>36084</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5952,8 +6087,11 @@
       <c r="AB45" s="17">
         <v>0.39703495880366202</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="26">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -6023,8 +6161,11 @@
       <c r="AB46" s="17">
         <v>0.27494655069351898</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="26">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -6094,8 +6235,11 @@
       <c r="AB47" s="17">
         <v>4.8378202652486997E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="26">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -6165,8 +6309,11 @@
       <c r="AB48" s="17">
         <v>0.427422406865124</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="26">
+        <v>41218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -6236,8 +6383,11 @@
       <c r="AB49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="26">
+        <v>41937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -6307,8 +6457,11 @@
       <c r="AB50" s="17">
         <v>0.36122451277082301</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="26">
+        <v>41204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -6378,8 +6531,11 @@
       <c r="AB51" s="17">
         <v>9.2445166898961303E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="26">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -6449,8 +6605,11 @@
       <c r="AB52" s="17">
         <v>8.6366249956745994E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="26">
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -6520,8 +6679,11 @@
       <c r="AB53" s="17">
         <v>0.56471380815966299</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="26">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -6591,8 +6753,11 @@
       <c r="AB54" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="26">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -6662,8 +6827,11 @@
       <c r="AB55" s="17">
         <v>0.134218970821226</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="26">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -6733,8 +6901,11 @@
       <c r="AB56" s="17">
         <v>0.36666446270772102</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="26">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -6804,8 +6975,11 @@
       <c r="AB57" s="17">
         <v>0.21581744899467201</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="26">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -6875,8 +7049,11 @@
       <c r="AB58" s="17">
         <v>3.8890847204040097E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -6946,8 +7123,11 @@
       <c r="AB59" s="17">
         <v>0.57082673349048296</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="26">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -7017,8 +7197,11 @@
       <c r="AB60" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="26">
+        <v>42434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -7088,8 +7271,11 @@
       <c r="AB61" s="17">
         <v>3.8400246953356698E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="26">
+        <v>40476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -7159,8 +7345,11 @@
       <c r="AB62" s="17">
         <v>1.22946696722417</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="26">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -7230,8 +7419,11 @@
       <c r="AB63" s="17">
         <v>0.20680601636851001</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="26">
+        <v>41936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -7301,8 +7493,11 @@
       <c r="AB64" s="17">
         <v>0.63118547669416003</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="26">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -7372,8 +7567,11 @@
       <c r="AB65" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="26">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -7443,8 +7641,11 @@
       <c r="AB66" s="17">
         <v>0.76097226907244198</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="26">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -7514,8 +7715,11 @@
       <c r="AB67" s="17">
         <v>0.84912864451612902</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="26">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -7585,8 +7789,11 @@
       <c r="AB68" s="17">
         <v>0.33227001959520702</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="26">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -7656,8 +7863,11 @@
       <c r="AB69" s="17">
         <v>0.115999785905315</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="26">
+        <v>39753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -7727,8 +7937,11 @@
       <c r="AB70" s="17">
         <v>0.37076802897498501</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="26">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -7798,8 +8011,11 @@
       <c r="AB71" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="26">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -7869,8 +8085,11 @@
       <c r="AB72" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="26">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -7940,8 +8159,11 @@
       <c r="AB73" s="17">
         <v>0.48946414203300398</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="26">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -8011,8 +8233,11 @@
       <c r="AB74" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="26">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -8082,8 +8307,11 @@
       <c r="AB75" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="26">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -8153,8 +8381,11 @@
       <c r="AB76" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="26">
+        <v>39018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -8224,8 +8455,11 @@
       <c r="AB77" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="26">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -8295,8 +8529,11 @@
       <c r="AB78" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC78" s="26">
+        <v>40465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -8366,8 +8603,11 @@
       <c r="AB79" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC79" s="26">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -8437,8 +8677,11 @@
       <c r="AB80" s="17">
         <v>0.133394447651842</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="26">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -8508,8 +8751,11 @@
       <c r="AB81" s="17">
         <v>0.89238841499048704</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="26">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -8579,8 +8825,11 @@
       <c r="AB82" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="26">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -8650,8 +8899,11 @@
       <c r="AB83" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="26">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -8721,8 +8973,11 @@
       <c r="AB84" s="17">
         <v>0.217025867688562</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="26">
+        <v>41209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -8792,8 +9047,11 @@
       <c r="AB85" s="17">
         <v>0.62007381545838802</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="26">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -8863,8 +9121,11 @@
       <c r="AB86" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="26">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -8932,8 +9193,11 @@
       <c r="AB87" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="26">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -9003,8 +9267,11 @@
       <c r="AB88" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="26">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -9074,8 +9341,11 @@
       <c r="AB89" s="17">
         <v>0.63370028231564302</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="26">
+        <v>39753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -9145,8 +9415,11 @@
       <c r="AB90" s="17">
         <v>0.73561490706237198</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="26">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -9216,8 +9489,11 @@
       <c r="AB91" s="17">
         <v>0.34964530859242798</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="26">
+        <v>38284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -9279,8 +9555,11 @@
       <c r="AB92" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="26">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -9350,8 +9629,11 @@
       <c r="AB93" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="26">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -9421,8 +9703,11 @@
       <c r="AB94" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="26">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -9492,8 +9777,11 @@
       <c r="AB95" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="26">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -9559,8 +9847,11 @@
       <c r="AB96" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -9630,8 +9921,11 @@
       <c r="AB97" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="26">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -9701,8 +9995,11 @@
       <c r="AB98" s="17">
         <v>0.34875727859308098</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="26">
+        <v>40463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -9768,8 +10065,11 @@
       <c r="AB99" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="26">
+        <v>40477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -9837,8 +10137,11 @@
       <c r="AB100" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="26">
+        <v>39742</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -9908,8 +10211,11 @@
       <c r="AB101" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="26">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -9979,8 +10285,11 @@
       <c r="AB102" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC102" s="26">
+        <v>36826</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -10050,8 +10359,11 @@
       <c r="AB103" s="17">
         <v>0.25911985048724501</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC103" s="26">
+        <v>40475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -10121,8 +10433,11 @@
       <c r="AB104" s="17">
         <v>0.188002340876016</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC104" s="26">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -10192,8 +10507,11 @@
       <c r="AB105" s="17">
         <v>0.35337097653706401</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC105" s="26">
+        <v>39019</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -10263,8 +10581,11 @@
       <c r="AB106" s="17">
         <v>0.336929836106451</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC106" s="26">
+        <v>39383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -10334,8 +10655,11 @@
       <c r="AB107" s="17">
         <v>1.2509387624224799</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC107" s="26">
+        <v>37558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -10403,8 +10727,11 @@
       <c r="AB108" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC108" s="26">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -10474,8 +10801,11 @@
       <c r="AB109" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC109" s="26">
+        <v>40477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -10545,8 +10875,11 @@
       <c r="AB110" s="17">
         <v>2.65733341127256E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC110" s="26">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -10616,8 +10949,11 @@
       <c r="AB111" s="17">
         <v>0.53163089225859494</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC111" s="26">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -10687,8 +11023,11 @@
       <c r="AB112" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC112" s="26">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -10758,8 +11097,11 @@
       <c r="AB113" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC113" s="26">
+        <v>41199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -10829,8 +11171,11 @@
       <c r="AB114" s="17">
         <v>9.86813755502782E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC114" s="26">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -10900,8 +11245,11 @@
       <c r="AB115" s="17">
         <v>0.654655589746167</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC115" s="26">
+        <v>39741</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -10965,8 +11313,11 @@
       <c r="AB116" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC116" s="26">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -11034,8 +11385,11 @@
       <c r="AB117" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC117" s="26">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -11103,8 +11457,11 @@
       <c r="AB118" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC118" s="26">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -11174,8 +11531,11 @@
       <c r="AB119" s="17">
         <v>3.2403596981301001E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC119" s="26">
+        <v>39742</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -11245,8 +11605,11 @@
       <c r="AB120" s="17">
         <v>0.16984666013563701</v>
       </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC120" s="26">
+        <v>40476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -11316,8 +11679,11 @@
       <c r="AB121" s="17">
         <v>0.212827953317027</v>
       </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC121" s="26">
+        <v>38284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -11387,8 +11753,11 @@
       <c r="AB122" s="17">
         <v>1.04656044092272</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC122" s="26">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -11456,8 +11825,11 @@
       <c r="AB123" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC123" s="26">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -11527,8 +11899,11 @@
       <c r="AB124" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC124" s="26">
+        <v>39011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -11598,8 +11973,11 @@
       <c r="AB125" s="17">
         <v>5.7200010473665103E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC125" s="26">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -11667,8 +12045,11 @@
       <c r="AB126" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC126" s="26">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -11736,8 +12117,11 @@
       <c r="AB127" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC127" s="26">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -11807,8 +12191,11 @@
       <c r="AB128" s="17">
         <v>0.237854928628879</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC128" s="26">
+        <v>40194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -11870,8 +12257,11 @@
       <c r="AB129" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC129" s="26">
+        <v>39490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -11935,8 +12325,11 @@
       <c r="AB130" s="17">
         <v>2.7413447753403999E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC130" s="26">
+        <v>37992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -12006,8 +12399,11 @@
       <c r="AB131" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC131" s="26">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -12069,8 +12465,11 @@
       <c r="AB132" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC132" s="26">
+        <v>42514</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -12132,8 +12531,11 @@
       <c r="AB133" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC133" s="26">
+        <v>42417</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -12203,8 +12605,11 @@
       <c r="AB134" s="17">
         <v>0.44848219928143102</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC134" s="26">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -12274,8 +12679,11 @@
       <c r="AB135" s="17">
         <v>0.22198661329583999</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC135" s="26">
+        <v>41939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -12337,8 +12745,11 @@
       <c r="AB136" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC136" s="26">
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -12408,8 +12819,11 @@
       <c r="AB137" s="17">
         <v>0.16574045331499901</v>
       </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC137" s="26">
+        <v>38283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -12475,8 +12889,11 @@
       <c r="AB138" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC138" s="26">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -12546,8 +12963,11 @@
       <c r="AB139" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC139" s="26">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -12615,8 +13035,11 @@
       <c r="AB140" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC140" s="26">
+        <v>38274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -12684,8 +13107,11 @@
       <c r="AB141" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC141" s="26">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -12755,8 +13181,11 @@
       <c r="AB142" s="17">
         <v>0.79546612669065997</v>
       </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC142" s="26">
+        <v>37553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -12826,8 +13255,11 @@
       <c r="AB143" s="17">
         <v>0.69746874664006298</v>
       </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC143" s="26">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -12897,8 +13329,11 @@
       <c r="AB144" s="17">
         <v>0.75351274970702897</v>
       </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC144" s="26">
+        <v>41205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -12966,8 +13401,11 @@
       <c r="AB145" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC145" s="26">
+        <v>39013</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -13037,8 +13475,11 @@
       <c r="AB146" s="17">
         <v>0.34657185116679801</v>
       </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC146" s="26">
+        <v>37551</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -13108,8 +13549,11 @@
       <c r="AB147" s="17">
         <v>0.15500268059830599</v>
       </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC147" s="26">
+        <v>39743</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -13177,8 +13621,11 @@
       <c r="AB148" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC148" s="26">
+        <v>36816</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -13244,8 +13691,11 @@
       <c r="AB149" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC149" s="26">
+        <v>37555</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -13307,8 +13757,11 @@
       <c r="AB150" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC150" s="26">
+        <v>40119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -13372,8 +13825,11 @@
       <c r="AB151" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC151" s="26">
+        <v>42468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -13443,8 +13899,11 @@
       <c r="AB152" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC152" s="26">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -13512,8 +13971,11 @@
       <c r="AB153" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC153" s="26">
+        <v>39737</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -13583,8 +14045,11 @@
       <c r="AB154" s="17">
         <v>0.219251119200083</v>
       </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC154" s="26">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -13654,8 +14119,11 @@
       <c r="AB155" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC155" s="26">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -13725,8 +14193,11 @@
       <c r="AB156" s="17">
         <v>0.35153762191145799</v>
       </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC156" s="26">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -13796,8 +14267,11 @@
       <c r="AB157" s="17">
         <v>1.5836249328262</v>
       </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC157" s="26">
+        <v>43204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -13859,8 +14333,11 @@
       <c r="AB158" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC158" s="26">
+        <v>39474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -13926,8 +14403,11 @@
       <c r="AB159" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC159" s="26">
+        <v>39012</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -13997,8 +14477,11 @@
       <c r="AB160" s="17">
         <v>1.19201035412672</v>
       </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC160" s="26">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -14066,8 +14549,11 @@
       <c r="AB161" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC161" s="26">
+        <v>37550</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -14137,8 +14623,11 @@
       <c r="AB162" s="17">
         <v>8.5422719327762603E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC162" s="26">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -14208,8 +14697,11 @@
       <c r="AB163" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC163" s="26">
+        <v>36578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -14271,8 +14763,11 @@
       <c r="AB164" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC164" s="26">
+        <v>38036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -14340,8 +14835,11 @@
       <c r="AB165" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC165" s="26">
+        <v>38277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -14411,8 +14909,11 @@
       <c r="AB166" s="17">
         <v>0.457509485360725</v>
       </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC166" s="26">
+        <v>37547</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -14478,8 +14979,11 @@
       <c r="AB167" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC167" s="26">
+        <v>37544</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -14545,8 +15049,11 @@
       <c r="AB168" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC168" s="26">
+        <v>37553</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -14616,8 +15123,11 @@
       <c r="AB169" s="17">
         <v>2.57989682612657</v>
       </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC169" s="26">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -14685,8 +15195,11 @@
       <c r="AB170" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC170" s="26">
+        <v>36821</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -14750,8 +15263,11 @@
       <c r="AB171" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC171" s="26">
+        <v>36571</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -14817,8 +15333,11 @@
       <c r="AB172" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC172" s="26">
+        <v>36818</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -14888,8 +15407,11 @@
       <c r="AB173" s="17">
         <v>1.92782147060123</v>
       </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC173" s="26">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -14957,8 +15479,11 @@
       <c r="AB174" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC174" s="26">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -15022,8 +15547,11 @@
       <c r="AB175" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC175" s="26">
+        <v>42422</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -15093,8 +15621,11 @@
       <c r="AB176" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC176" s="26">
+        <v>37552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -15162,8 +15693,11 @@
       <c r="AB177" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC177" s="26">
+        <v>36817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -15233,8 +15767,11 @@
       <c r="AB178" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC178" s="26">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -15298,8 +15835,11 @@
       <c r="AB179" s="17">
         <v>1.37309778019158</v>
       </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC179" s="26">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -15361,8 +15901,11 @@
       <c r="AB180" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC180" s="26">
+        <v>36551</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -15430,8 +15973,11 @@
       <c r="AB181" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC181" s="26">
+        <v>37550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -15497,8 +16043,11 @@
       <c r="AB182" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC182" s="26">
+        <v>42449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -15568,8 +16117,11 @@
       <c r="AB183" s="17">
         <v>1.1938327807058999</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC183" s="26">
+        <v>39017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -15637,8 +16189,11 @@
       <c r="AB184" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC184" s="26">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -15704,8 +16259,11 @@
       <c r="AB185" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC185" s="26">
+        <v>36088</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -15773,8 +16331,11 @@
       <c r="AB186" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC186" s="26">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -15844,8 +16405,11 @@
       <c r="AB187" s="17">
         <v>2.9701106229999801</v>
       </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC187" s="26">
+        <v>37557</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -15915,8 +16479,11 @@
       <c r="AB188" s="17">
         <v>0.43537194439757099</v>
       </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC188" s="26">
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -15986,8 +16553,11 @@
       <c r="AB189" s="17">
         <v>0.85651756554012204</v>
       </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC189" s="26">
+        <v>37555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -16053,8 +16623,11 @@
       <c r="AB190" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC190" s="26">
+        <v>39018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -16122,8 +16695,11 @@
       <c r="AB191" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC191" s="26">
+        <v>38278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -16193,8 +16769,11 @@
       <c r="AB192" s="17">
         <v>0.83985509980440098</v>
       </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC192" s="26">
+        <v>41211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -16264,8 +16843,11 @@
       <c r="AB193" s="17">
         <v>1.38909396765813</v>
       </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC193" s="26">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -16327,8 +16909,11 @@
       <c r="AB194" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC194" s="26">
+        <v>40937</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -16396,8 +16981,11 @@
       <c r="AB195" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC195" s="26">
+        <v>39009</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -16467,8 +17055,11 @@
       <c r="AB196" s="17">
         <v>1.6462644620733002E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC196" s="26">
+        <v>36824</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -16538,8 +17129,11 @@
       <c r="AB197" s="17">
         <v>0.67760908752228599</v>
       </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC197" s="26">
+        <v>40475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -16609,8 +17203,11 @@
       <c r="AB198" s="17">
         <v>0.173823765332309</v>
       </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC198" s="26">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -16680,8 +17277,11 @@
       <c r="AB199" s="17">
         <v>0.72471568692716704</v>
       </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC199" s="26">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -16751,8 +17351,11 @@
       <c r="AB200" s="17">
         <v>0.13329272318557001</v>
       </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC200" s="26">
+        <v>40109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -16822,8 +17425,11 @@
       <c r="AB201" s="17">
         <v>0.47317176886703699</v>
       </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC201" s="26">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -16887,8 +17493,11 @@
       <c r="AB202" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC202" s="26">
+        <v>39508</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -16956,8 +17565,11 @@
       <c r="AB203" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC203" s="26">
+        <v>40822</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -17027,8 +17639,11 @@
       <c r="AB204" s="17">
         <v>0.225156689108887</v>
       </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC204" s="26">
+        <v>36090</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -17096,8 +17711,11 @@
       <c r="AB205" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC205" s="26">
+        <v>38275</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -17167,8 +17785,11 @@
       <c r="AB206" s="17">
         <v>1.2544054410513701</v>
       </c>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC206" s="26">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -17238,8 +17859,11 @@
       <c r="AB207" s="17">
         <v>1.34264866306155</v>
       </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC207" s="26">
+        <v>37556</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -17307,8 +17931,11 @@
       <c r="AB208" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC208" s="26">
+        <v>39743</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -17378,8 +18005,11 @@
       <c r="AB209" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC209" s="26">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -17449,8 +18079,11 @@
       <c r="AB210" s="17">
         <v>1.44008027452341</v>
       </c>
-    </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC210" s="26">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -17520,8 +18153,11 @@
       <c r="AB211" s="17">
         <v>2.7832159577269402</v>
       </c>
-    </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC211" s="26">
+        <v>41569</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -17591,8 +18227,11 @@
       <c r="AB212" s="17">
         <v>0.200528690523123</v>
       </c>
-    </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC212" s="26">
+        <v>36834</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -17662,8 +18301,11 @@
       <c r="AB213" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC213" s="26">
+        <v>39019</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -17729,8 +18371,11 @@
       <c r="AB214" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC214" s="26">
+        <v>37551</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -17798,8 +18443,11 @@
       <c r="AB215" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC215" s="26">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -17867,8 +18515,11 @@
       <c r="AB216" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC216" s="26">
+        <v>36819</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -17938,8 +18589,11 @@
       <c r="AB217" s="17">
         <v>0.89253731465273001</v>
       </c>
-    </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC217" s="26">
+        <v>39014</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -18009,8 +18663,11 @@
       <c r="AB218" s="17">
         <v>0.249078152659788</v>
       </c>
-    </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC218" s="26">
+        <v>37550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -18080,8 +18737,11 @@
       <c r="AB219" s="17">
         <v>1.4916095437644299</v>
       </c>
-    </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC219" s="26">
+        <v>39736</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -18151,8 +18811,11 @@
       <c r="AB220" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC220" s="26">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -18218,8 +18881,11 @@
       <c r="AB221" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC221" s="26">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -18289,8 +18955,11 @@
       <c r="AB222" s="17">
         <v>5.8159213052665602E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC222" s="26">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -18360,8 +19029,11 @@
       <c r="AB223" s="17">
         <v>0.49928035005489502</v>
       </c>
-    </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC223" s="26">
+        <v>36831</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -18429,8 +19101,11 @@
       <c r="AB224" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC224" s="26">
+        <v>37581</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -18500,8 +19175,11 @@
       <c r="AB225" s="17">
         <v>0.79670656849656196</v>
       </c>
-    </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC225" s="26">
+        <v>36830</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -18571,8 +19249,11 @@
       <c r="AB226" s="17">
         <v>0.69245437014918698</v>
       </c>
-    </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC226" s="26">
+        <v>36098</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -18642,8 +19323,11 @@
       <c r="AB227" s="17">
         <v>0.61471365595791605</v>
       </c>
-    </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC227" s="26">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -18713,8 +19397,11 @@
       <c r="AB228" s="17">
         <v>1.94235627916775</v>
       </c>
-    </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC228" s="26">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -18782,8 +19469,11 @@
       <c r="AB229" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC229" s="26">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -18853,8 +19543,11 @@
       <c r="AB230" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC230" s="26">
+        <v>37559</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -18920,8 +19613,11 @@
       <c r="AB231" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC231" s="26">
+        <v>37546</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -18991,8 +19687,11 @@
       <c r="AB232" s="17">
         <v>0.25953690356782</v>
       </c>
-    </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC232" s="26">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -19056,8 +19755,11 @@
       <c r="AB233" s="17">
         <v>1.32694911229125</v>
       </c>
-    </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC233" s="26">
+        <v>39468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -19127,8 +19829,11 @@
       <c r="AB234" s="17">
         <v>0.17371200964370501</v>
       </c>
-    </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC234" s="26">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -19198,8 +19903,11 @@
       <c r="AB235" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC235" s="26">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -19269,8 +19977,11 @@
       <c r="AB236" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC236" s="26">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -19340,8 +20051,11 @@
       <c r="AB237" s="17">
         <v>0.39022888754368201</v>
       </c>
-    </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC237" s="26">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -19411,8 +20125,11 @@
       <c r="AB238" s="17">
         <v>0.98205298798749896</v>
       </c>
-    </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC238" s="26">
+        <v>41212</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -19480,8 +20197,11 @@
       <c r="AB239" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC239" s="26">
+        <v>37548</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -19551,8 +20271,11 @@
       <c r="AB240" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC240" s="26">
+        <v>39742</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -19620,8 +20343,11 @@
       <c r="AB241" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC241" s="26">
+        <v>40472</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -19691,8 +20417,11 @@
       <c r="AB242" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC242" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -19762,8 +20491,11 @@
       <c r="AB243" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC243" s="26">
+        <v>36090</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -19833,8 +20565,11 @@
       <c r="AB244" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC244" s="26">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -19904,8 +20639,11 @@
       <c r="AB245" s="17">
         <v>0.23533112260654199</v>
       </c>
-    </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC245" s="26">
+        <v>41935</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -19975,8 +20713,11 @@
       <c r="AB246" s="17">
         <v>0.54067566847932702</v>
       </c>
-    </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC246" s="26">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -20046,8 +20787,11 @@
       <c r="AB247" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC247" s="26">
+        <v>38276</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -20117,8 +20861,11 @@
       <c r="AB248" s="17">
         <v>1.78590156532018</v>
       </c>
-    </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC248" s="26">
+        <v>39016</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -20186,8 +20933,11 @@
       <c r="AB249" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC249" s="26">
+        <v>39736</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>249</v>
       </c>
@@ -20255,8 +21005,11 @@
       <c r="AB250" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC250" s="26">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -20326,8 +21079,11 @@
       <c r="AB251" s="17">
         <v>2.1892436423680302</v>
       </c>
-    </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC251" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -20395,8 +21151,11 @@
       <c r="AB252" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC252" s="26">
+        <v>41198</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -20466,8 +21225,11 @@
       <c r="AB253" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC253" s="26">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -20537,8 +21299,11 @@
       <c r="AB254" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC254" s="26">
+        <v>37936</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -20608,8 +21373,11 @@
       <c r="AB255" s="17">
         <v>0.225187808405998</v>
       </c>
-    </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC255" s="26">
+        <v>37889</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -20679,8 +21447,11 @@
       <c r="AB256" s="17">
         <v>0.70738276008505396</v>
       </c>
-    </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC256" s="26">
+        <v>40476</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -20750,8 +21521,11 @@
       <c r="AB257" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC257" s="26">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -20821,8 +21595,11 @@
       <c r="AB258" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC258" s="26">
+        <v>41211</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -20890,8 +21667,11 @@
       <c r="AB259" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC259" s="26">
+        <v>39018</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -20961,8 +21741,11 @@
       <c r="AB260" s="17">
         <v>4.2920611915133799E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC260" s="26">
+        <v>38286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -21032,8 +21815,11 @@
       <c r="AB261" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC261" s="26">
+        <v>36098</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -21103,8 +21889,11 @@
       <c r="AB262" s="17">
         <v>0.22897587594179</v>
       </c>
-    </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC262" s="26">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -21174,8 +21963,11 @@
       <c r="AB263" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC263" s="26">
+        <v>39026</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -21239,8 +22031,11 @@
       <c r="AB264" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC264" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -21310,8 +22105,11 @@
       <c r="AB265" s="17">
         <v>1.1072227692596499</v>
       </c>
-    </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC265" s="26">
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -21381,8 +22179,11 @@
       <c r="AB266" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC266" s="26">
+        <v>41205</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -21450,8 +22251,11 @@
       <c r="AB267" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC267" s="26">
+        <v>37555</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -21521,8 +22325,11 @@
       <c r="AB268" s="17">
         <v>0.54826496262193303</v>
       </c>
-    </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC268" s="26">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -21592,8 +22399,11 @@
       <c r="AB269" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC269" s="26">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -21663,8 +22473,11 @@
       <c r="AB270" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC270" s="26">
+        <v>37559</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -21728,8 +22541,11 @@
       <c r="AB271" s="17">
         <v>0.89190414300804099</v>
       </c>
-    </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC271" s="26">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -21799,8 +22615,11 @@
       <c r="AB272" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC272" s="26">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -21870,8 +22689,11 @@
       <c r="AB273" s="17">
         <v>0.359002237941761</v>
       </c>
-    </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC273" s="26">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -21941,8 +22763,11 @@
       <c r="AB274" s="17">
         <v>0.11354262440004</v>
       </c>
-    </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC274" s="26">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -22012,8 +22837,11 @@
       <c r="AB275" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC275" s="26">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -22077,8 +22905,11 @@
       <c r="AB276" s="17">
         <v>0.61395173353126398</v>
       </c>
-    </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC276" s="26">
+        <v>39472</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -22146,8 +22977,11 @@
       <c r="AB277" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC277" s="26">
+        <v>36082</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -22217,8 +23051,11 @@
       <c r="AB278" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC278" s="26">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -22282,8 +23119,11 @@
       <c r="AB279" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC279" s="26">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -22351,8 +23191,11 @@
       <c r="AB280" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC280" s="26">
+        <v>39736</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -22422,8 +23265,11 @@
       <c r="AB281" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC281" s="26">
+        <v>39743</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>281</v>
       </c>
@@ -22487,8 +23333,11 @@
       <c r="AB282" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC282" s="26">
+        <v>42388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>282</v>
       </c>
@@ -22558,8 +23407,11 @@
       <c r="AB283" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC283" s="26">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>283</v>
       </c>
@@ -22623,8 +23475,11 @@
       <c r="AB284" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC284" s="26">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>284</v>
       </c>
@@ -22694,8 +23549,11 @@
       <c r="AB285" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC285" s="26">
+        <v>39027</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>285</v>
       </c>
@@ -22765,8 +23623,11 @@
       <c r="AB286" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC286" s="26">
+        <v>41205</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>286</v>
       </c>
@@ -22836,8 +23697,11 @@
       <c r="AB287" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC287" s="26">
+        <v>40481</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>287</v>
       </c>
@@ -22907,8 +23771,11 @@
       <c r="AB288" s="17">
         <v>0.26821584770986701</v>
       </c>
-    </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC288" s="26">
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>288</v>
       </c>
@@ -22978,8 +23845,11 @@
       <c r="AB289" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC289" s="26">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>289</v>
       </c>
@@ -23049,8 +23919,11 @@
       <c r="AB290" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC290" s="26">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>290</v>
       </c>
@@ -23118,8 +23991,11 @@
       <c r="AB291" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC291" s="26">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>291</v>
       </c>
@@ -23189,8 +24065,11 @@
       <c r="AB292" s="17">
         <v>5.1397521588523599E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC292" s="26">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>292</v>
       </c>
@@ -23260,8 +24139,11 @@
       <c r="AB293" s="17">
         <v>0.83474695766684803</v>
       </c>
-    </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC293" s="26">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>293</v>
       </c>
@@ -23331,8 +24213,11 @@
       <c r="AB294" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC294" s="26">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>294</v>
       </c>
@@ -23402,8 +24287,11 @@
       <c r="AB295" s="17">
         <v>0.81047735725929304</v>
       </c>
-    </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC295" s="26">
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>295</v>
       </c>
@@ -23473,8 +24361,11 @@
       <c r="AB296" s="17">
         <v>0.380651344020562</v>
       </c>
-    </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC296" s="26">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -23544,8 +24435,11 @@
       <c r="AB297" s="17">
         <v>1.16773071447224</v>
       </c>
-    </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC297" s="26">
+        <v>38277</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>297</v>
       </c>
@@ -23613,8 +24507,11 @@
       <c r="AB298" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC298" s="26">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>298</v>
       </c>
@@ -23684,8 +24581,11 @@
       <c r="AB299" s="17">
         <v>0.34970972413713902</v>
       </c>
-    </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC299" s="26">
+        <v>41937</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -23755,8 +24655,11 @@
       <c r="AB300" s="17">
         <v>0.238143643676443</v>
       </c>
-    </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC300" s="26">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>300</v>
       </c>
@@ -23824,8 +24727,11 @@
       <c r="AB301" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC301" s="26">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>301</v>
       </c>
@@ -23895,8 +24801,11 @@
       <c r="AB302" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC302" s="26">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>302</v>
       </c>
@@ -23966,8 +24875,11 @@
       <c r="AB303" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC303" s="26">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>303</v>
       </c>
@@ -24033,8 +24945,11 @@
       <c r="AB304" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC304" s="26">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>304</v>
       </c>
@@ -24100,8 +25015,11 @@
       <c r="AB305" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC305" s="26">
+        <v>36092</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>305</v>
       </c>
@@ -24171,8 +25089,11 @@
       <c r="AB306" s="17">
         <v>8.7409168323844294E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC306" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>306</v>
       </c>
@@ -24242,8 +25163,11 @@
       <c r="AB307" s="17">
         <v>2.27522144226328E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC307" s="26">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>307</v>
       </c>
@@ -24313,8 +25237,11 @@
       <c r="AB308" s="17">
         <v>1.5749003098246199</v>
       </c>
-    </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC308" s="26">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>308</v>
       </c>
@@ -24384,8 +25311,11 @@
       <c r="AB309" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC309" s="26">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>309</v>
       </c>
@@ -24455,8 +25385,11 @@
       <c r="AB310" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC310" s="26">
+        <v>37555</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>310</v>
       </c>
@@ -24526,8 +25459,11 @@
       <c r="AB311" s="17">
         <v>0.90415292640049205</v>
       </c>
-    </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC311" s="26">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>311</v>
       </c>
@@ -24597,8 +25533,11 @@
       <c r="AB312" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC312" s="26">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>312</v>
       </c>
@@ -24668,8 +25607,11 @@
       <c r="AB313" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC313" s="26">
+        <v>38281</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>313</v>
       </c>
@@ -24739,8 +25681,11 @@
       <c r="AB314" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC314" s="26">
+        <v>41942</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>314</v>
       </c>
@@ -24810,8 +25755,11 @@
       <c r="AB315" s="17">
         <v>1.8334883663216099</v>
       </c>
-    </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC315" s="26">
+        <v>37557</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>315</v>
       </c>
@@ -24881,8 +25829,11 @@
       <c r="AB316" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC316" s="26">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>316</v>
       </c>
@@ -24950,8 +25901,11 @@
       <c r="AB317" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC317" s="26">
+        <v>40464</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>317</v>
       </c>
@@ -25015,8 +25969,11 @@
       <c r="AB318" s="17">
         <v>0.77023792085166098</v>
       </c>
-    </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC318" s="26">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>318</v>
       </c>
@@ -25078,8 +26035,11 @@
       <c r="AB319" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC319" s="26">
+        <v>42487</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>319</v>
       </c>
@@ -25143,8 +26103,11 @@
       <c r="AB320" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC320" s="26">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>320</v>
       </c>
@@ -25214,8 +26177,11 @@
       <c r="AB321" s="17">
         <v>0.97358098997563203</v>
       </c>
-    </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC321" s="26">
+        <v>40473</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>321</v>
       </c>
@@ -25285,8 +26251,11 @@
       <c r="AB322" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC322" s="26">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>322</v>
       </c>
@@ -25352,8 +26321,11 @@
       <c r="AB323" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC323" s="26">
+        <v>38278</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>323</v>
       </c>
@@ -25423,8 +26395,11 @@
       <c r="AB324" s="17">
         <v>0.56574882792481695</v>
       </c>
-    </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC324" s="26">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>324</v>
       </c>
@@ -25494,8 +26469,11 @@
       <c r="AB325" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC325" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>325</v>
       </c>
@@ -25565,8 +26543,11 @@
       <c r="AB326" s="17">
         <v>1.26696964938915E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC326" s="26">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>326</v>
       </c>
@@ -25636,8 +26617,11 @@
       <c r="AB327" s="17">
         <v>0.119043538938971</v>
       </c>
-    </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC327" s="26">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>327</v>
       </c>
@@ -25707,8 +26691,11 @@
       <c r="AB328" s="17">
         <v>0.60811699644123995</v>
       </c>
-    </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC328" s="26">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>328</v>
       </c>
@@ -25778,8 +26765,11 @@
       <c r="AB329" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC329" s="26">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>329</v>
       </c>
@@ -25849,8 +26839,11 @@
       <c r="AB330" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC330" s="26">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>330</v>
       </c>
@@ -25920,8 +26913,11 @@
       <c r="AB331" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC331" s="26">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>331</v>
       </c>
@@ -25985,8 +26981,11 @@
       <c r="AB332" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC332" s="26">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>332</v>
       </c>
@@ -26054,8 +27053,11 @@
       <c r="AB333" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC333" s="26">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>333</v>
       </c>
@@ -26125,8 +27127,11 @@
       <c r="AB334" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC334" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>334</v>
       </c>
@@ -26196,8 +27201,11 @@
       <c r="AB335" s="17">
         <v>2.1077437776546799</v>
       </c>
-    </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC335" s="26">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>335</v>
       </c>
@@ -26267,8 +27275,11 @@
       <c r="AB336" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC336" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>336</v>
       </c>
@@ -26338,8 +27349,11 @@
       <c r="AB337" s="17">
         <v>0.59343830382667195</v>
       </c>
-    </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC337" s="26">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>337</v>
       </c>
@@ -26401,8 +27415,11 @@
       <c r="AB338" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC338" s="26">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>338</v>
       </c>
@@ -26466,8 +27483,11 @@
       <c r="AB339" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC339" s="26">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>339</v>
       </c>
@@ -26537,8 +27557,11 @@
       <c r="AB340" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC340" s="26">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>340</v>
       </c>
@@ -26608,8 +27631,11 @@
       <c r="AB341" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC341" s="26">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -26679,8 +27705,11 @@
       <c r="AB342" s="17">
         <v>0.76162299204726303</v>
       </c>
-    </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC342" s="26">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -26750,8 +27779,11 @@
       <c r="AB343" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC343" s="26">
+        <v>41940</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -26821,8 +27853,11 @@
       <c r="AB344" s="17">
         <v>0.40562814824212301</v>
       </c>
-    </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC344" s="26">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -26892,8 +27927,11 @@
       <c r="AB345" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC345" s="26">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -26963,8 +28001,11 @@
       <c r="AB346" s="17">
         <v>0.461872796337228</v>
       </c>
-    </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC346" s="26">
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -27034,8 +28075,11 @@
       <c r="AB347" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC347" s="26">
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -27099,8 +28143,11 @@
       <c r="AB348" s="17">
         <v>2.98356183924002E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC348" s="26">
+        <v>40975</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -27170,8 +28217,11 @@
       <c r="AB349" s="17">
         <v>0.19913471720335801</v>
       </c>
-    </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC349" s="26">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -27241,8 +28291,11 @@
       <c r="AB350" s="17">
         <v>0.22782366369344001</v>
       </c>
-    </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC350" s="26">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -27312,8 +28365,11 @@
       <c r="AB351" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC351" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -27383,8 +28439,11 @@
       <c r="AB352" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC352" s="26">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>352</v>
       </c>
@@ -27448,8 +28507,11 @@
       <c r="AB353" s="17">
         <v>0.73529164850511897</v>
       </c>
-    </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC353" s="26">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>353</v>
       </c>
@@ -27519,8 +28581,11 @@
       <c r="AB354" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC354" s="26">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>354</v>
       </c>
@@ -27584,8 +28649,11 @@
       <c r="AB355" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC355" s="26">
+        <v>39508</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>355</v>
       </c>
@@ -27655,8 +28723,11 @@
       <c r="AB356" s="17">
         <v>2.9336906536149499E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC356" s="26">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>356</v>
       </c>
@@ -27718,8 +28789,11 @@
       <c r="AB357" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC357" s="26">
+        <v>42424</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>357</v>
       </c>
@@ -27789,8 +28863,11 @@
       <c r="AB358" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC358" s="26">
+        <v>40978</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>358</v>
       </c>
@@ -27860,8 +28937,11 @@
       <c r="AB359" s="17">
         <v>6.5800359367354996E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC359" s="26">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>359</v>
       </c>
@@ -27931,8 +29011,11 @@
       <c r="AB360" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC360" s="26">
+        <v>40479</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>360</v>
       </c>
@@ -28002,8 +29085,11 @@
       <c r="AB361" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC361" s="26">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>361</v>
       </c>
@@ -28073,8 +29159,11 @@
       <c r="AB362" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC362" s="26">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>362</v>
       </c>
@@ -28144,8 +29233,11 @@
       <c r="AB363" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC363" s="26">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>363</v>
       </c>
@@ -28215,8 +29307,11 @@
       <c r="AB364" s="17">
         <v>0.79332685468659903</v>
       </c>
-    </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC364" s="26">
+        <v>39027</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>364</v>
       </c>
@@ -28284,8 +29379,11 @@
       <c r="AB365" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC365" s="26">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>365</v>
       </c>
@@ -28355,8 +29453,11 @@
       <c r="AB366" s="17">
         <v>0.21529310189718101</v>
       </c>
-    </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC366" s="26">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>366</v>
       </c>
@@ -28426,8 +29527,11 @@
       <c r="AB367" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC367" s="26">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>367</v>
       </c>
@@ -28497,8 +29601,11 @@
       <c r="AB368" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC368" s="26">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>368</v>
       </c>
@@ -28568,8 +29675,11 @@
       <c r="AB369" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC369" s="26">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>369</v>
       </c>
@@ -28635,8 +29745,11 @@
       <c r="AB370" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC370" s="26">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>370</v>
       </c>
@@ -28706,8 +29819,11 @@
       <c r="AB371" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC371" s="26">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>371</v>
       </c>
@@ -28777,8 +29893,11 @@
       <c r="AB372" s="17">
         <v>1.0270810129718499</v>
       </c>
-    </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC372" s="26">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>372</v>
       </c>
@@ -28840,8 +29959,11 @@
       <c r="AB373" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC373" s="26">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>373</v>
       </c>
@@ -28903,8 +30025,11 @@
       <c r="AB374" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC374" s="26">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>374</v>
       </c>
@@ -28974,8 +30099,11 @@
       <c r="AB375" s="17">
         <v>0.56751947355475396</v>
       </c>
-    </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC375" s="26">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>375</v>
       </c>
@@ -29045,8 +30173,11 @@
       <c r="AB376" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC376" s="26">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>376</v>
       </c>
@@ -29116,8 +30247,11 @@
       <c r="AB377" s="17">
         <v>1.10277661157964</v>
       </c>
-    </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC377" s="26">
+        <v>40479</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>377</v>
       </c>
@@ -29187,8 +30321,11 @@
       <c r="AB378" s="17">
         <v>0.79566818081780699</v>
       </c>
-    </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC378" s="26">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>378</v>
       </c>
@@ -29258,8 +30395,11 @@
       <c r="AB379" s="17">
         <v>1.29488455163311</v>
       </c>
-    </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC379" s="26">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>379</v>
       </c>
@@ -29329,8 +30469,11 @@
       <c r="AB380" s="17">
         <v>1.58358343925879</v>
       </c>
-    </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC380" s="26">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>380</v>
       </c>
@@ -29400,8 +30543,11 @@
       <c r="AB381" s="17">
         <v>5.03919710225854E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC381" s="26">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>381</v>
       </c>
@@ -29469,8 +30615,11 @@
       <c r="AB382" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC382" s="26">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>382</v>
       </c>
@@ -29540,8 +30689,11 @@
       <c r="AB383" s="17">
         <v>0.86545083362394104</v>
       </c>
-    </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC383" s="26">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>383</v>
       </c>
@@ -29609,8 +30761,11 @@
       <c r="AB384" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC384" s="26">
+        <v>40469</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>384</v>
       </c>
@@ -29678,8 +30833,11 @@
       <c r="AB385" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC385" s="26">
+        <v>40472</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>385</v>
       </c>
@@ -29745,8 +30903,11 @@
       <c r="AB386" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC386" s="26">
+        <v>41204</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>386</v>
       </c>
@@ -29810,8 +30971,11 @@
       <c r="AB387" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC387" s="26">
+        <v>40935</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>387</v>
       </c>
@@ -29881,8 +31045,11 @@
       <c r="AB388" s="17">
         <v>0.61678688566409201</v>
       </c>
-    </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC388" s="26">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>388</v>
       </c>
@@ -29952,8 +31119,11 @@
       <c r="AB389" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC389" s="26">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>389</v>
       </c>
@@ -30015,8 +31185,11 @@
       <c r="AB390" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC390" s="26">
+        <v>42517</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>390</v>
       </c>
@@ -30086,8 +31259,11 @@
       <c r="AB391" s="17">
         <v>0.84745318866743302</v>
       </c>
-    </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC391" s="26">
+        <v>39748</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>391</v>
       </c>
@@ -30157,8 +31333,11 @@
       <c r="AB392" s="17">
         <v>1.54466635775686E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC392" s="26">
+        <v>40471</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>392</v>
       </c>
@@ -30228,8 +31407,11 @@
       <c r="AB393" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC393" s="26">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>393</v>
       </c>
@@ -30299,8 +31481,11 @@
       <c r="AB394" s="17">
         <v>2.3788671067390701</v>
       </c>
-    </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC394" s="26">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>394</v>
       </c>
@@ -30370,8 +31555,11 @@
       <c r="AB395" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC395" s="26">
+        <v>39503</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>395</v>
       </c>
@@ -30433,8 +31621,11 @@
       <c r="AB396" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC396" s="26">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>396</v>
       </c>
@@ -30504,8 +31695,11 @@
       <c r="AB397" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC397" s="26">
+        <v>37898</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>397</v>
       </c>
@@ -30573,8 +31767,11 @@
       <c r="AB398" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC398" s="26">
+        <v>40469</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -30644,8 +31841,11 @@
       <c r="AB399" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC399" s="26">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -30713,8 +31913,11 @@
       <c r="AB400" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC400" s="26">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -30778,8 +31981,11 @@
       <c r="AB401" s="17">
         <v>0.51452659141373902</v>
       </c>
-    </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC401" s="26">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -30849,8 +32055,11 @@
       <c r="AB402" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC402" s="26">
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -30920,8 +32129,11 @@
       <c r="AB403" s="17">
         <v>2.2606639734209302</v>
       </c>
-    </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC403" s="26">
+        <v>40471</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -30991,8 +32203,11 @@
       <c r="AB404" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC404" s="26">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>404</v>
       </c>
@@ -31062,8 +32277,11 @@
       <c r="AB405" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC405" s="26">
+        <v>39754</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>405</v>
       </c>
@@ -31133,8 +32351,11 @@
       <c r="AB406" s="17">
         <v>1.04338181103386</v>
       </c>
-    </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC406" s="26">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>406</v>
       </c>
@@ -31204,8 +32425,11 @@
       <c r="AB407" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC407" s="26">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>407</v>
       </c>
@@ -31275,8 +32499,11 @@
       <c r="AB408" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC408" s="26">
+        <v>40195</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>408</v>
       </c>
@@ -31340,8 +32567,11 @@
       <c r="AB409" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC409" s="26">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>409</v>
       </c>
@@ -31411,8 +32641,11 @@
       <c r="AB410" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC410" s="26">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>410</v>
       </c>
@@ -31482,8 +32715,11 @@
       <c r="AB411" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC411" s="26">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>411</v>
       </c>
@@ -31553,8 +32789,11 @@
       <c r="AB412" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC412" s="26">
+        <v>40478</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>412</v>
       </c>
@@ -31624,8 +32863,11 @@
       <c r="AB413" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC413" s="26">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -31689,8 +32931,11 @@
       <c r="AB414" s="17">
         <v>1.59865686850583</v>
       </c>
-    </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC414" s="26">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -31752,8 +32997,11 @@
       <c r="AB415" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC415" s="26">
+        <v>40920</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -31823,8 +33071,11 @@
       <c r="AB416" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC416" s="26">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>416</v>
       </c>
@@ -31886,8 +33137,11 @@
       <c r="AB417" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC417" s="26">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>417</v>
       </c>
@@ -31957,8 +33211,11 @@
       <c r="AB418" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC418" s="26">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -32026,8 +33283,11 @@
       <c r="AB419" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC419" s="26">
+        <v>40471</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -32089,8 +33349,11 @@
       <c r="AB420" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC420" s="26">
+        <v>40977</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>420</v>
       </c>
@@ -32160,8 +33423,11 @@
       <c r="AB421" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC421" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -32231,8 +33497,11 @@
       <c r="AB422" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC422" s="26">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -32302,8 +33571,11 @@
       <c r="AB423" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC423" s="26">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -32373,8 +33645,11 @@
       <c r="AB424" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC424" s="26">
+        <v>43073</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -32442,8 +33717,11 @@
       <c r="AB425" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC425" s="26">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -32513,8 +33791,11 @@
       <c r="AB426" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC426" s="26">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -32584,8 +33865,11 @@
       <c r="AB427" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC427" s="26">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -32653,8 +33937,11 @@
       <c r="AB428" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC428" s="26">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -32724,8 +34011,11 @@
       <c r="AB429" s="17">
         <v>0.31264134005579203</v>
       </c>
-    </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC429" s="26">
+        <v>42480</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -32793,8 +34083,11 @@
       <c r="AB430" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC430" s="26">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -32864,8 +34157,11 @@
       <c r="AB431" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC431" s="26">
+        <v>41943</v>
+      </c>
+    </row>
+    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -32933,8 +34229,11 @@
       <c r="AB432" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC432" s="26">
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -33004,8 +34303,11 @@
       <c r="AB433" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC433" s="26">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>433</v>
       </c>
@@ -33075,8 +34377,11 @@
       <c r="AB434" s="17">
         <v>0.16101377424617999</v>
       </c>
-    </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC434" s="26">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>434</v>
       </c>
@@ -33140,8 +34445,11 @@
       <c r="AB435" s="17">
         <v>1.4161876191249201</v>
       </c>
-    </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC435" s="26">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>435</v>
       </c>
@@ -33211,8 +34519,11 @@
       <c r="AB436" s="17">
         <v>0.89298850526390305</v>
       </c>
-    </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC436" s="26">
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>436</v>
       </c>
@@ -33276,8 +34587,11 @@
       <c r="AB437" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC437" s="26">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>437</v>
       </c>
@@ -33347,8 +34661,11 @@
       <c r="AB438" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC438" s="26">
+        <v>41215</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>438</v>
       </c>
@@ -33412,8 +34729,11 @@
       <c r="AB439" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC439" s="26">
+        <v>42483</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>439</v>
       </c>
@@ -33483,8 +34803,11 @@
       <c r="AB440" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC440" s="26">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>440</v>
       </c>
@@ -33554,8 +34877,11 @@
       <c r="AB441" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC441" s="26">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>441</v>
       </c>
@@ -33619,8 +34945,11 @@
       <c r="AB442" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC442" s="26">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>442</v>
       </c>
@@ -33690,8 +35019,11 @@
       <c r="AB443" s="17">
         <v>0.372871196264833</v>
       </c>
-    </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC443" s="26">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>443</v>
       </c>
@@ -33761,8 +35093,11 @@
       <c r="AB444" s="17">
         <v>0.92101947834593201</v>
       </c>
-    </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC444" s="26">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>444</v>
       </c>
@@ -33832,8 +35167,11 @@
       <c r="AB445" s="17">
         <v>0.78737510061976101</v>
       </c>
-    </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC445" s="26">
+        <v>39749</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>445</v>
       </c>
@@ -33901,8 +35239,11 @@
       <c r="AB446" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC446" s="26">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>446</v>
       </c>
@@ -33966,8 +35307,11 @@
       <c r="AB447" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC447" s="26">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>447</v>
       </c>
@@ -34037,8 +35381,11 @@
       <c r="AB448" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC448" s="26">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>448</v>
       </c>
@@ -34108,8 +35455,11 @@
       <c r="AB449" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC449" s="26">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A450" s="6">
         <v>449</v>
       </c>
@@ -34179,8 +35529,11 @@
       <c r="AB450" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC450" s="26">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>450</v>
       </c>
@@ -34250,8 +35603,11 @@
       <c r="AB451" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC451" s="26">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>451</v>
       </c>
@@ -34321,8 +35677,11 @@
       <c r="AB452" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC452" s="26">
+        <v>41218</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>452</v>
       </c>
@@ -34392,8 +35751,11 @@
       <c r="AB453" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC453" s="26">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>453</v>
       </c>
@@ -34460,6 +35822,9 @@
       <c r="AA454" s="12"/>
       <c r="AB454" s="17">
         <v>0</v>
+      </c>
+      <c r="AC454" s="26">
+        <v>43396</v>
       </c>
     </row>
   </sheetData>

--- a/pollster-ratings/pollster-stats-full.xlsx
+++ b/pollster-ratings/pollster-stats-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bycoffea/projects/data/pollster-ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4DC2B-6537-D345-B01E-D99C1200FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB9BA7-F0BD-0843-B0A2-B4E0CD079ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40520" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>ABC News/The Washington Post</t>
   </si>
   <si>
-    <t>Siena College/The New York Times Upshot</t>
-  </si>
-  <si>
     <t>Field Research Corp. (Field Poll)</t>
   </si>
   <si>
@@ -1755,6 +1752,9 @@
   </si>
   <si>
     <t>A checkmark indicates the polling firm was a signatory to the American Association Public Opinion Research (AAPOR) Transparency Initiative, or a contributor to the Roper Center data archive. This is a proxy for methodological quality.</t>
+  </si>
+  <si>
+    <t>The New York Times/Siena College</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2745,7 @@
   <dimension ref="A1:AA518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2785,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="C2" s="25">
         <v>448</v>
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="25">
         <v>280</v>
@@ -3042,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="25">
         <v>325</v>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="25">
         <v>195</v>
@@ -3125,7 +3125,7 @@
         <v>-0.90821457800000005</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="14">
         <v>0.23752652399999999</v>
@@ -3172,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="25">
         <v>305</v>
@@ -3190,7 +3190,7 @@
         <v>-0.83779857000000002</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="14">
         <v>-0.18296040899999999</v>
@@ -3237,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="25">
         <v>546</v>
@@ -3255,7 +3255,7 @@
         <v>-0.762375056</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="14">
         <v>0.25820731299999999</v>
@@ -3320,7 +3320,7 @@
         <v>-0.72392695200000001</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="14">
         <v>0.79946266499999996</v>
@@ -3367,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="25">
         <v>67</v>
@@ -3385,7 +3385,7 @@
         <v>-0.72283468200000001</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="14">
         <v>1.5946862420000001</v>
@@ -3432,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C11" s="25">
         <v>103</v>
@@ -3450,7 +3450,7 @@
         <v>-0.72102420099999998</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="14">
         <v>1.4341889480000001</v>
@@ -3497,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="25">
         <v>183</v>
@@ -3515,7 +3515,7 @@
         <v>-0.70204546199999995</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="14">
         <v>0.28651997600000001</v>
@@ -3580,7 +3580,7 @@
         <v>-0.63312377200000003</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="14">
         <v>2.075737503</v>
@@ -3627,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="25">
         <v>166</v>
@@ -3645,7 +3645,7 @@
         <v>-0.61534714599999996</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="14">
         <v>0.87818578800000002</v>
@@ -3692,7 +3692,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="25">
         <v>198</v>
@@ -3710,7 +3710,7 @@
         <v>-0.59731058800000003</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14">
         <v>-0.719693421</v>
@@ -3757,7 +3757,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16" s="25">
         <v>754</v>
@@ -3775,7 +3775,7 @@
         <v>-0.59189117099999999</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="14">
         <v>0.22465006100000001</v>
@@ -3822,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="25">
         <v>360</v>
@@ -3840,7 +3840,7 @@
         <v>-0.58622588600000003</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="14">
         <v>1.480385871</v>
@@ -3887,7 +3887,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="25">
         <v>144</v>
@@ -3905,7 +3905,7 @@
         <v>-0.57949323200000002</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="14">
         <v>-0.78915023500000003</v>
@@ -3952,7 +3952,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="25">
         <v>155</v>
@@ -3970,7 +3970,7 @@
         <v>-0.54853399599999997</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="14">
         <v>1.5715591470000001</v>
@@ -4017,7 +4017,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="25">
         <v>88</v>
@@ -4035,7 +4035,7 @@
         <v>-0.52566113000000003</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="14">
         <v>0.34877605699999997</v>
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C21" s="25">
         <v>355</v>
@@ -4100,7 +4100,7 @@
         <v>-0.50828833399999995</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" s="14">
         <v>0.74032469599999995</v>
@@ -4147,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="25">
         <v>262</v>
@@ -4165,7 +4165,7 @@
         <v>-0.50345975799999998</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="14">
         <v>-1.106188937</v>
@@ -4210,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="25">
         <v>317</v>
@@ -4228,7 +4228,7 @@
         <v>-0.43189625100000001</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="14">
         <v>0.93276223000000003</v>
@@ -4275,7 +4275,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="25">
         <v>94</v>
@@ -4293,7 +4293,7 @@
         <v>-0.431256478</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="14">
         <v>-0.61369913499999995</v>
@@ -4340,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="25">
         <v>36</v>
@@ -4358,7 +4358,7 @@
         <v>-0.42862854700000003</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="14">
         <v>0.28824270699999999</v>
@@ -4405,7 +4405,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="25">
         <v>73</v>
@@ -4423,7 +4423,7 @@
         <v>-0.41886065099999997</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" s="14">
         <v>0.226571895</v>
@@ -4470,7 +4470,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="25">
         <v>320</v>
@@ -4488,7 +4488,7 @@
         <v>-0.39075873799999999</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="14">
         <v>-1.494044452</v>
@@ -4535,7 +4535,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="25">
         <v>323</v>
@@ -4553,7 +4553,7 @@
         <v>-0.38896405499999998</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="14">
         <v>0.80971882900000003</v>
@@ -4600,7 +4600,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="25">
         <v>172</v>
@@ -4618,7 +4618,7 @@
         <v>-0.38417108700000002</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="14">
         <v>-0.15204583499999999</v>
@@ -4665,7 +4665,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="25">
         <v>197</v>
@@ -4683,7 +4683,7 @@
         <v>-0.38161048600000003</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="14">
         <v>-0.512788892</v>
@@ -4730,7 +4730,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C31" s="25">
         <v>50</v>
@@ -4748,7 +4748,7 @@
         <v>-0.37402069700000001</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="14">
         <v>1.008717681</v>
@@ -4795,7 +4795,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="25">
         <v>263</v>
@@ -4813,7 +4813,7 @@
         <v>-0.37043102900000002</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" s="14">
         <v>0.93549467900000005</v>
@@ -4860,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="25">
         <v>267</v>
@@ -4878,7 +4878,7 @@
         <v>-0.36528973300000001</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33" s="14">
         <v>0.55684265799999999</v>
@@ -4925,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="25">
         <v>129</v>
@@ -4943,7 +4943,7 @@
         <v>-0.35823338999999998</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="14">
         <v>0.50720294799999999</v>
@@ -4990,7 +4990,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="25">
         <v>127</v>
@@ -5008,7 +5008,7 @@
         <v>-0.350762395</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="14">
         <v>-0.58899670299999995</v>
@@ -5055,7 +5055,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="25">
         <v>272</v>
@@ -5073,7 +5073,7 @@
         <v>-0.32476422900000002</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J36" s="14">
         <v>-0.11768922800000001</v>
@@ -5120,7 +5120,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C37" s="25">
         <v>225</v>
@@ -5138,7 +5138,7 @@
         <v>-0.31951375700000001</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J37" s="14">
         <v>-0.38416110199999998</v>
@@ -5185,7 +5185,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="25">
         <v>219</v>
@@ -5203,7 +5203,7 @@
         <v>-0.31556310599999998</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38" s="14">
         <v>-0.225492573</v>
@@ -5250,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="25">
         <v>79</v>
@@ -5268,7 +5268,7 @@
         <v>-0.30830010400000002</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J39" s="14">
         <v>0.90471315399999996</v>
@@ -5315,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="25">
         <v>260</v>
@@ -5333,7 +5333,7 @@
         <v>-0.29369089799999998</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J40" s="14">
         <v>-1.3456234929999999</v>
@@ -5380,7 +5380,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="25">
         <v>87</v>
@@ -5398,7 +5398,7 @@
         <v>-0.26739117699999998</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" s="14">
         <v>0.69700824500000003</v>
@@ -5445,7 +5445,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="25">
         <v>274</v>
@@ -5463,7 +5463,7 @@
         <v>-0.260853524</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" s="14">
         <v>-0.28383211000000003</v>
@@ -5510,7 +5510,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="25">
         <v>347</v>
@@ -5528,7 +5528,7 @@
         <v>-0.26068897200000002</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" s="14">
         <v>-0.142639408</v>
@@ -5575,7 +5575,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C44" s="25">
         <v>385</v>
@@ -5593,7 +5593,7 @@
         <v>-0.24726495100000001</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="14">
         <v>1.1486752790000001</v>
@@ -5640,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="25">
         <v>391</v>
@@ -5658,7 +5658,7 @@
         <v>-0.22740961300000001</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45" s="14">
         <v>0.81197783999999995</v>
@@ -5705,7 +5705,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C46" s="25">
         <v>104</v>
@@ -5723,7 +5723,7 @@
         <v>-0.22526392100000001</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" s="14">
         <v>-0.275276307</v>
@@ -5770,7 +5770,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" s="25">
         <v>326</v>
@@ -5788,7 +5788,7 @@
         <v>-0.217849982</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47" s="14">
         <v>0.38176681099999998</v>
@@ -5835,7 +5835,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="25">
         <v>86</v>
@@ -5853,7 +5853,7 @@
         <v>-0.200235778</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" s="14">
         <v>0.40862448800000001</v>
@@ -5900,7 +5900,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="25">
         <v>90</v>
@@ -5918,7 +5918,7 @@
         <v>-0.19083070399999999</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J49" s="14">
         <v>-0.33122057900000001</v>
@@ -5965,7 +5965,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="25">
         <v>13</v>
@@ -5983,7 +5983,7 @@
         <v>-0.19060450200000001</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J50" s="14">
         <v>-1.074242116</v>
@@ -6030,7 +6030,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" s="25">
         <v>97</v>
@@ -6048,7 +6048,7 @@
         <v>-0.187643107</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" s="14">
         <v>0.578218805</v>
@@ -6095,7 +6095,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="25">
         <v>333</v>
@@ -6113,7 +6113,7 @@
         <v>-0.18222370299999999</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J52" s="14">
         <v>-0.85827387700000002</v>
@@ -6160,7 +6160,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" s="25">
         <v>92</v>
@@ -6178,7 +6178,7 @@
         <v>-0.18164228399999999</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J53" s="14">
         <v>-0.121431287</v>
@@ -6225,7 +6225,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="25">
         <v>254</v>
@@ -6243,7 +6243,7 @@
         <v>-0.17968277699999999</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J54" s="14">
         <v>0.73484149200000004</v>
@@ -6290,7 +6290,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C55" s="25">
         <v>407</v>
@@ -6308,7 +6308,7 @@
         <v>-0.16252765699999999</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J55" s="14">
         <v>-0.23614038700000001</v>
@@ -6355,7 +6355,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="25">
         <v>224</v>
@@ -6373,7 +6373,7 @@
         <v>-0.146885507</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J56" s="14">
         <v>-0.124120255</v>
@@ -6420,7 +6420,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C57" s="25">
         <v>336</v>
@@ -6438,7 +6438,7 @@
         <v>-0.131823094</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J57" s="14">
         <v>-0.189531374</v>
@@ -6485,7 +6485,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" s="25">
         <v>221</v>
@@ -6503,7 +6503,7 @@
         <v>-0.13155302299999999</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J58" s="14">
         <v>0.830266473</v>
@@ -6550,7 +6550,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="25">
         <v>112</v>
@@ -6568,7 +6568,7 @@
         <v>-0.13120736599999999</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="14">
         <v>-0.60382331600000005</v>
@@ -6615,7 +6615,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="25">
         <v>7</v>
@@ -6633,7 +6633,7 @@
         <v>-0.130492568</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J60" s="14">
         <v>0.75050892899999999</v>
@@ -6680,7 +6680,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C61" s="25">
         <v>751</v>
@@ -6698,7 +6698,7 @@
         <v>-0.122408825</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J61" s="14">
         <v>1.172460294</v>
@@ -6745,7 +6745,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C62" s="25">
         <v>463</v>
@@ -6763,7 +6763,7 @@
         <v>-0.11135642900000001</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J62" s="14">
         <v>-4.1159946000000003E-2</v>
@@ -6808,7 +6808,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C63" s="25">
         <v>126</v>
@@ -6826,7 +6826,7 @@
         <v>-0.105028893</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J63" s="14">
         <v>2.1421560689999999</v>
@@ -6873,7 +6873,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="25">
         <v>113</v>
@@ -6891,7 +6891,7 @@
         <v>-0.103705015</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J64" s="14">
         <v>1.8614999329999999</v>
@@ -6938,7 +6938,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="25">
         <v>372</v>
@@ -6956,7 +6956,7 @@
         <v>-9.3600388000000007E-2</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J65" s="14">
         <v>0.36166810700000002</v>
@@ -7003,7 +7003,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="25">
         <v>165</v>
@@ -7021,7 +7021,7 @@
         <v>-9.2570675000000005E-2</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J66" s="14">
         <v>0.724988933</v>
@@ -7068,7 +7068,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C67" s="25">
         <v>160</v>
@@ -7086,7 +7086,7 @@
         <v>-7.7063046999999996E-2</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J67" s="14">
         <v>7.3987973999999998E-2</v>
@@ -7133,7 +7133,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C68" s="25">
         <v>314</v>
@@ -7151,7 +7151,7 @@
         <v>-7.6865839000000005E-2</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J68" s="14">
         <v>3.3821522999999999E-2</v>
@@ -7198,7 +7198,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="25">
         <v>258</v>
@@ -7216,7 +7216,7 @@
         <v>-7.6532548000000006E-2</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J69" s="14">
         <v>0.42245835900000001</v>
@@ -7263,7 +7263,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C70" s="25">
         <v>380</v>
@@ -7281,7 +7281,7 @@
         <v>-7.0035733000000003E-2</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J70" s="14">
         <v>-0.35310022400000002</v>
@@ -7328,7 +7328,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="25">
         <v>757</v>
@@ -7346,7 +7346,7 @@
         <v>-6.6373019000000005E-2</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J71" s="14">
         <v>-1.4625375780000001</v>
@@ -7393,7 +7393,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="25">
         <v>96</v>
@@ -7411,7 +7411,7 @@
         <v>-5.4173362000000003E-2</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J72" s="14">
         <v>-0.53844726099999995</v>
@@ -7458,7 +7458,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="25">
         <v>346</v>
@@ -7476,7 +7476,7 @@
         <v>-4.3868079999999997E-2</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J73" s="14">
         <v>-1.1952734890000001</v>
@@ -7523,7 +7523,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="25">
         <v>84</v>
@@ -7541,7 +7541,7 @@
         <v>-4.3523259000000002E-2</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74" s="14">
         <v>0.115695653</v>
@@ -7588,7 +7588,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C75" s="25">
         <v>514</v>
@@ -7606,7 +7606,7 @@
         <v>-4.1071001000000003E-2</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J75" s="14">
         <v>-2.3313707250000002</v>
@@ -7653,7 +7653,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C76" s="25">
         <v>114</v>
@@ -7671,7 +7671,7 @@
         <v>-4.0280719999999999E-2</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J76" s="14">
         <v>-0.65065193099999996</v>
@@ -7718,7 +7718,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C77" s="25">
         <v>345</v>
@@ -7736,7 +7736,7 @@
         <v>-2.8654799000000002E-2</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J77" s="14">
         <v>1.0001837419999999</v>
@@ -7783,7 +7783,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C78" s="25">
         <v>228</v>
@@ -7801,7 +7801,7 @@
         <v>-2.4541685000000001E-2</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J78" s="14">
         <v>-1.1303929559999999</v>
@@ -7848,7 +7848,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="25">
         <v>302</v>
@@ -7866,7 +7866,7 @@
         <v>-2.3039906999999998E-2</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J79" s="14">
         <v>0.505067877</v>
@@ -7913,7 +7913,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="25">
         <v>115</v>
@@ -7931,7 +7931,7 @@
         <v>-1.9207015000000001E-2</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J80" s="14">
         <v>0.205859294</v>
@@ -7978,7 +7978,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="25">
         <v>428</v>
@@ -7996,7 +7996,7 @@
         <v>-1.4133250999999999E-2</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J81" s="14">
         <v>1.009759E-2</v>
@@ -8043,7 +8043,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="25">
         <v>261</v>
@@ -8061,7 +8061,7 @@
         <v>-1.0890251E-2</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J82" s="14"/>
       <c r="L82" s="9">
@@ -8100,7 +8100,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" s="25">
         <v>233</v>
@@ -8118,7 +8118,7 @@
         <v>4.880868E-3</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J83" s="14">
         <v>-0.63467347699999999</v>
@@ -8165,7 +8165,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="25">
         <v>54</v>
@@ -8183,7 +8183,7 @@
         <v>1.0205791000000001E-2</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J84" s="14">
         <v>2.6600812000000001E-2</v>
@@ -8230,7 +8230,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="25">
         <v>52</v>
@@ -8248,7 +8248,7 @@
         <v>1.3021603E-2</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J85" s="14">
         <v>1.119642373</v>
@@ -8295,7 +8295,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="25">
         <v>179</v>
@@ -8313,7 +8313,7 @@
         <v>1.7012003000000001E-2</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J86" s="14">
         <v>-0.428668718</v>
@@ -8360,7 +8360,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C87" s="25">
         <v>149</v>
@@ -8378,7 +8378,7 @@
         <v>1.8770825000000001E-2</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J87" s="14">
         <v>2.3835574000000002E-2</v>
@@ -8423,7 +8423,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C88" s="25">
         <v>133</v>
@@ -8441,7 +8441,7 @@
         <v>2.1322522999999999E-2</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J88" s="14">
         <v>-0.99682037099999998</v>
@@ -8488,7 +8488,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C89" s="25">
         <v>387</v>
@@ -8506,7 +8506,7 @@
         <v>2.2287378E-2</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J89" s="14">
         <v>-0.153654756</v>
@@ -8553,7 +8553,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="25">
         <v>164</v>
@@ -8571,7 +8571,7 @@
         <v>2.8772342999999999E-2</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J90" s="14">
         <v>0.283210501</v>
@@ -8618,7 +8618,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C91" s="25">
         <v>245</v>
@@ -8636,7 +8636,7 @@
         <v>3.0043772999999999E-2</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J91" s="14">
         <v>-0.52379221499999995</v>
@@ -8683,7 +8683,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C92" s="25">
         <v>32</v>
@@ -8701,7 +8701,7 @@
         <v>3.6868608999999997E-2</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J92" s="14">
         <v>-0.61627220800000004</v>
@@ -8748,7 +8748,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="25">
         <v>28</v>
@@ -8766,7 +8766,7 @@
         <v>4.0397278000000002E-2</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J93" s="14">
         <v>4.7405203E-2</v>
@@ -8811,7 +8811,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="25">
         <v>173</v>
@@ -8829,7 +8829,7 @@
         <v>4.0769294999999997E-2</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J94" s="14">
         <v>1.6411897000000002E-2</v>
@@ -8876,7 +8876,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C95" s="25">
         <v>132</v>
@@ -8894,7 +8894,7 @@
         <v>4.7628210999999997E-2</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J95" s="14">
         <v>0.43517757800000001</v>
@@ -8941,7 +8941,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C96" s="25">
         <v>253</v>
@@ -8959,7 +8959,7 @@
         <v>5.8977195000000003E-2</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J96" s="14">
         <v>0.69781132599999995</v>
@@ -9006,7 +9006,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" s="25">
         <v>277</v>
@@ -9024,7 +9024,7 @@
         <v>5.9204013999999999E-2</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J97" s="14">
         <v>-1.419537324</v>
@@ -9071,7 +9071,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" s="25">
         <v>471</v>
@@ -9089,7 +9089,7 @@
         <v>5.9373639999999998E-2</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J98" s="14">
         <v>2.9801667250000001</v>
@@ -9136,7 +9136,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C99" s="25">
         <v>349</v>
@@ -9154,7 +9154,7 @@
         <v>6.2120254E-2</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J99" s="14">
         <v>3.2495837999999999E-2</v>
@@ -9201,7 +9201,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="25">
         <v>123</v>
@@ -9219,7 +9219,7 @@
         <v>6.7351113000000004E-2</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J100" s="14">
         <v>-0.12140419</v>
@@ -9266,7 +9266,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C101" s="25">
         <v>134</v>
@@ -9284,7 +9284,7 @@
         <v>7.3136665000000003E-2</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J101" s="14">
         <v>0.55116067800000001</v>
@@ -9331,7 +9331,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="25">
         <v>338</v>
@@ -9349,7 +9349,7 @@
         <v>7.6445307000000004E-2</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J102" s="14">
         <v>-2.4343907310000001</v>
@@ -9396,7 +9396,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="25">
         <v>236</v>
@@ -9414,7 +9414,7 @@
         <v>8.1455814000000001E-2</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J103" s="14">
         <v>-4.0929536000000002E-2</v>
@@ -9459,7 +9459,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C104" s="25">
         <v>284</v>
@@ -9477,7 +9477,7 @@
         <v>9.3392650999999993E-2</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J104" s="14">
         <v>-1.296055746</v>
@@ -9524,7 +9524,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C105" s="25">
         <v>523</v>
@@ -9542,7 +9542,7 @@
         <v>9.494901E-2</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J105" s="14">
         <v>1.2509138399999999</v>
@@ -9589,7 +9589,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="25">
         <v>522</v>
@@ -9607,7 +9607,7 @@
         <v>0.104290095</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J106" s="14">
         <v>1.4950254000000001</v>
@@ -9654,7 +9654,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C107" s="25">
         <v>255</v>
@@ -9672,7 +9672,7 @@
         <v>0.115338936</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J107" s="14">
         <v>-0.18497202700000001</v>
@@ -9719,7 +9719,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C108" s="25">
         <v>124</v>
@@ -9737,7 +9737,7 @@
         <v>0.11784286099999999</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J108" s="14">
         <v>1.3741641760000001</v>
@@ -9784,7 +9784,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C109" s="25">
         <v>350</v>
@@ -9802,7 +9802,7 @@
         <v>0.118119605</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J109" s="14">
         <v>0.434836746</v>
@@ -9849,7 +9849,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C110" s="25">
         <v>222</v>
@@ -9867,7 +9867,7 @@
         <v>0.123136855</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J110" s="14">
         <v>0.115275262</v>
@@ -9912,7 +9912,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="25">
         <v>508</v>
@@ -9930,7 +9930,7 @@
         <v>0.124860859</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J111" s="14">
         <v>-0.40303807400000002</v>
@@ -9977,7 +9977,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="25">
         <v>275</v>
@@ -9995,7 +9995,7 @@
         <v>0.12568017100000001</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J112" s="14">
         <v>0.90894885299999995</v>
@@ -10042,7 +10042,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C113" s="25">
         <v>135</v>
@@ -10060,7 +10060,7 @@
         <v>0.12684335999999999</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J113" s="14">
         <v>8.7792159999999994E-2</v>
@@ -10107,7 +10107,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="25">
         <v>437</v>
@@ -10125,7 +10125,7 @@
         <v>0.15183122199999999</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J114" s="14">
         <v>0.28534917599999998</v>
@@ -10172,7 +10172,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C115" s="25">
         <v>117</v>
@@ -10190,7 +10190,7 @@
         <v>0.15938798100000001</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J115" s="14">
         <v>0.62159847800000001</v>
@@ -10237,7 +10237,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C116" s="25">
         <v>316</v>
@@ -10255,7 +10255,7 @@
         <v>0.16375234899999999</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J116" s="14">
         <v>0.32973904999999998</v>
@@ -10302,7 +10302,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C117" s="25">
         <v>109</v>
@@ -10320,7 +10320,7 @@
         <v>0.167461164</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J117" s="14">
         <v>1.2490454259999999</v>
@@ -10367,7 +10367,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C118" s="25">
         <v>375</v>
@@ -10385,7 +10385,7 @@
         <v>0.18118168600000001</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J118" s="14">
         <v>-0.36564653800000002</v>
@@ -10432,7 +10432,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C119" s="25">
         <v>494</v>
@@ -10450,7 +10450,7 @@
         <v>0.181310729</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J119" s="14">
         <v>-0.66682961500000004</v>
@@ -10497,7 +10497,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" s="25">
         <v>51</v>
@@ -10515,7 +10515,7 @@
         <v>0.18252063099999999</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J120" s="14">
         <v>-0.59111817200000005</v>
@@ -10562,7 +10562,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C121" s="25">
         <v>318</v>
@@ -10580,7 +10580,7 @@
         <v>0.18934905799999999</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J121" s="14">
         <v>0.38916673800000001</v>
@@ -10627,7 +10627,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C122" s="25">
         <v>205</v>
@@ -10645,7 +10645,7 @@
         <v>0.21586712699999999</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J122" s="14">
         <v>1.842120301</v>
@@ -10692,7 +10692,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C123" s="25">
         <v>313</v>
@@ -10710,7 +10710,7 @@
         <v>0.22696424000000001</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J123" s="14">
         <v>-9.5255659999999992E-3</v>
@@ -10757,7 +10757,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C124" s="25">
         <v>386</v>
@@ -10775,7 +10775,7 @@
         <v>0.235947358</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J124" s="14">
         <v>3.9798610000000003E-3</v>
@@ -10822,7 +10822,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="25">
         <v>208</v>
@@ -10840,7 +10840,7 @@
         <v>0.24283479599999999</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J125" s="14">
         <v>0.48533229100000003</v>
@@ -10887,7 +10887,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C126" s="25">
         <v>235</v>
@@ -10905,7 +10905,7 @@
         <v>0.245451064</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J126" s="14">
         <v>-0.50685205499999997</v>
@@ -10952,7 +10952,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" s="25">
         <v>321</v>
@@ -10970,7 +10970,7 @@
         <v>0.24550609700000001</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J127" s="14">
         <v>1.282069291</v>
@@ -11017,7 +11017,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C128" s="25">
         <v>279</v>
@@ -11035,7 +11035,7 @@
         <v>0.24619674999999999</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J128" s="14">
         <v>1.182501061</v>
@@ -11082,7 +11082,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C129" s="25">
         <v>106</v>
@@ -11100,7 +11100,7 @@
         <v>0.24652871200000001</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J129" s="14">
         <v>0.609528607</v>
@@ -11147,7 +11147,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C130" s="25">
         <v>249</v>
@@ -11165,7 +11165,7 @@
         <v>0.25008453200000003</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J130" s="14">
         <v>0.68204749499999995</v>
@@ -11212,7 +11212,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C131" s="25">
         <v>40</v>
@@ -11230,7 +11230,7 @@
         <v>0.25108862999999998</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J131" s="14">
         <v>-0.21393600400000001</v>
@@ -11277,7 +11277,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="25">
         <v>390</v>
@@ -11295,7 +11295,7 @@
         <v>0.25394272600000001</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J132" s="14">
         <v>-3.2768934999999999E-2</v>
@@ -11342,7 +11342,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C133" s="25">
         <v>554</v>
@@ -11360,7 +11360,7 @@
         <v>0.25472972799999999</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J133" s="14"/>
       <c r="L133" s="9">
@@ -11401,7 +11401,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C134" s="25">
         <v>591</v>
@@ -11419,7 +11419,7 @@
         <v>0.25472972799999999</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J134" s="14">
         <v>-0.31337891499999998</v>
@@ -11466,7 +11466,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C135" s="25">
         <v>572</v>
@@ -11484,7 +11484,7 @@
         <v>0.25786205099999998</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J135" s="14">
         <v>0.2062533</v>
@@ -11531,7 +11531,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="25">
         <v>70</v>
@@ -11549,7 +11549,7 @@
         <v>0.25953547799999999</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J136" s="14">
         <v>0.82063635199999996</v>
@@ -11596,7 +11596,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C137" s="25">
         <v>187</v>
@@ -11614,7 +11614,7 @@
         <v>0.25954756299999998</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J137" s="14">
         <v>-1.0027133459999999</v>
@@ -11661,7 +11661,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C138" s="25">
         <v>57</v>
@@ -11679,7 +11679,7 @@
         <v>0.267877119</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J138" s="14">
         <v>0.88574830800000004</v>
@@ -11726,7 +11726,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C139" s="25">
         <v>530</v>
@@ -11744,7 +11744,7 @@
         <v>0.269618262</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J139" s="14">
         <v>-5.2083454000000001E-2</v>
@@ -11791,7 +11791,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C140" s="25">
         <v>361</v>
@@ -11809,7 +11809,7 @@
         <v>0.27275909300000001</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J140" s="14">
         <v>-0.375014348</v>
@@ -11856,7 +11856,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C141" s="25">
         <v>457</v>
@@ -11874,7 +11874,7 @@
         <v>0.27956133999999999</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J141" s="14">
         <v>0.15720344999999999</v>
@@ -11921,7 +11921,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C142" s="25">
         <v>609</v>
@@ -11939,7 +11939,7 @@
         <v>0.28745945899999997</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J142" s="14">
         <v>0.158836118</v>
@@ -11986,7 +11986,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C143" s="25">
         <v>243</v>
@@ -12004,7 +12004,7 @@
         <v>0.29576129400000001</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J143" s="14">
         <v>0.21542987699999999</v>
@@ -12051,7 +12051,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C144" s="25">
         <v>175</v>
@@ -12069,7 +12069,7 @@
         <v>0.29577601199999998</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J144" s="14">
         <v>1.8023668559999999</v>
@@ -12116,7 +12116,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C145" s="25">
         <v>244</v>
@@ -12134,7 +12134,7 @@
         <v>0.29838960399999997</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J145" s="14">
         <v>-0.54261373499999999</v>
@@ -12181,7 +12181,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C146" s="25">
         <v>578</v>
@@ -12199,7 +12199,7 @@
         <v>0.30824645099999998</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J146" s="14">
         <v>8.4210619E-2</v>
@@ -12246,7 +12246,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C147" s="25">
         <v>186</v>
@@ -12264,7 +12264,7 @@
         <v>0.31342837099999998</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J147" s="14">
         <v>8.7315880999999998E-2</v>
@@ -12311,7 +12311,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C148" s="25">
         <v>271</v>
@@ -12329,7 +12329,7 @@
         <v>0.31403127400000003</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J148" s="14">
         <v>0.31804129599999997</v>
@@ -12376,7 +12376,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C149" s="25">
         <v>68</v>
@@ -12394,7 +12394,7 @@
         <v>0.31818414299999997</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J149" s="14">
         <v>1.4500822579999999</v>
@@ -12439,7 +12439,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C150" s="25">
         <v>37</v>
@@ -12457,7 +12457,7 @@
         <v>0.31943944000000002</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J150" s="14">
         <v>0.155414524</v>
@@ -12504,7 +12504,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C151" s="25">
         <v>758</v>
@@ -12522,7 +12522,7 @@
         <v>0.32632329100000002</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J151" s="14">
         <v>-0.840061901</v>
@@ -12569,7 +12569,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C152" s="25">
         <v>425</v>
@@ -12587,7 +12587,7 @@
         <v>0.32685274600000003</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J152" s="14">
         <v>-1.1386946E-2</v>
@@ -12634,7 +12634,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C153" s="25">
         <v>174</v>
@@ -12652,7 +12652,7 @@
         <v>0.32709383600000003</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J153" s="14">
         <v>-0.19605118499999999</v>
@@ -12699,7 +12699,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="25">
         <v>162</v>
@@ -12717,7 +12717,7 @@
         <v>0.33202521200000001</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J154" s="14">
         <v>0.35184169199999998</v>
@@ -12764,7 +12764,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C155" s="25">
         <v>290</v>
@@ -12782,7 +12782,7 @@
         <v>0.33738453200000001</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J155" s="14">
         <v>-6.3620842999999996E-2</v>
@@ -12827,7 +12827,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C156" s="25">
         <v>728</v>
@@ -12845,7 +12845,7 @@
         <v>0.33806925700000001</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J156" s="14">
         <v>-7.7809715000000002E-2</v>
@@ -12892,7 +12892,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C157" s="25">
         <v>281</v>
@@ -12910,7 +12910,7 @@
         <v>0.33822716000000003</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J157" s="14">
         <v>1.2256582499999999</v>
@@ -12957,7 +12957,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C158" s="25">
         <v>449</v>
@@ -12975,7 +12975,7 @@
         <v>0.33909747499999998</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J158" s="14">
         <v>0.71841086200000004</v>
@@ -13022,7 +13022,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C159" s="25">
         <v>257</v>
@@ -13040,7 +13040,7 @@
         <v>0.34661266299999999</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J159" s="14">
         <v>-0.17457811600000001</v>
@@ -13087,7 +13087,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" s="25">
         <v>69</v>
@@ -13105,7 +13105,7 @@
         <v>0.34861287699999999</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J160" s="14">
         <v>1.3627524689999999</v>
@@ -13152,7 +13152,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C161" s="25">
         <v>470</v>
@@ -13170,7 +13170,7 @@
         <v>0.34884304900000002</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J161" s="14">
         <v>0.28715228999999998</v>
@@ -13217,7 +13217,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C162" s="25">
         <v>20</v>
@@ -13235,7 +13235,7 @@
         <v>0.35503582</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J162" s="14">
         <v>0.35679054399999999</v>
@@ -13282,7 +13282,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C163" s="25">
         <v>555</v>
@@ -13300,7 +13300,7 @@
         <v>0.36124736600000001</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J163" s="14">
         <v>3.2784157880000002</v>
@@ -13347,7 +13347,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C164" s="25">
         <v>153</v>
@@ -13365,7 +13365,7 @@
         <v>0.36606588600000001</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J164" s="14"/>
       <c r="L164" s="9">
@@ -13404,7 +13404,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C165" s="25">
         <v>218</v>
@@ -13422,7 +13422,7 @@
         <v>0.36957496499999998</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J165" s="14">
         <v>3.0944204470000001</v>
@@ -13469,7 +13469,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C166" s="25">
         <v>202</v>
@@ -13487,7 +13487,7 @@
         <v>0.37093578999999999</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J166" s="14">
         <v>0.16931296300000001</v>
@@ -13534,7 +13534,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="25">
         <v>154</v>
@@ -13552,7 +13552,7 @@
         <v>0.37173870799999997</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J167" s="14">
         <v>1.8467580349999999</v>
@@ -13599,7 +13599,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C168" s="25">
         <v>108</v>
@@ -13617,7 +13617,7 @@
         <v>0.37469365599999999</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J168" s="14">
         <v>0.61384865899999996</v>
@@ -13664,7 +13664,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C169" s="25">
         <v>583</v>
@@ -13682,7 +13682,7 @@
         <v>0.37759419900000002</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J169" s="14">
         <v>3.0752992999999999E-2</v>
@@ -13729,7 +13729,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C170" s="25">
         <v>599</v>
@@ -13747,7 +13747,7 @@
         <v>0.37759419900000002</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J170" s="14"/>
       <c r="L170" s="9">
@@ -13788,7 +13788,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C171" s="25">
         <v>8</v>
@@ -13806,7 +13806,7 @@
         <v>0.37797939899999999</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J171" s="14"/>
       <c r="L171" s="9">
@@ -13847,7 +13847,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C172" s="25">
         <v>30</v>
@@ -13865,7 +13865,7 @@
         <v>0.38441564099999997</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J172" s="14">
         <v>1.163688804</v>
@@ -13912,7 +13912,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C173" s="25">
         <v>364</v>
@@ -13930,7 +13930,7 @@
         <v>0.38802908000000003</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J173" s="14">
         <v>4.7290461999999998E-2</v>
@@ -13977,7 +13977,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C174" s="25">
         <v>482</v>
@@ -13995,7 +13995,7 @@
         <v>0.39283185300000001</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J174" s="14">
         <v>0.20042903400000001</v>
@@ -14042,7 +14042,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C175" s="25">
         <v>180</v>
@@ -14060,7 +14060,7 @@
         <v>0.40332672899999999</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J175" s="14">
         <v>0.11479210500000001</v>
@@ -14107,7 +14107,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C176" s="25">
         <v>246</v>
@@ -14125,7 +14125,7 @@
         <v>0.41038667299999998</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J176" s="14">
         <v>9.2732562000000004E-2</v>
@@ -14172,7 +14172,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C177" s="25">
         <v>376</v>
@@ -14190,7 +14190,7 @@
         <v>0.41086587699999999</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J177" s="14">
         <v>-0.84274531100000005</v>
@@ -14237,7 +14237,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C178" s="25">
         <v>357</v>
@@ -14255,7 +14255,7 @@
         <v>0.41145121899999998</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J178" s="14">
         <v>2.0213190459999999</v>
@@ -14302,7 +14302,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C179" s="25">
         <v>340</v>
@@ -14320,7 +14320,7 @@
         <v>0.415015931</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J179" s="14">
         <v>-7.3186411000000007E-2</v>
@@ -14367,7 +14367,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C180" s="25">
         <v>287</v>
@@ -14385,7 +14385,7 @@
         <v>0.416845252</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J180" s="14">
         <v>-0.39398641600000001</v>
@@ -14432,7 +14432,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C181" s="25">
         <v>358</v>
@@ -14450,7 +14450,7 @@
         <v>0.41830800400000001</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J181" s="14">
         <v>0.29801951999999998</v>
@@ -14497,7 +14497,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C182" s="25">
         <v>478</v>
@@ -14515,7 +14515,7 @@
         <v>0.418696754</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J182" s="14">
         <v>-0.38315895900000002</v>
@@ -14560,7 +14560,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C183" s="25">
         <v>161</v>
@@ -14578,7 +14578,7 @@
         <v>0.41987723500000002</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J183" s="14">
         <v>0.12766408400000001</v>
@@ -14625,7 +14625,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C184" s="25">
         <v>146</v>
@@ -14643,7 +14643,7 @@
         <v>0.41995918500000001</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J184" s="14"/>
       <c r="L184" s="9">
@@ -14684,7 +14684,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C185" s="25">
         <v>204</v>
@@ -14702,7 +14702,7 @@
         <v>0.42940551799999999</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J185" s="14">
         <v>0.61779027099999995</v>
@@ -14749,7 +14749,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C186" s="25">
         <v>455</v>
@@ -14767,7 +14767,7 @@
         <v>0.43056112400000002</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J186" s="14">
         <v>-9.8803096000000007E-2</v>
@@ -14814,7 +14814,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C187" s="25">
         <v>617</v>
@@ -14832,7 +14832,7 @@
         <v>0.432854605</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J187" s="14">
         <v>-3.0027543E-2</v>
@@ -14879,7 +14879,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C188" s="25">
         <v>256</v>
@@ -14897,7 +14897,7 @@
         <v>0.43319993600000001</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J188" s="14">
         <v>-0.26203758599999999</v>
@@ -14944,7 +14944,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C189" s="25">
         <v>240</v>
@@ -14962,7 +14962,7 @@
         <v>0.43405673900000002</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J189" s="14">
         <v>2.1741999000000001E-2</v>
@@ -15009,7 +15009,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C190" s="25">
         <v>178</v>
@@ -15027,7 +15027,7 @@
         <v>0.43423664699999998</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J190" s="14">
         <v>9.1851054000000001E-2</v>
@@ -15072,7 +15072,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C191" s="25">
         <v>354</v>
@@ -15090,7 +15090,7 @@
         <v>0.43605382500000001</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J191" s="14">
         <v>-0.13459056899999999</v>
@@ -15137,7 +15137,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C192" s="25">
         <v>14</v>
@@ -15155,7 +15155,7 @@
         <v>0.43840398800000002</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J192" s="14">
         <v>1.2555742889999999</v>
@@ -15202,7 +15202,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C193" s="25">
         <v>383</v>
@@ -15220,7 +15220,7 @@
         <v>0.44322164800000002</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J193" s="14">
         <v>-0.640930373</v>
@@ -15267,7 +15267,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" s="25">
         <v>200</v>
@@ -15285,7 +15285,7 @@
         <v>0.44367888799999999</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J194" s="14"/>
       <c r="L194" s="9">
@@ -15324,7 +15324,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C195" s="25">
         <v>82</v>
@@ -15342,7 +15342,7 @@
         <v>0.44367888799999999</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J195" s="14"/>
       <c r="L195" s="9">
@@ -15383,7 +15383,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C196" s="25">
         <v>24</v>
@@ -15401,7 +15401,7 @@
         <v>0.45395126099999999</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J196" s="14">
         <v>-0.18300408900000001</v>
@@ -15444,7 +15444,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C197" s="25">
         <v>234</v>
@@ -15462,7 +15462,7 @@
         <v>0.45658828600000001</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J197" s="14">
         <v>-0.209412826</v>
@@ -15509,7 +15509,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C198" s="25">
         <v>63</v>
@@ -15527,7 +15527,7 @@
         <v>0.46644255099999998</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J198" s="14">
         <v>8.0989482000000002E-2</v>
@@ -15570,7 +15570,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C199" s="25">
         <v>212</v>
@@ -15588,7 +15588,7 @@
         <v>0.46915367800000002</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J199" s="14">
         <v>0.26834037100000002</v>
@@ -15635,7 +15635,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C200" s="25">
         <v>196</v>
@@ -15653,7 +15653,7 @@
         <v>0.46937431499999999</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J200" s="14">
         <v>-0.185526146</v>
@@ -15698,7 +15698,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C201" s="25">
         <v>4</v>
@@ -15716,7 +15716,7 @@
         <v>0.47103351999999998</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J201" s="14">
         <v>0.14834454399999999</v>
@@ -15761,7 +15761,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C202" s="25">
         <v>45</v>
@@ -15779,7 +15779,7 @@
         <v>0.47291835100000001</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J202" s="14"/>
       <c r="L202" s="9">
@@ -15818,7 +15818,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C203" s="25">
         <v>517</v>
@@ -15836,7 +15836,7 @@
         <v>0.48410636299999998</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J203" s="14">
         <v>0.28557200700000002</v>
@@ -15881,7 +15881,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" s="25">
         <v>156</v>
@@ -15899,7 +15899,7 @@
         <v>0.48574537800000001</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J204" s="14">
         <v>-0.71691570999999998</v>
@@ -15946,7 +15946,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C205" s="25">
         <v>95</v>
@@ -15964,7 +15964,7 @@
         <v>0.48861125</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J205" s="14">
         <v>-0.37887137300000001</v>
@@ -16011,7 +16011,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C206" s="25">
         <v>697</v>
@@ -16029,7 +16029,7 @@
         <v>0.48996827900000001</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J206" s="14">
         <v>-5.1163119999999996E-3</v>
@@ -16076,7 +16076,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C207" s="25">
         <v>694</v>
@@ -16094,7 +16094,7 @@
         <v>0.48996827900000001</v>
       </c>
       <c r="I207" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J207" s="14">
         <v>3.5806554999999997E-2</v>
@@ -16141,7 +16141,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C208" s="25">
         <v>735</v>
@@ -16159,7 +16159,7 @@
         <v>0.48996827900000001</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J208" s="14">
         <v>0.26389051699999999</v>
@@ -16202,7 +16202,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C209" s="25">
         <v>177</v>
@@ -16220,7 +16220,7 @@
         <v>0.49509918600000002</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J209" s="14">
         <v>-0.14461502000000001</v>
@@ -16267,7 +16267,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C210" s="25">
         <v>122</v>
@@ -16285,7 +16285,7 @@
         <v>0.49792589500000001</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J210" s="14">
         <v>-8.3463093000000002E-2</v>
@@ -16332,7 +16332,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C211" s="25">
         <v>395</v>
@@ -16350,7 +16350,7 @@
         <v>0.49923762700000002</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J211" s="14">
         <v>-0.59623429299999997</v>
@@ -16397,7 +16397,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C212" s="25">
         <v>10</v>
@@ -16415,7 +16415,7 @@
         <v>0.50091877799999995</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J212" s="14">
         <v>-0.60517756499999997</v>
@@ -16462,7 +16462,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C213" s="25">
         <v>239</v>
@@ -16480,7 +16480,7 @@
         <v>0.50168169299999998</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J213" s="14">
         <v>-1.478158216</v>
@@ -16527,7 +16527,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C214" s="25">
         <v>451</v>
@@ -16545,7 +16545,7 @@
         <v>0.50283081799999996</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J214" s="14">
         <v>0.40060563700000001</v>
@@ -16592,7 +16592,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C215" s="25">
         <v>334</v>
@@ -16610,7 +16610,7 @@
         <v>0.504721894</v>
       </c>
       <c r="I215" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J215" s="14">
         <v>9.5356983000000006E-2</v>
@@ -16657,7 +16657,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C216" s="25">
         <v>33</v>
@@ -16675,7 +16675,7 @@
         <v>0.50609829299999998</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J216" s="14">
         <v>1.0288797999999999</v>
@@ -16722,7 +16722,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C217" s="25">
         <v>81</v>
@@ -16740,7 +16740,7 @@
         <v>0.50771545399999995</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J217" s="14">
         <v>-1.0024297499999999</v>
@@ -16787,7 +16787,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C218" s="25">
         <v>382</v>
@@ -16805,7 +16805,7 @@
         <v>0.50845532199999999</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J218" s="14">
         <v>0.84110628899999995</v>
@@ -16850,7 +16850,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C219" s="25">
         <v>206</v>
@@ -16868,7 +16868,7 @@
         <v>0.50878979599999996</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J219" s="14"/>
       <c r="L219" s="9">
@@ -16907,7 +16907,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C220" s="25">
         <v>270</v>
@@ -16925,7 +16925,7 @@
         <v>0.51132431700000003</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J220" s="14">
         <v>0.151602087</v>
@@ -16972,7 +16972,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C221" s="25">
         <v>534</v>
@@ -16990,7 +16990,7 @@
         <v>0.51172461700000005</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J221" s="14"/>
       <c r="L221" s="9">
@@ -17031,7 +17031,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C222" s="25">
         <v>406</v>
@@ -17049,7 +17049,7 @@
         <v>0.51172461700000005</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J222" s="14">
         <v>-0.18336196299999999</v>
@@ -17092,7 +17092,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C223" s="25">
         <v>672</v>
@@ -17110,7 +17110,7 @@
         <v>0.51198062300000002</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J223" s="14">
         <v>0.33322985599999999</v>
@@ -17157,7 +17157,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C224" s="25">
         <v>696</v>
@@ -17175,7 +17175,7 @@
         <v>0.51738010899999998</v>
       </c>
       <c r="I224" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J224" s="14">
         <v>7.6332894999999998E-2</v>
@@ -17222,7 +17222,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C225" s="25">
         <v>247</v>
@@ -17240,7 +17240,7 @@
         <v>0.51770029100000003</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J225" s="14"/>
       <c r="L225" s="9">
@@ -17281,7 +17281,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C226" s="25">
         <v>310</v>
@@ -17299,7 +17299,7 @@
         <v>0.52325063999999999</v>
       </c>
       <c r="I226" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J226" s="14">
         <v>8.2588022999999997E-2</v>
@@ -17344,7 +17344,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C227" s="25">
         <v>666</v>
@@ -17362,7 +17362,7 @@
         <v>0.52357866799999997</v>
       </c>
       <c r="I227" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J227" s="14">
         <v>0.293470326</v>
@@ -17409,7 +17409,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C228" s="25">
         <v>447</v>
@@ -17427,7 +17427,7 @@
         <v>0.52808836299999995</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J228" s="14">
         <v>-0.13794136600000001</v>
@@ -17474,7 +17474,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C229" s="25">
         <v>315</v>
@@ -17492,7 +17492,7 @@
         <v>0.52931919699999996</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J229" s="14">
         <v>0.69702390400000003</v>
@@ -17539,7 +17539,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C230" s="25">
         <v>464</v>
@@ -17557,7 +17557,7 @@
         <v>0.53079454999999998</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J230" s="14">
         <v>7.5418302000000007E-2</v>
@@ -17602,7 +17602,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C231" s="25">
         <v>461</v>
@@ -17620,7 +17620,7 @@
         <v>0.53079454999999998</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J231" s="14">
         <v>-2.4143591999999998E-2</v>
@@ -17667,7 +17667,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C232" s="25">
         <v>251</v>
@@ -17685,7 +17685,7 @@
         <v>0.53092837500000001</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J232" s="14">
         <v>-0.385230185</v>
@@ -17732,7 +17732,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C233" s="25">
         <v>89</v>
@@ -17750,7 +17750,7 @@
         <v>0.53258619699999998</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J233" s="14">
         <v>-4.8574720000000002E-2</v>
@@ -17797,7 +17797,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C234" s="25">
         <v>48</v>
@@ -17815,7 +17815,7 @@
         <v>0.53423766699999997</v>
       </c>
       <c r="I234" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J234" s="14">
         <v>2.8079645260000001</v>
@@ -17862,7 +17862,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C235" s="25">
         <v>29</v>
@@ -17880,7 +17880,7 @@
         <v>0.53856113400000005</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J235" s="14">
         <v>0.10041457199999999</v>
@@ -17925,7 +17925,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C236" s="25">
         <v>22</v>
@@ -17943,7 +17943,7 @@
         <v>0.53914202</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J236" s="14"/>
       <c r="L236" s="9">
@@ -17984,7 +17984,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C237" s="25">
         <v>644</v>
@@ -18002,7 +18002,7 @@
         <v>0.53941779599999995</v>
       </c>
       <c r="I237" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J237" s="14">
         <v>-9.8741943999999998E-2</v>
@@ -18049,7 +18049,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C238" s="25">
         <v>343</v>
@@ -18067,7 +18067,7 @@
         <v>0.53949929600000002</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J238" s="14">
         <v>0.93409401400000003</v>
@@ -18114,7 +18114,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C239" s="25">
         <v>252</v>
@@ -18132,7 +18132,7 @@
         <v>0.54039236599999996</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J239" s="14"/>
       <c r="L239" s="9">
@@ -18173,7 +18173,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C240" s="25">
         <v>303</v>
@@ -18191,7 +18191,7 @@
         <v>0.54199923800000005</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J240" s="14">
         <v>-0.12218959</v>
@@ -18238,7 +18238,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C241" s="25">
         <v>184</v>
@@ -18256,7 +18256,7 @@
         <v>0.54268006700000004</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J241" s="14">
         <v>-6.0056338000000001E-2</v>
@@ -18303,7 +18303,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C242" s="25">
         <v>102</v>
@@ -18321,7 +18321,7 @@
         <v>0.54299114900000001</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J242" s="14">
         <v>5.8044936999999998E-2</v>
@@ -18368,7 +18368,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C243" s="25">
         <v>188</v>
@@ -18386,7 +18386,7 @@
         <v>0.54304255199999996</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J243" s="14">
         <v>-2.9364930000000001E-3</v>
@@ -18433,7 +18433,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C244" s="25">
         <v>368</v>
@@ -18451,7 +18451,7 @@
         <v>0.54511845000000003</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J244" s="14">
         <v>0.36411161399999997</v>
@@ -18498,7 +18498,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C245" s="25">
         <v>371</v>
@@ -18516,7 +18516,7 @@
         <v>0.54522646399999997</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J245" s="14">
         <v>-8.2961253999999998E-2</v>
@@ -18563,7 +18563,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C246" s="25">
         <v>579</v>
@@ -18581,7 +18581,7 @@
         <v>0.54748087999999995</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J246" s="14"/>
       <c r="L246" s="9">
@@ -18620,7 +18620,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C247" s="25">
         <v>351</v>
@@ -18638,7 +18638,7 @@
         <v>0.54748087999999995</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J247" s="14"/>
       <c r="L247" s="9">
@@ -18677,7 +18677,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C248" s="25">
         <v>306</v>
@@ -18695,7 +18695,7 @@
         <v>0.54748087999999995</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J248" s="14">
         <v>-2.7705631000000001E-2</v>
@@ -18740,7 +18740,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C249" s="25">
         <v>27</v>
@@ -18758,7 +18758,7 @@
         <v>0.54887848299999997</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J249" s="14">
         <v>0.38424269100000003</v>
@@ -18805,7 +18805,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C250" s="25">
         <v>39</v>
@@ -18823,7 +18823,7 @@
         <v>0.55016218400000005</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J250" s="14">
         <v>9.5471431999999995E-2</v>
@@ -18870,7 +18870,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C251" s="25">
         <v>76</v>
@@ -18888,7 +18888,7 @@
         <v>0.55703874200000003</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J251" s="14">
         <v>-8.1998682000000003E-2</v>
@@ -18935,7 +18935,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C252" s="25">
         <v>107</v>
@@ -18953,7 +18953,7 @@
         <v>0.55726642500000001</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J252" s="14">
         <v>0.66016930500000004</v>
@@ -19000,7 +19000,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C253" s="25">
         <v>502</v>
@@ -19018,7 +19018,7 @@
         <v>0.55972958500000003</v>
       </c>
       <c r="I253" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J253" s="14">
         <v>0.16652763000000001</v>
@@ -19065,7 +19065,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C254" s="25">
         <v>422</v>
@@ -19083,7 +19083,7 @@
         <v>0.56205944200000002</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J254" s="14">
         <v>-2.2249702999999999E-2</v>
@@ -19126,7 +19126,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C255" s="25">
         <v>524</v>
@@ -19144,7 +19144,7 @@
         <v>0.56205944200000002</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J255" s="14">
         <v>6.2844570000000002E-2</v>
@@ -19191,7 +19191,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C256" s="25">
         <v>78</v>
@@ -19209,7 +19209,7 @@
         <v>0.56205944200000002</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J256" s="14">
         <v>0.113995078</v>
@@ -19256,7 +19256,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="25">
         <v>145</v>
@@ -19274,7 +19274,7 @@
         <v>0.56218431800000002</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J257" s="14">
         <v>-0.46078102700000001</v>
@@ -19321,7 +19321,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C258" s="25">
         <v>250</v>
@@ -19339,7 +19339,7 @@
         <v>0.56307691699999995</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J258" s="14">
         <v>2.0953784820000001</v>
@@ -19386,7 +19386,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C259" s="25">
         <v>159</v>
@@ -19404,7 +19404,7 @@
         <v>0.56483926299999998</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J259" s="14">
         <v>0.21960328300000001</v>
@@ -19449,7 +19449,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C260" s="25">
         <v>362</v>
@@ -19467,7 +19467,7 @@
         <v>0.56506631699999998</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J260" s="14">
         <v>-7.9633504999999993E-2</v>
@@ -19512,7 +19512,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C261" s="25">
         <v>370</v>
@@ -19530,7 +19530,7 @@
         <v>0.566665745</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J261" s="14">
         <v>5.9608932000000003E-2</v>
@@ -19577,7 +19577,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C262" s="25">
         <v>651</v>
@@ -19595,7 +19595,7 @@
         <v>0.56791856200000002</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J262" s="14">
         <v>-0.14487139299999999</v>
@@ -19642,7 +19642,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C263" s="25">
         <v>288</v>
@@ -19660,7 +19660,7 @@
         <v>0.57052600200000003</v>
       </c>
       <c r="I263" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J263" s="14">
         <v>0.14034026599999999</v>
@@ -19707,7 +19707,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C264" s="25">
         <v>503</v>
@@ -19725,7 +19725,7 @@
         <v>0.57200512000000003</v>
       </c>
       <c r="I264" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J264" s="14">
         <v>-0.950901679</v>
@@ -19772,7 +19772,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C265" s="25">
         <v>181</v>
@@ -19790,7 +19790,7 @@
         <v>0.57365960299999996</v>
       </c>
       <c r="I265" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J265" s="14">
         <v>-0.148821549</v>
@@ -19837,7 +19837,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C266" s="25">
         <v>119</v>
@@ -19855,7 +19855,7 @@
         <v>0.57444043600000005</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J266" s="14">
         <v>-0.25995496899999998</v>
@@ -19902,7 +19902,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C267" s="25">
         <v>412</v>
@@ -19920,7 +19920,7 @@
         <v>0.57477963700000001</v>
       </c>
       <c r="I267" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J267" s="14">
         <v>-2.3058819000000001E-2</v>
@@ -19967,7 +19967,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C268" s="25">
         <v>374</v>
@@ -19985,7 +19985,7 @@
         <v>0.57477963700000001</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J268" s="14"/>
       <c r="L268" s="9">
@@ -20026,7 +20026,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C269" s="25">
         <v>139</v>
@@ -20044,7 +20044,7 @@
         <v>0.57817502799999998</v>
       </c>
       <c r="I269" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J269" s="14">
         <v>3.598108E-3</v>
@@ -20091,7 +20091,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C270" s="25">
         <v>600</v>
@@ -20109,7 +20109,7 @@
         <v>0.57931761000000004</v>
       </c>
       <c r="I270" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J270" s="14"/>
       <c r="L270" s="9">
@@ -20150,7 +20150,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C271" s="25">
         <v>462</v>
@@ -20168,7 +20168,7 @@
         <v>0.57941546799999999</v>
       </c>
       <c r="I271" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J271" s="14">
         <v>0.336591584</v>
@@ -20215,7 +20215,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C272" s="25">
         <v>748</v>
@@ -20233,7 +20233,7 @@
         <v>0.58461041999999996</v>
       </c>
       <c r="I272" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J272" s="14">
         <v>-2.5945685E-2</v>
@@ -20280,7 +20280,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C273" s="25">
         <v>733</v>
@@ -20298,7 +20298,7 @@
         <v>0.58462384099999998</v>
       </c>
       <c r="I273" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J273" s="14">
         <v>0.14106971300000001</v>
@@ -20345,7 +20345,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C274" s="25">
         <v>62</v>
@@ -20363,7 +20363,7 @@
         <v>0.58586554700000004</v>
       </c>
       <c r="I274" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J274" s="14">
         <v>5.6203959999999997E-2</v>
@@ -20408,7 +20408,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C275" s="25">
         <v>337</v>
@@ -20426,7 +20426,7 @@
         <v>0.58662236199999995</v>
       </c>
       <c r="I275" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J275" s="14">
         <v>-0.95195494800000002</v>
@@ -20473,7 +20473,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C276" s="25">
         <v>170</v>
@@ -20491,7 +20491,7 @@
         <v>0.58814886899999996</v>
       </c>
       <c r="I276" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J276" s="14">
         <v>-9.0954634000000006E-2</v>
@@ -20536,7 +20536,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C277" s="25">
         <v>322</v>
@@ -20554,7 +20554,7 @@
         <v>0.58860997699999995</v>
       </c>
       <c r="I277" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J277" s="14">
         <v>-0.441532127</v>
@@ -20601,7 +20601,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C278" s="25">
         <v>31</v>
@@ -20619,7 +20619,7 @@
         <v>0.59069864699999997</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J278" s="14">
         <v>0.70926844300000003</v>
@@ -20666,7 +20666,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C279" s="25">
         <v>291</v>
@@ -20684,7 +20684,7 @@
         <v>0.59294256700000003</v>
       </c>
       <c r="I279" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J279" s="14">
         <v>-0.151634727</v>
@@ -20729,7 +20729,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C280" s="25">
         <v>17</v>
@@ -20747,7 +20747,7 @@
         <v>0.59354747200000002</v>
       </c>
       <c r="I280" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J280" s="14">
         <v>-4.4814850000000003E-3</v>
@@ -20790,7 +20790,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C281" s="25">
         <v>98</v>
@@ -20808,7 +20808,7 @@
         <v>0.59551742299999999</v>
       </c>
       <c r="I281" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J281" s="14">
         <v>3.5521150000000001E-2</v>
@@ -20853,7 +20853,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C282" s="25">
         <v>230</v>
@@ -20871,7 +20871,7 @@
         <v>0.59551742299999999</v>
       </c>
       <c r="I282" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J282" s="14"/>
       <c r="L282" s="9">
@@ -20910,7 +20910,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C283" s="25">
         <v>319</v>
@@ -20928,7 +20928,7 @@
         <v>0.597241366</v>
       </c>
       <c r="I283" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J283" s="14">
         <v>0.121803362</v>
@@ -20973,7 +20973,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C284" s="25">
         <v>366</v>
@@ -20991,7 +20991,7 @@
         <v>0.59750426000000001</v>
       </c>
       <c r="I284" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J284" s="14">
         <v>-3.0098082000000002E-2</v>
@@ -21036,7 +21036,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C285" s="25">
         <v>635</v>
@@ -21054,7 +21054,7 @@
         <v>0.59783739899999999</v>
       </c>
       <c r="I285" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J285" s="14">
         <v>0.58440632100000001</v>
@@ -21101,7 +21101,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C286" s="25">
         <v>329</v>
@@ -21119,7 +21119,7 @@
         <v>0.59796830999999995</v>
       </c>
       <c r="I286" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J286" s="14">
         <v>-7.5135410000000003E-3</v>
@@ -21166,7 +21166,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C287" s="25">
         <v>285</v>
@@ -21184,7 +21184,7 @@
         <v>0.59843183200000005</v>
       </c>
       <c r="I287" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J287" s="14">
         <v>-0.115465886</v>
@@ -21231,7 +21231,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C288" s="25">
         <v>460</v>
@@ -21249,7 +21249,7 @@
         <v>0.59872216099999997</v>
       </c>
       <c r="I288" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J288" s="14">
         <v>-8.0979502999999994E-2</v>
@@ -21296,7 +21296,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C289" s="25">
         <v>265</v>
@@ -21314,7 +21314,7 @@
         <v>0.60059601799999995</v>
       </c>
       <c r="I289" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J289" s="14">
         <v>-0.29321233400000002</v>
@@ -21361,7 +21361,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C290" s="25">
         <v>53</v>
@@ -21379,7 +21379,7 @@
         <v>0.60238051800000003</v>
       </c>
       <c r="I290" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J290" s="14">
         <v>0.26627039899999999</v>
@@ -21424,7 +21424,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C291" s="25">
         <v>105</v>
@@ -21442,7 +21442,7 @@
         <v>0.602606117</v>
       </c>
       <c r="I291" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J291" s="14">
         <v>0.38629729299999999</v>
@@ -21489,7 +21489,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C292" s="25">
         <v>536</v>
@@ -21507,7 +21507,7 @@
         <v>0.60326868099999997</v>
       </c>
       <c r="I292" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J292" s="14"/>
       <c r="L292" s="9">
@@ -21548,7 +21548,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C293" s="25">
         <v>552</v>
@@ -21566,7 +21566,7 @@
         <v>0.60495057100000005</v>
       </c>
       <c r="I293" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J293" s="14"/>
       <c r="L293" s="9">
@@ -21605,7 +21605,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C294" s="25">
         <v>43</v>
@@ -21623,7 +21623,7 @@
         <v>0.61121134600000004</v>
       </c>
       <c r="I294" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J294" s="14"/>
       <c r="L294" s="9">
@@ -21662,7 +21662,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C295" s="25">
         <v>46</v>
@@ -21680,7 +21680,7 @@
         <v>0.61121134600000004</v>
       </c>
       <c r="I295" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J295" s="14">
         <v>2.4724850999999999E-2</v>
@@ -21725,7 +21725,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C296" s="25">
         <v>5</v>
@@ -21743,7 +21743,7 @@
         <v>0.61238026499999998</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J296" s="14">
         <v>9.4684995999999993E-2</v>
@@ -21786,7 +21786,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C297" s="25">
         <v>339</v>
@@ -21804,7 +21804,7 @@
         <v>0.61426366600000004</v>
       </c>
       <c r="I297" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J297" s="14">
         <v>-0.13679418500000001</v>
@@ -21849,7 +21849,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C298" s="25">
         <v>19</v>
@@ -21867,7 +21867,7 @@
         <v>0.61449278299999999</v>
       </c>
       <c r="I298" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J298" s="14">
         <v>-2.6074864E-2</v>
@@ -21914,7 +21914,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C299" s="25">
         <v>377</v>
@@ -21932,7 +21932,7 @@
         <v>0.61499670299999998</v>
       </c>
       <c r="I299" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J299" s="14">
         <v>9.3090851000000002E-2</v>
@@ -21979,7 +21979,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C300" s="25">
         <v>60</v>
@@ -21997,7 +21997,7 @@
         <v>0.61755064299999995</v>
       </c>
       <c r="I300" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J300" s="14">
         <v>-3.3915413999999998E-2</v>
@@ -22040,7 +22040,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C301" s="25">
         <v>189</v>
@@ -22058,7 +22058,7 @@
         <v>0.61755064299999995</v>
       </c>
       <c r="I301" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J301" s="14">
         <v>-1.442795E-2</v>
@@ -22105,7 +22105,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C302" s="25">
         <v>749</v>
@@ -22123,7 +22123,7 @@
         <v>0.61900197000000001</v>
       </c>
       <c r="I302" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J302" s="14">
         <v>-2.1936634E-2</v>
@@ -22168,7 +22168,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C303" s="25">
         <v>259</v>
@@ -22186,7 +22186,7 @@
         <v>0.62048726300000001</v>
       </c>
       <c r="I303" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J303" s="14">
         <v>-0.60302725999999995</v>
@@ -22233,7 +22233,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C304" s="25">
         <v>11</v>
@@ -22251,7 +22251,7 @@
         <v>0.62094244399999998</v>
       </c>
       <c r="I304" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J304" s="14">
         <v>5.1847589999999999E-2</v>
@@ -22298,7 +22298,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C305" s="25">
         <v>576</v>
@@ -22316,7 +22316,7 @@
         <v>0.62213101100000001</v>
       </c>
       <c r="I305" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J305" s="14">
         <v>-0.15062610900000001</v>
@@ -22363,7 +22363,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C306" s="25">
         <v>83</v>
@@ -22381,7 +22381,7 @@
         <v>0.623054055</v>
       </c>
       <c r="I306" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J306" s="14">
         <v>3.3596152999999997E-2</v>
@@ -22426,7 +22426,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C307" s="25">
         <v>529</v>
@@ -22444,7 +22444,7 @@
         <v>0.623054055</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J307" s="14"/>
       <c r="L307" s="9">
@@ -22485,7 +22485,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C308" s="25">
         <v>80</v>
@@ -22503,7 +22503,7 @@
         <v>0.623054055</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J308" s="14">
         <v>-5.5582207000000002E-2</v>
@@ -22546,7 +22546,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C309" s="25">
         <v>561</v>
@@ -22564,7 +22564,7 @@
         <v>0.62485109299999997</v>
       </c>
       <c r="I309" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J309" s="14"/>
       <c r="L309" s="9">
@@ -22603,7 +22603,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C310" s="25">
         <v>227</v>
@@ -22621,7 +22621,7 @@
         <v>0.62520639099999997</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J310" s="14">
         <v>-5.1799192000000001E-2</v>
@@ -22668,7 +22668,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C311" s="25">
         <v>168</v>
@@ -22686,7 +22686,7 @@
         <v>0.627829411</v>
       </c>
       <c r="I311" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J311" s="14">
         <v>-1.5993536999999999E-2</v>
@@ -22731,7 +22731,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C312" s="25">
         <v>190</v>
@@ -22749,7 +22749,7 @@
         <v>0.63044707</v>
       </c>
       <c r="I312" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J312" s="14">
         <v>5.8369039999999997E-2</v>
@@ -22794,7 +22794,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C313" s="25">
         <v>65</v>
@@ -22812,7 +22812,7 @@
         <v>0.63048068800000001</v>
       </c>
       <c r="I313" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J313" s="14">
         <v>-6.7153312000000007E-2</v>
@@ -22857,7 +22857,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C314" s="25">
         <v>47</v>
@@ -22875,7 +22875,7 @@
         <v>0.63051269799999998</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J314" s="14">
         <v>0.13307528699999999</v>
@@ -22922,7 +22922,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C315" s="25">
         <v>301</v>
@@ -22940,7 +22940,7 @@
         <v>0.63074165000000004</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J315" s="14">
         <v>-5.0739513E-2</v>
@@ -22987,7 +22987,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C316" s="25">
         <v>661</v>
@@ -23005,7 +23005,7 @@
         <v>0.63159966400000001</v>
       </c>
       <c r="I316" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J316" s="14">
         <v>0.133434095</v>
@@ -23052,7 +23052,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C317" s="25">
         <v>416</v>
@@ -23070,7 +23070,7 @@
         <v>0.63246811800000002</v>
       </c>
       <c r="I317" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J317" s="14">
         <v>-0.59730262099999998</v>
@@ -23117,7 +23117,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C318" s="25">
         <v>223</v>
@@ -23135,7 +23135,7 @@
         <v>0.63386626199999996</v>
       </c>
       <c r="I318" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J318" s="14">
         <v>6.0403954000000003E-2</v>
@@ -23178,7 +23178,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C319" s="25">
         <v>72</v>
@@ -23196,7 +23196,7 @@
         <v>0.63399296299999996</v>
       </c>
       <c r="I319" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J319" s="14"/>
       <c r="L319" s="9">
@@ -23235,7 +23235,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C320" s="25">
         <v>388</v>
@@ -23253,7 +23253,7 @@
         <v>0.63548929200000004</v>
       </c>
       <c r="I320" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J320" s="14">
         <v>1.9068953E-2</v>
@@ -23300,7 +23300,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C321" s="25">
         <v>169</v>
@@ -23318,7 +23318,7 @@
         <v>0.636434261</v>
       </c>
       <c r="I321" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J321" s="14"/>
       <c r="L321" s="9">
@@ -23359,7 +23359,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C322" s="25">
         <v>459</v>
@@ -23377,7 +23377,7 @@
         <v>0.63814166100000003</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J322" s="14">
         <v>-0.57376176199999995</v>
@@ -23422,7 +23422,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C323" s="25">
         <v>283</v>
@@ -23440,7 +23440,7 @@
         <v>0.63915876900000002</v>
       </c>
       <c r="I323" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J323" s="14"/>
       <c r="L323" s="9">
@@ -23479,7 +23479,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C324" s="25">
         <v>356</v>
@@ -23497,7 +23497,7 @@
         <v>0.64077652200000002</v>
       </c>
       <c r="I324" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J324" s="14"/>
       <c r="L324" s="9">
@@ -23536,7 +23536,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C325" s="25">
         <v>381</v>
@@ -23554,7 +23554,7 @@
         <v>0.64424494799999998</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J325" s="14">
         <v>4.8460481999999999E-2</v>
@@ -23601,7 +23601,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C326" s="25">
         <v>42</v>
@@ -23619,7 +23619,7 @@
         <v>0.64464338600000004</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J326" s="14">
         <v>-0.38363666400000002</v>
@@ -23666,7 +23666,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C327" s="25">
         <v>394</v>
@@ -23684,7 +23684,7 @@
         <v>0.64486354199999996</v>
       </c>
       <c r="I327" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J327" s="14">
         <v>0.16899619799999999</v>
@@ -23731,7 +23731,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C328" s="25">
         <v>294</v>
@@ -23749,7 +23749,7 @@
         <v>0.645434701</v>
       </c>
       <c r="I328" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J328" s="14">
         <v>9.5710448000000004E-2</v>
@@ -23794,7 +23794,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C329" s="25">
         <v>369</v>
@@ -23812,7 +23812,7 @@
         <v>0.65016774200000005</v>
       </c>
       <c r="I329" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J329" s="14">
         <v>0.119376985</v>
@@ -23857,7 +23857,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C330" s="25">
         <v>332</v>
@@ -23875,7 +23875,7 @@
         <v>0.650635564</v>
       </c>
       <c r="I330" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J330" s="14">
         <v>0.518967018</v>
@@ -23922,7 +23922,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C331" s="25">
         <v>152</v>
@@ -23940,7 +23940,7 @@
         <v>0.65207390600000004</v>
       </c>
       <c r="I331" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J331" s="14">
         <v>9.9116212999999995E-2</v>
@@ -23987,7 +23987,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C332" s="25">
         <v>266</v>
@@ -24005,7 +24005,7 @@
         <v>0.65338702299999996</v>
       </c>
       <c r="I332" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J332" s="14"/>
       <c r="L332" s="9">
@@ -24046,7 +24046,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C333" s="25">
         <v>378</v>
@@ -24064,7 +24064,7 @@
         <v>0.65390852899999996</v>
       </c>
       <c r="I333" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J333" s="14">
         <v>0.14191902200000001</v>
@@ -24111,7 +24111,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C334" s="25">
         <v>309</v>
@@ -24129,7 +24129,7 @@
         <v>0.65466900900000002</v>
       </c>
       <c r="I334" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J334" s="14">
         <v>8.4458378000000001E-2</v>
@@ -24176,7 +24176,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C335" s="25">
         <v>264</v>
@@ -24194,7 +24194,7 @@
         <v>0.65538058099999996</v>
       </c>
       <c r="I335" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J335" s="14"/>
       <c r="L335" s="9">
@@ -24235,7 +24235,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C336" s="25">
         <v>26</v>
@@ -24253,7 +24253,7 @@
         <v>0.65608840899999998</v>
       </c>
       <c r="I336" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J336" s="14">
         <v>0.30819586199999999</v>
@@ -24300,7 +24300,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C337" s="25">
         <v>286</v>
@@ -24318,7 +24318,7 @@
         <v>0.66107707699999996</v>
       </c>
       <c r="I337" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J337" s="14">
         <v>0.149933277</v>
@@ -24365,7 +24365,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C338" s="25">
         <v>118</v>
@@ -24383,7 +24383,7 @@
         <v>0.66154680899999996</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J338" s="14">
         <v>1.760529945</v>
@@ -24430,7 +24430,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="25">
         <v>182</v>
@@ -24448,7 +24448,7 @@
         <v>0.66238867599999995</v>
       </c>
       <c r="I339" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J339" s="14">
         <v>-0.34840850099999998</v>
@@ -24495,7 +24495,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C340" s="25">
         <v>99</v>
@@ -24513,7 +24513,7 @@
         <v>0.66350981799999997</v>
       </c>
       <c r="I340" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J340" s="14">
         <v>0.235720228</v>
@@ -24560,7 +24560,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C341" s="25">
         <v>148</v>
@@ -24578,7 +24578,7 @@
         <v>0.66439404300000005</v>
       </c>
       <c r="I341" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J341" s="14">
         <v>0.101275956</v>
@@ -24625,7 +24625,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C342" s="25">
         <v>328</v>
@@ -24643,7 +24643,7 @@
         <v>0.66629505200000005</v>
       </c>
       <c r="I342" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J342" s="14">
         <v>0.15032689799999999</v>
@@ -24688,7 +24688,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C343" s="25">
         <v>238</v>
@@ -24706,7 +24706,7 @@
         <v>0.66763155699999999</v>
       </c>
       <c r="I343" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J343" s="14">
         <v>0.125559219</v>
@@ -24753,7 +24753,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C344" s="25">
         <v>66</v>
@@ -24771,7 +24771,7 @@
         <v>0.66817302899999997</v>
       </c>
       <c r="I344" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J344" s="14">
         <v>-0.34369928</v>
@@ -24818,7 +24818,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C345" s="25">
         <v>192</v>
@@ -24836,7 +24836,7 @@
         <v>0.66827466300000005</v>
       </c>
       <c r="I345" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J345" s="14">
         <v>-9.5073515999999997E-2</v>
@@ -24881,7 +24881,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C346" s="25">
         <v>674</v>
@@ -24899,7 +24899,7 @@
         <v>0.67102656599999999</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J346" s="14">
         <v>-9.4284581000000006E-2</v>
@@ -24944,7 +24944,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C347" s="25">
         <v>734</v>
@@ -24962,7 +24962,7 @@
         <v>0.67110313899999996</v>
       </c>
       <c r="I347" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J347" s="14">
         <v>-0.245724527</v>
@@ -25009,7 +25009,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C348" s="25">
         <v>2</v>
@@ -25027,7 +25027,7 @@
         <v>0.67329015199999998</v>
       </c>
       <c r="I348" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J348" s="14">
         <v>-0.129013873</v>
@@ -25070,7 +25070,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C349" s="25">
         <v>44</v>
@@ -25088,7 +25088,7 @@
         <v>0.67343974399999995</v>
       </c>
       <c r="I349" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J349" s="14">
         <v>2.6449596999999998E-2</v>
@@ -25135,7 +25135,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C350" s="25">
         <v>709</v>
@@ -25153,7 +25153,7 @@
         <v>0.67362848399999997</v>
       </c>
       <c r="I350" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J350" s="14">
         <v>0.24633287100000001</v>
@@ -25200,7 +25200,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C351" s="25">
         <v>49</v>
@@ -25218,7 +25218,7 @@
         <v>0.67589132399999996</v>
       </c>
       <c r="I351" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J351" s="14">
         <v>-0.16311874600000001</v>
@@ -25265,7 +25265,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C352" s="25">
         <v>367</v>
@@ -25283,7 +25283,7 @@
         <v>0.67981702399999999</v>
       </c>
       <c r="I352" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J352" s="14">
         <v>-0.16785496899999999</v>
@@ -25328,7 +25328,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C353" s="25">
         <v>147</v>
@@ -25346,7 +25346,7 @@
         <v>0.68066545499999997</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J353" s="14">
         <v>-0.286940737</v>
@@ -25393,7 +25393,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C354" s="25">
         <v>77</v>
@@ -25411,7 +25411,7 @@
         <v>0.68720029299999996</v>
       </c>
       <c r="I354" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J354" s="14">
         <v>-4.6212214000000001E-2</v>
@@ -25458,7 +25458,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C355" s="25">
         <v>341</v>
@@ -25476,7 +25476,7 @@
         <v>0.68906860199999997</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J355" s="14">
         <v>-0.11469726299999999</v>
@@ -25519,7 +25519,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C356" s="25">
         <v>58</v>
@@ -25537,7 +25537,7 @@
         <v>0.69040020400000002</v>
       </c>
       <c r="I356" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J356" s="14"/>
       <c r="L356" s="9">
@@ -25578,7 +25578,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C357" s="25">
         <v>217</v>
@@ -25596,7 +25596,7 @@
         <v>0.69067890300000001</v>
       </c>
       <c r="I357" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J357" s="14">
         <v>-1.6939092979999999</v>
@@ -25643,7 +25643,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C358" s="25">
         <v>335</v>
@@ -25661,7 +25661,7 @@
         <v>0.69110507499999996</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J358" s="14"/>
       <c r="L358" s="9">
@@ -25702,7 +25702,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C359" s="25">
         <v>93</v>
@@ -25720,7 +25720,7 @@
         <v>0.69223410799999996</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J359" s="14">
         <v>0.178676003</v>
@@ -25767,7 +25767,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C360" s="25">
         <v>220</v>
@@ -25785,7 +25785,7 @@
         <v>0.69290289100000002</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J360" s="14">
         <v>-3.9417970000000004E-3</v>
@@ -25832,7 +25832,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C361" s="25">
         <v>649</v>
@@ -25850,7 +25850,7 @@
         <v>0.69361673899999998</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J361" s="14">
         <v>0.10731634499999999</v>
@@ -25897,7 +25897,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C362" s="25">
         <v>211</v>
@@ -25915,7 +25915,7 @@
         <v>0.694310659</v>
       </c>
       <c r="I362" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J362" s="14">
         <v>0.40501753800000001</v>
@@ -25958,7 +25958,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C363" s="25">
         <v>125</v>
@@ -25976,7 +25976,7 @@
         <v>0.69598226600000002</v>
       </c>
       <c r="I363" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J363" s="14">
         <v>-0.17124951799999999</v>
@@ -26023,7 +26023,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C364" s="25">
         <v>673</v>
@@ -26041,7 +26041,7 @@
         <v>0.69809412800000004</v>
       </c>
       <c r="I364" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J364" s="14">
         <v>0.67513584000000004</v>
@@ -26088,7 +26088,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C365" s="25">
         <v>513</v>
@@ -26106,7 +26106,7 @@
         <v>0.69931576900000003</v>
       </c>
       <c r="I365" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J365" s="14">
         <v>0.298928533</v>
@@ -26151,7 +26151,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C366" s="25">
         <v>41</v>
@@ -26169,7 +26169,7 @@
         <v>0.69968696399999997</v>
       </c>
       <c r="I366" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J366" s="14">
         <v>-0.10966851800000001</v>
@@ -26214,7 +26214,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C367" s="25">
         <v>665</v>
@@ -26232,7 +26232,7 @@
         <v>0.700026382</v>
       </c>
       <c r="I367" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J367" s="14">
         <v>-0.325730144</v>
@@ -26277,7 +26277,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C368" s="25">
         <v>648</v>
@@ -26295,7 +26295,7 @@
         <v>0.70191557699999996</v>
       </c>
       <c r="I368" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J368" s="14">
         <v>0.79708202900000003</v>
@@ -26342,7 +26342,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C369" s="25">
         <v>413</v>
@@ -26360,7 +26360,7 @@
         <v>0.70314316499999996</v>
       </c>
       <c r="I369" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J369" s="14">
         <v>0.71332074700000003</v>
@@ -26407,7 +26407,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C370" s="25">
         <v>352</v>
@@ -26425,7 +26425,7 @@
         <v>0.703811097</v>
       </c>
       <c r="I370" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J370" s="14">
         <v>-0.13590512799999999</v>
@@ -26470,7 +26470,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C371" s="25">
         <v>663</v>
@@ -26488,7 +26488,7 @@
         <v>0.70469647599999996</v>
       </c>
       <c r="I371" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J371" s="14">
         <v>0.115376651</v>
@@ -26535,7 +26535,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C372" s="25">
         <v>311</v>
@@ -26553,7 +26553,7 @@
         <v>0.707527295</v>
       </c>
       <c r="I372" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J372" s="14">
         <v>1.6774476E-2</v>
@@ -26600,7 +26600,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C373" s="25">
         <v>142</v>
@@ -26618,7 +26618,7 @@
         <v>0.70818236599999995</v>
       </c>
       <c r="I373" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J373" s="14">
         <v>7.4117451000000001E-2</v>
@@ -26665,7 +26665,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C374" s="25">
         <v>163</v>
@@ -26683,7 +26683,7 @@
         <v>0.70825955799999996</v>
       </c>
       <c r="I374" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J374" s="14">
         <v>-0.87586711100000003</v>
@@ -26730,7 +26730,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C375" s="25">
         <v>365</v>
@@ -26748,7 +26748,7 @@
         <v>0.70836099299999999</v>
       </c>
       <c r="I375" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J375" s="14">
         <v>0.60960204399999995</v>
@@ -26795,7 +26795,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C376" s="25">
         <v>562</v>
@@ -26813,7 +26813,7 @@
         <v>0.71256869899999997</v>
       </c>
       <c r="I376" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J376" s="14">
         <v>1.9942162459999999</v>
@@ -26860,7 +26860,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C377" s="25">
         <v>241</v>
@@ -26878,7 +26878,7 @@
         <v>0.71321815700000002</v>
       </c>
       <c r="I377" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J377" s="14">
         <v>-0.22260376900000001</v>
@@ -26925,7 +26925,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C378" s="25">
         <v>359</v>
@@ -26943,7 +26943,7 @@
         <v>0.71433122699999996</v>
       </c>
       <c r="I378" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J378" s="14">
         <v>0.17942453799999999</v>
@@ -26988,7 +26988,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C379" s="25">
         <v>216</v>
@@ -27006,7 +27006,7 @@
         <v>0.71478043700000005</v>
       </c>
       <c r="I379" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J379" s="14">
         <v>1.7972047310000001</v>
@@ -27053,7 +27053,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C380" s="25">
         <v>392</v>
@@ -27071,7 +27071,7 @@
         <v>0.714885828</v>
       </c>
       <c r="I380" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J380" s="14">
         <v>-0.17529750999999999</v>
@@ -27116,7 +27116,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C381" s="25">
         <v>111</v>
@@ -27134,7 +27134,7 @@
         <v>0.71732016899999995</v>
       </c>
       <c r="I381" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J381" s="14">
         <v>0.483291162</v>
@@ -27179,7 +27179,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C382" s="25">
         <v>16</v>
@@ -27197,7 +27197,7 @@
         <v>0.71910943699999996</v>
       </c>
       <c r="I382" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J382" s="14">
         <v>-0.17557407899999999</v>
@@ -27240,7 +27240,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C383" s="25">
         <v>23</v>
@@ -27258,7 +27258,7 @@
         <v>0.71961618199999999</v>
       </c>
       <c r="I383" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J383" s="14">
         <v>0.26404955299999999</v>
@@ -27305,7 +27305,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C384" s="25">
         <v>191</v>
@@ -27323,7 +27323,7 @@
         <v>0.72203978000000002</v>
       </c>
       <c r="I384" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J384" s="14">
         <v>0.14411611699999999</v>
@@ -27368,7 +27368,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C385" s="25">
         <v>389</v>
@@ -27386,7 +27386,7 @@
         <v>0.72216695900000005</v>
       </c>
       <c r="I385" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J385" s="14">
         <v>1.2106674799999999</v>
@@ -27433,7 +27433,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C386" s="25">
         <v>21</v>
@@ -27451,7 +27451,7 @@
         <v>0.72220318500000003</v>
       </c>
       <c r="I386" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J386" s="14">
         <v>0.28521110900000002</v>
@@ -27498,7 +27498,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C387" s="25">
         <v>229</v>
@@ -27516,7 +27516,7 @@
         <v>0.72287164400000004</v>
       </c>
       <c r="I387" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J387" s="14"/>
       <c r="L387" s="9">
@@ -27557,7 +27557,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C388" s="25">
         <v>55</v>
@@ -27575,7 +27575,7 @@
         <v>0.72294946000000004</v>
       </c>
       <c r="I388" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J388" s="14">
         <v>-1.7280231859999999</v>
@@ -27622,7 +27622,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C389" s="25">
         <v>100</v>
@@ -27640,7 +27640,7 @@
         <v>0.72584128599999997</v>
       </c>
       <c r="I389" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J389" s="14">
         <v>0.210164819</v>
@@ -27687,7 +27687,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C390" s="25">
         <v>296</v>
@@ -27705,7 +27705,7 @@
         <v>0.72790523699999998</v>
       </c>
       <c r="I390" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J390" s="14">
         <v>-0.14444907900000001</v>
@@ -27752,7 +27752,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C391" s="25">
         <v>588</v>
@@ -27770,7 +27770,7 @@
         <v>0.72886712099999995</v>
       </c>
       <c r="I391" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J391" s="14">
         <v>0.69416267300000001</v>
@@ -27815,7 +27815,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C392" s="25">
         <v>6</v>
@@ -27833,7 +27833,7 @@
         <v>0.72988213899999999</v>
       </c>
       <c r="I392" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J392" s="14">
         <v>0.144253733</v>
@@ -27878,7 +27878,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C393" s="25">
         <v>25</v>
@@ -27896,7 +27896,7 @@
         <v>0.73496403200000004</v>
       </c>
       <c r="I393" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J393" s="14">
         <v>-0.85120354499999995</v>
@@ -27943,7 +27943,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C394" s="25">
         <v>1</v>
@@ -27961,7 +27961,7 @@
         <v>0.73500358899999996</v>
       </c>
       <c r="I394" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J394" s="14">
         <v>0.46029686800000003</v>
@@ -28008,7 +28008,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C395" s="25">
         <v>293</v>
@@ -28026,7 +28026,7 @@
         <v>0.74028422400000005</v>
       </c>
       <c r="I395" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J395" s="14"/>
       <c r="L395" s="9">
@@ -28067,7 +28067,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C396" s="25">
         <v>307</v>
@@ -28085,7 +28085,7 @@
         <v>0.74254732899999998</v>
       </c>
       <c r="I396" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J396" s="14">
         <v>-0.35926387799999998</v>
@@ -28132,7 +28132,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C397" s="25">
         <v>393</v>
@@ -28150,7 +28150,7 @@
         <v>0.74298080899999996</v>
       </c>
       <c r="I397" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J397" s="14">
         <v>-0.73355033599999997</v>
@@ -28197,7 +28197,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C398" s="25">
         <v>248</v>
@@ -28215,7 +28215,7 @@
         <v>0.74685648900000001</v>
       </c>
       <c r="I398" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J398" s="14">
         <v>-3.6898774000000002E-2</v>
@@ -28262,7 +28262,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C399" s="25">
         <v>136</v>
@@ -28280,7 +28280,7 @@
         <v>0.74693805599999996</v>
       </c>
       <c r="I399" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J399" s="14">
         <v>0.84352504800000006</v>
@@ -28327,7 +28327,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C400" s="25">
         <v>640</v>
@@ -28345,7 +28345,7 @@
         <v>0.74729010299999998</v>
       </c>
       <c r="I400" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J400" s="14">
         <v>0.20436773</v>
@@ -28392,7 +28392,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C401" s="25">
         <v>158</v>
@@ -28410,7 +28410,7 @@
         <v>0.75070911500000004</v>
       </c>
       <c r="I401" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J401" s="14">
         <v>-0.19543749999999999</v>
@@ -28457,7 +28457,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C402" s="25">
         <v>730</v>
@@ -28475,7 +28475,7 @@
         <v>0.75210403699999995</v>
       </c>
       <c r="I402" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J402" s="14">
         <v>1.0408094409999999</v>
@@ -28520,7 +28520,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C403" s="25">
         <v>85</v>
@@ -28538,7 +28538,7 @@
         <v>0.75247739899999999</v>
       </c>
       <c r="I403" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J403" s="14">
         <v>0.79018672999999995</v>
@@ -28585,7 +28585,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C404" s="25">
         <v>59</v>
@@ -28603,7 +28603,7 @@
         <v>0.75262318699999997</v>
       </c>
       <c r="I404" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J404" s="14">
         <v>0.266938599</v>
@@ -28650,7 +28650,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C405" s="25">
         <v>141</v>
@@ -28668,7 +28668,7 @@
         <v>0.75294282599999995</v>
       </c>
       <c r="I405" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J405" s="14">
         <v>-0.63046155000000004</v>
@@ -28715,7 +28715,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C406" s="25">
         <v>490</v>
@@ -28733,7 +28733,7 @@
         <v>0.75322045999999998</v>
       </c>
       <c r="I406" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J406" s="14">
         <v>0.858529655</v>
@@ -28780,7 +28780,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C407" s="25">
         <v>75</v>
@@ -28798,7 +28798,7 @@
         <v>0.75401372600000005</v>
       </c>
       <c r="I407" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J407" s="14">
         <v>-0.237829609</v>
@@ -28845,7 +28845,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C408" s="25">
         <v>120</v>
@@ -28863,7 +28863,7 @@
         <v>0.76083666299999997</v>
       </c>
       <c r="I408" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J408" s="14">
         <v>-0.29752416399999998</v>
@@ -28908,7 +28908,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C409" s="25">
         <v>545</v>
@@ -28926,7 +28926,7 @@
         <v>0.763531768</v>
       </c>
       <c r="I409" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J409" s="14"/>
       <c r="L409" s="9">
@@ -28965,7 +28965,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C410" s="25">
         <v>226</v>
@@ -28983,7 +28983,7 @@
         <v>0.76531818900000004</v>
       </c>
       <c r="I410" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J410" s="14">
         <v>-0.16480999599999999</v>
@@ -29030,7 +29030,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C411" s="25">
         <v>631</v>
@@ -29048,7 +29048,7 @@
         <v>0.76593666599999999</v>
       </c>
       <c r="I411" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J411" s="14">
         <v>0.34578700699999998</v>
@@ -29095,7 +29095,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C412" s="25">
         <v>276</v>
@@ -29113,7 +29113,7 @@
         <v>0.77205228599999998</v>
       </c>
       <c r="I412" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J412" s="14">
         <v>0.239013701</v>
@@ -29158,7 +29158,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C413" s="25">
         <v>130</v>
@@ -29176,7 +29176,7 @@
         <v>0.77334661900000001</v>
       </c>
       <c r="I413" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J413" s="14">
         <v>1.2442537279999999</v>
@@ -29223,7 +29223,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C414" s="25">
         <v>501</v>
@@ -29241,7 +29241,7 @@
         <v>0.77374992799999998</v>
       </c>
       <c r="I414" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J414" s="14">
         <v>0.36068505899999997</v>
@@ -29288,7 +29288,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C415" s="25">
         <v>629</v>
@@ -29306,7 +29306,7 @@
         <v>0.77404353599999998</v>
       </c>
       <c r="I415" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J415" s="14">
         <v>-0.49556932199999998</v>
@@ -29353,7 +29353,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C416" s="25">
         <v>9</v>
@@ -29371,7 +29371,7 @@
         <v>0.77492940899999996</v>
       </c>
       <c r="I416" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J416" s="14">
         <v>7.3533076000000003E-2</v>
@@ -29418,7 +29418,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C417" s="25">
         <v>176</v>
@@ -29436,7 +29436,7 @@
         <v>0.77513863900000002</v>
       </c>
       <c r="I417" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J417" s="14">
         <v>0.42171708000000002</v>
@@ -29483,7 +29483,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C418" s="25">
         <v>664</v>
@@ -29501,7 +29501,7 @@
         <v>0.77592348300000002</v>
       </c>
       <c r="I418" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J418" s="14">
         <v>0.224341349</v>
@@ -29546,7 +29546,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C419" s="25">
         <v>167</v>
@@ -29564,7 +29564,7 @@
         <v>0.77895567499999996</v>
       </c>
       <c r="I419" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J419" s="14">
         <v>0.23616263100000001</v>
@@ -29609,7 +29609,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C420" s="25">
         <v>298</v>
@@ -29627,7 +29627,7 @@
         <v>0.78436793699999996</v>
       </c>
       <c r="I420" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J420" s="14">
         <v>0.33842907799999999</v>
@@ -29674,7 +29674,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C421" s="25">
         <v>580</v>
@@ -29692,7 +29692,7 @@
         <v>0.78517300300000004</v>
       </c>
       <c r="I421" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J421" s="14">
         <v>0.45033258999999998</v>
@@ -29737,7 +29737,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C422" s="25">
         <v>344</v>
@@ -29755,7 +29755,7 @@
         <v>0.78623894100000002</v>
       </c>
       <c r="I422" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J422" s="14">
         <v>-0.30443777700000002</v>
@@ -29802,7 +29802,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C423" s="25">
         <v>237</v>
@@ -29820,7 +29820,7 @@
         <v>0.78843299</v>
       </c>
       <c r="I423" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J423" s="14">
         <v>0.30339343899999999</v>
@@ -29867,7 +29867,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C424" s="25">
         <v>732</v>
@@ -29885,7 +29885,7 @@
         <v>0.78891367199999995</v>
       </c>
       <c r="I424" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J424" s="14">
         <v>-1.5307719420000001</v>
@@ -29932,7 +29932,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C425" s="25">
         <v>232</v>
@@ -29950,7 +29950,7 @@
         <v>0.78899304800000003</v>
       </c>
       <c r="I425" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J425" s="14">
         <v>0.77215890799999998</v>
@@ -29997,7 +29997,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C426" s="25">
         <v>396</v>
@@ -30015,7 +30015,7 @@
         <v>0.78899573999999995</v>
       </c>
       <c r="I426" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J426" s="14">
         <v>-2.4390263989999998</v>
@@ -30062,7 +30062,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C427" s="25">
         <v>516</v>
@@ -30080,7 +30080,7 @@
         <v>0.79282419299999995</v>
       </c>
       <c r="I427" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J427" s="14">
         <v>1.1843387620000001</v>
@@ -30127,7 +30127,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C428" s="25">
         <v>686</v>
@@ -30145,7 +30145,7 @@
         <v>0.79810802999999997</v>
       </c>
       <c r="I428" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J428" s="14">
         <v>0.45259375299999999</v>
@@ -30190,7 +30190,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C429" s="25">
         <v>297</v>
@@ -30208,7 +30208,7 @@
         <v>0.798818735</v>
       </c>
       <c r="I429" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J429" s="14">
         <v>2.4818618149999998</v>
@@ -30255,7 +30255,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C430" s="25">
         <v>564</v>
@@ -30273,7 +30273,7 @@
         <v>0.79911007000000001</v>
       </c>
       <c r="I430" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J430" s="14">
         <v>0.56298754299999998</v>
@@ -30318,7 +30318,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C431" s="25">
         <v>273</v>
@@ -30336,7 +30336,7 @@
         <v>0.80117251199999995</v>
       </c>
       <c r="I431" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J431" s="14">
         <v>0.29100309499999999</v>
@@ -30383,7 +30383,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C432" s="25">
         <v>137</v>
@@ -30401,7 +30401,7 @@
         <v>0.80143844799999997</v>
       </c>
       <c r="I432" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J432" s="14">
         <v>0.33134169400000002</v>
@@ -30448,7 +30448,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C433" s="25">
         <v>74</v>
@@ -30466,7 +30466,7 @@
         <v>0.80457747400000001</v>
       </c>
       <c r="I433" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J433" s="14">
         <v>0.33219479499999999</v>
@@ -30511,7 +30511,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C434" s="25">
         <v>140</v>
@@ -30529,7 +30529,7 @@
         <v>0.80590751500000002</v>
       </c>
       <c r="I434" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J434" s="14">
         <v>-0.15858975</v>
@@ -30576,7 +30576,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C435" s="25">
         <v>373</v>
@@ -30594,7 +30594,7 @@
         <v>0.81006022600000005</v>
       </c>
       <c r="I435" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J435" s="14">
         <v>-0.34878550600000002</v>
@@ -30639,7 +30639,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C436" s="25">
         <v>703</v>
@@ -30657,7 +30657,7 @@
         <v>0.81265227600000001</v>
       </c>
       <c r="I436" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J436" s="14">
         <v>-0.33266047399999998</v>
@@ -30704,7 +30704,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C437" s="25">
         <v>415</v>
@@ -30722,7 +30722,7 @@
         <v>0.823329694</v>
       </c>
       <c r="I437" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J437" s="14">
         <v>0.388757507</v>
@@ -30767,7 +30767,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C438" s="25">
         <v>121</v>
@@ -30785,7 +30785,7 @@
         <v>0.82412565999999998</v>
       </c>
       <c r="I438" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J438" s="14">
         <v>-0.57408764800000001</v>
@@ -30832,7 +30832,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C439" s="25">
         <v>15</v>
@@ -30850,7 +30850,7 @@
         <v>0.828249334</v>
       </c>
       <c r="I439" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J439" s="14">
         <v>0.48757137</v>
@@ -30897,7 +30897,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C440" s="25">
         <v>630</v>
@@ -30915,7 +30915,7 @@
         <v>0.83296331300000004</v>
       </c>
       <c r="I440" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J440" s="14">
         <v>0.58490285099999995</v>
@@ -30962,7 +30962,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C441" s="25">
         <v>699</v>
@@ -30980,7 +30980,7 @@
         <v>0.83299022199999995</v>
       </c>
       <c r="I441" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J441" s="14">
         <v>-0.98910949699999995</v>
@@ -31027,7 +31027,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C442" s="25">
         <v>138</v>
@@ -31045,7 +31045,7 @@
         <v>0.83460726200000002</v>
       </c>
       <c r="I442" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J442" s="14">
         <v>1.957852003</v>
@@ -31090,7 +31090,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C443" s="25">
         <v>458</v>
@@ -31108,7 +31108,7 @@
         <v>0.83684326200000003</v>
       </c>
       <c r="I443" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J443" s="14">
         <v>0.26687259299999999</v>
@@ -31155,7 +31155,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C444" s="25">
         <v>619</v>
@@ -31173,7 +31173,7 @@
         <v>0.83775213599999998</v>
       </c>
       <c r="I444" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J444" s="14">
         <v>0.66125731700000001</v>
@@ -31220,7 +31220,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C445" s="25">
         <v>559</v>
@@ -31238,7 +31238,7 @@
         <v>0.84229321599999996</v>
       </c>
       <c r="I445" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J445" s="14">
         <v>0.635706887</v>
@@ -31285,7 +31285,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C446" s="25">
         <v>295</v>
@@ -31303,7 +31303,7 @@
         <v>0.84275061500000004</v>
       </c>
       <c r="I446" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J446" s="14">
         <v>0.36579989699999998</v>
@@ -31350,7 +31350,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C447" s="25">
         <v>593</v>
@@ -31368,7 +31368,7 @@
         <v>0.84343914099999995</v>
       </c>
       <c r="I447" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J447" s="14">
         <v>1.777782381</v>
@@ -31413,7 +31413,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C448" s="25">
         <v>56</v>
@@ -31431,7 +31431,7 @@
         <v>0.84583719599999996</v>
       </c>
       <c r="I448" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J448" s="14">
         <v>8.2108595000000006E-2</v>
@@ -31478,7 +31478,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C449" s="25">
         <v>110</v>
@@ -31496,7 +31496,7 @@
         <v>0.85082729800000001</v>
       </c>
       <c r="I449" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J449" s="14"/>
       <c r="L449" s="9">
@@ -31535,7 +31535,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C450" s="25">
         <v>456</v>
@@ -31553,7 +31553,7 @@
         <v>0.85605386299999997</v>
       </c>
       <c r="I450" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J450" s="14">
         <v>0.75947368000000004</v>
@@ -31598,7 +31598,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C451" s="25">
         <v>553</v>
@@ -31616,7 +31616,7 @@
         <v>0.86180684200000002</v>
       </c>
       <c r="I451" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J451" s="14"/>
       <c r="L451" s="9">
@@ -31657,7 +31657,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C452" s="25">
         <v>621</v>
@@ -31675,7 +31675,7 @@
         <v>0.86325239799999998</v>
       </c>
       <c r="I452" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J452" s="14">
         <v>0.43748110600000001</v>
@@ -31722,7 +31722,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C453" s="25">
         <v>610</v>
@@ -31740,7 +31740,7 @@
         <v>0.87302323599999998</v>
       </c>
       <c r="I453" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J453" s="14">
         <v>0.82424176699999996</v>
@@ -31787,7 +31787,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C454" s="25">
         <v>292</v>
@@ -31805,7 +31805,7 @@
         <v>0.87395242200000001</v>
       </c>
       <c r="I454" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J454" s="31">
         <v>0.62551468899999996</v>
@@ -31855,7 +31855,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C455" s="25">
         <v>525</v>
@@ -31873,7 +31873,7 @@
         <v>0.88528954999999998</v>
       </c>
       <c r="I455" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J455" s="31">
         <v>-0.45429980399999997</v>
@@ -31919,7 +31919,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C456" s="25">
         <v>171</v>
@@ -31937,7 +31937,7 @@
         <v>0.90934646500000005</v>
       </c>
       <c r="I456" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J456" s="31">
         <v>1.4049442270000001</v>
@@ -31987,7 +31987,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C457" s="25">
         <v>656</v>
@@ -32005,7 +32005,7 @@
         <v>0.91071222399999996</v>
       </c>
       <c r="I457" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J457" s="31">
         <v>0.41752457900000001</v>
@@ -32051,7 +32051,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C458" s="25">
         <v>379</v>
@@ -32069,7 +32069,7 @@
         <v>0.91073872899999997</v>
       </c>
       <c r="I458" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J458" s="31">
         <v>0.79357670000000002</v>
@@ -32119,7 +32119,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C459" s="25">
         <v>185</v>
@@ -32137,7 +32137,7 @@
         <v>0.91119261900000004</v>
       </c>
       <c r="I459" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J459" s="31">
         <v>-0.49401319500000002</v>
@@ -32187,7 +32187,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C460" s="25">
         <v>300</v>
@@ -32205,7 +32205,7 @@
         <v>0.92210584600000001</v>
       </c>
       <c r="I460" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J460" s="31"/>
       <c r="L460" s="32">
@@ -32249,7 +32249,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C461" s="25">
         <v>210</v>
@@ -32267,7 +32267,7 @@
         <v>0.93286819499999996</v>
       </c>
       <c r="I461" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J461" s="31">
         <v>-0.54696340099999996</v>
@@ -32317,7 +32317,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C462" s="25">
         <v>131</v>
@@ -32335,7 +32335,7 @@
         <v>0.93446281399999997</v>
       </c>
       <c r="I462" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J462" s="31">
         <v>-0.71607587100000003</v>
@@ -32385,7 +32385,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C463" s="25">
         <v>454</v>
@@ -32403,7 +32403,7 @@
         <v>0.94174867200000001</v>
       </c>
       <c r="I463" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J463" s="31">
         <v>1.2138403090000001</v>
@@ -32453,7 +32453,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C464" s="25">
         <v>199</v>
@@ -32471,7 +32471,7 @@
         <v>0.94891894399999999</v>
       </c>
       <c r="I464" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J464" s="31">
         <v>-0.45789237500000002</v>
@@ -32517,7 +32517,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C465" s="25">
         <v>193</v>
@@ -32535,7 +32535,7 @@
         <v>0.95733748100000005</v>
       </c>
       <c r="I465" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J465" s="31">
         <v>0.28459616999999998</v>
@@ -32585,7 +32585,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C466" s="25">
         <v>128</v>
@@ -32603,7 +32603,7 @@
         <v>0.96281445300000001</v>
       </c>
       <c r="I466" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J466" s="31">
         <v>0.82201270299999996</v>
@@ -32653,7 +32653,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C467" s="25">
         <v>353</v>
@@ -32671,7 +32671,7 @@
         <v>0.981862754</v>
       </c>
       <c r="I467" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J467" s="31">
         <v>-0.27917304999999998</v>
@@ -32721,7 +32721,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C468" s="25">
         <v>527</v>
@@ -32739,7 +32739,7 @@
         <v>0.98558434699999997</v>
       </c>
       <c r="I468" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J468" s="31">
         <v>-0.122025394</v>
@@ -32787,7 +32787,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C469" s="25">
         <v>308</v>
@@ -32805,7 +32805,7 @@
         <v>0.98665344799999999</v>
       </c>
       <c r="I469" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J469" s="31">
         <v>2.8857234410000001</v>
@@ -32855,7 +32855,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C470" s="25">
         <v>324</v>
@@ -32873,7 +32873,7 @@
         <v>0.98786268399999999</v>
       </c>
       <c r="I470" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J470" s="31">
         <v>4.6939022860000001</v>
@@ -32923,7 +32923,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C471" s="25">
         <v>269</v>
@@ -32941,7 +32941,7 @@
         <v>0.98929272999999995</v>
       </c>
       <c r="I471" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J471" s="31">
         <v>1.6986073180000001</v>
@@ -32991,7 +32991,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C472" s="25">
         <v>616</v>
@@ -33009,7 +33009,7 @@
         <v>0.99893993000000003</v>
       </c>
       <c r="I472" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J472" s="31">
         <v>2.575309394</v>
@@ -33059,7 +33059,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C473" s="25">
         <v>474</v>
@@ -33077,7 +33077,7 @@
         <v>1.011293344</v>
       </c>
       <c r="I473" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J473" s="31">
         <v>0.65411201600000002</v>
@@ -33127,7 +33127,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C474" s="25">
         <v>585</v>
@@ -33145,7 +33145,7 @@
         <v>1.014748991</v>
       </c>
       <c r="I474" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J474" s="31">
         <v>0.93072781999999998</v>
@@ -33195,7 +33195,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C475" s="25">
         <v>632</v>
@@ -33213,7 +33213,7 @@
         <v>1.042851092</v>
       </c>
       <c r="I475" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J475" s="31">
         <v>0.95867075099999999</v>
@@ -33263,7 +33263,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C476" s="25">
         <v>61</v>
@@ -33281,7 +33281,7 @@
         <v>1.0439279480000001</v>
       </c>
       <c r="I476" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J476" s="31">
         <v>0.66509173300000002</v>
@@ -33329,7 +33329,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C477" s="25">
         <v>64</v>
@@ -33347,7 +33347,7 @@
         <v>1.0461666540000001</v>
       </c>
       <c r="I477" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J477" s="31">
         <v>0.106111806</v>
@@ -33397,7 +33397,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C478" s="25">
         <v>194</v>
@@ -33415,7 +33415,7 @@
         <v>1.049072564</v>
       </c>
       <c r="I478" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J478" s="31">
         <v>0.30234165800000001</v>
@@ -33465,7 +33465,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C479" s="25">
         <v>268</v>
@@ -33483,7 +33483,7 @@
         <v>1.0514663200000001</v>
       </c>
       <c r="I479" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J479" s="31">
         <v>7.4703730999999995E-2</v>
@@ -33533,7 +33533,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C480" s="25">
         <v>214</v>
@@ -33551,7 +33551,7 @@
         <v>1.0583027599999999</v>
       </c>
       <c r="I480" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J480" s="31">
         <v>0.32010013500000001</v>
@@ -33599,7 +33599,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C481" s="25">
         <v>543</v>
@@ -33617,7 +33617,7 @@
         <v>1.0635380109999999</v>
       </c>
       <c r="I481" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J481" s="31">
         <v>3.9345855200000002</v>
@@ -33667,7 +33667,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C482" s="25">
         <v>312</v>
@@ -33685,7 +33685,7 @@
         <v>1.0925133789999999</v>
       </c>
       <c r="I482" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J482" s="31">
         <v>1.684019237</v>
@@ -33735,7 +33735,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C483" s="25">
         <v>331</v>
@@ -33753,7 +33753,7 @@
         <v>1.0932134549999999</v>
       </c>
       <c r="I483" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J483" s="31"/>
       <c r="L483" s="32">
@@ -33795,7 +33795,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C484" s="25">
         <v>401</v>
@@ -33813,7 +33813,7 @@
         <v>1.1222307540000001</v>
       </c>
       <c r="I484" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J484" s="31">
         <v>1.462218241</v>
@@ -33863,7 +33863,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C485" s="25">
         <v>423</v>
@@ -33881,7 +33881,7 @@
         <v>1.1239026969999999</v>
       </c>
       <c r="I485" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J485" s="31">
         <v>1.1907816369999999</v>
@@ -33931,7 +33931,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C486" s="25">
         <v>207</v>
@@ -33949,7 +33949,7 @@
         <v>1.140888935</v>
       </c>
       <c r="I486" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J486" s="31">
         <v>-3.0300117759999998</v>
@@ -33999,7 +33999,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C487" s="25">
         <v>116</v>
@@ -34017,7 +34017,7 @@
         <v>1.1428638600000001</v>
       </c>
       <c r="I487" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J487" s="31">
         <v>0.22233281899999999</v>
@@ -34067,7 +34067,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C488" s="25">
         <v>549</v>
@@ -34085,7 +34085,7 @@
         <v>1.1495471779999999</v>
       </c>
       <c r="I488" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J488" s="31"/>
       <c r="L488" s="32">
@@ -34129,7 +34129,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C489" s="25">
         <v>737</v>
@@ -34147,7 +34147,7 @@
         <v>1.1824731850000001</v>
       </c>
       <c r="I489" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J489" s="31">
         <v>0.89808373699999999</v>
@@ -34197,7 +34197,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C490" s="25">
         <v>450</v>
@@ -34215,7 +34215,7 @@
         <v>1.2026202960000001</v>
       </c>
       <c r="I490" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J490" s="31">
         <v>-1.6996604850000001</v>
@@ -34265,7 +34265,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C491" s="25">
         <v>71</v>
@@ -34283,7 +34283,7 @@
         <v>1.2036189690000001</v>
       </c>
       <c r="I491" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J491" s="31">
         <v>-0.82386197500000002</v>
@@ -34333,7 +34333,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C492" s="25">
         <v>654</v>
@@ -34351,7 +34351,7 @@
         <v>1.210615218</v>
       </c>
       <c r="I492" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J492" s="31">
         <v>-0.93531189800000003</v>
@@ -34397,7 +34397,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C493" s="25">
         <v>38</v>
@@ -34415,7 +34415,7 @@
         <v>1.2446967950000001</v>
       </c>
       <c r="I493" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L493" s="32">
         <v>1</v>
@@ -34458,7 +34458,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C494" s="25">
         <v>556</v>
@@ -34476,7 +34476,7 @@
         <v>1.263734707</v>
       </c>
       <c r="I494" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J494" s="15">
         <v>2.0714502819999998</v>
@@ -34523,7 +34523,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C495" s="25">
         <v>289</v>
@@ -34541,7 +34541,7 @@
         <v>1.267106015</v>
       </c>
       <c r="I495" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J495" s="15">
         <v>0.76483119200000005</v>
@@ -34588,7 +34588,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C496" s="25">
         <v>452</v>
@@ -34606,7 +34606,7 @@
         <v>1.269822037</v>
       </c>
       <c r="I496" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J496" s="15">
         <v>-1.1935910190000001</v>
@@ -34653,7 +34653,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C497" s="25">
         <v>143</v>
@@ -34671,7 +34671,7 @@
         <v>1.2731951290000001</v>
       </c>
       <c r="I497" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J497" s="15">
         <v>0.49042794899999997</v>
@@ -34718,7 +34718,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C498" s="25">
         <v>330</v>
@@ -34736,7 +34736,7 @@
         <v>1.317818594</v>
       </c>
       <c r="I498" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J498" s="15">
         <v>-0.55386229300000001</v>
@@ -34783,7 +34783,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C499" s="25">
         <v>299</v>
@@ -34801,7 +34801,7 @@
         <v>1.3211839569999999</v>
       </c>
       <c r="I499" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J499" s="15">
         <v>1.556520873</v>
@@ -34848,7 +34848,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C500" s="25">
         <v>715</v>
@@ -34866,7 +34866,7 @@
         <v>1.323183845</v>
       </c>
       <c r="I500" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J500" s="15">
         <v>1.7492023809999999</v>
@@ -34913,7 +34913,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C501" s="25">
         <v>550</v>
@@ -34931,7 +34931,7 @@
         <v>1.3256729169999999</v>
       </c>
       <c r="I501" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L501" s="11">
         <v>0.83333333300000001</v>
@@ -34969,7 +34969,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C502" s="25">
         <v>213</v>
@@ -34987,7 +34987,7 @@
         <v>1.330375769</v>
       </c>
       <c r="I502" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J502" s="15">
         <v>0.90980577900000004</v>
@@ -35034,7 +35034,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C503" s="25">
         <v>736</v>
@@ -35052,7 +35052,7 @@
         <v>1.3407956519999999</v>
       </c>
       <c r="I503" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L503" s="11">
         <v>0</v>
@@ -35087,7 +35087,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C504" s="25">
         <v>91</v>
@@ -35105,7 +35105,7 @@
         <v>1.3564805170000001</v>
       </c>
       <c r="I504" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J504" s="15">
         <v>2.0523887410000001</v>
@@ -35152,7 +35152,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C505" s="25">
         <v>667</v>
@@ -35170,7 +35170,7 @@
         <v>1.356529149</v>
       </c>
       <c r="I505" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J505" s="15">
         <v>2.4940225599999999</v>
@@ -35214,7 +35214,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C506" s="25">
         <v>203</v>
@@ -35232,7 +35232,7 @@
         <v>1.4327835840000001</v>
       </c>
       <c r="I506" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J506" s="15">
         <v>-1.6247242049999999</v>
@@ -35279,7 +35279,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C507" s="25">
         <v>497</v>
@@ -35297,7 +35297,7 @@
         <v>1.4944597260000001</v>
       </c>
       <c r="I507" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J507" s="15">
         <v>1.1117813409999999</v>
@@ -35344,7 +35344,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C508" s="25">
         <v>677</v>
@@ -35362,7 +35362,7 @@
         <v>1.5086590310000001</v>
       </c>
       <c r="I508" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J508" s="15">
         <v>1.5944081299999999</v>
@@ -35409,7 +35409,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C509" s="25">
         <v>242</v>
@@ -35427,7 +35427,7 @@
         <v>1.5323931630000001</v>
       </c>
       <c r="I509" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J509" s="15">
         <v>1.802154507</v>
@@ -35474,7 +35474,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C510" s="25">
         <v>327</v>
@@ -35492,7 +35492,7 @@
         <v>1.645346787</v>
       </c>
       <c r="I510" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J510" s="15">
         <v>-4.227037921</v>
@@ -35539,7 +35539,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C511" s="25">
         <v>35</v>
@@ -35557,7 +35557,7 @@
         <v>1.6793487149999999</v>
       </c>
       <c r="I511" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J511" s="15">
         <v>-0.230620412</v>
@@ -35604,7 +35604,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C512" s="25">
         <v>727</v>
@@ -35622,7 +35622,7 @@
         <v>1.680264151</v>
       </c>
       <c r="I512" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J512" s="15">
         <v>1.818337938</v>
@@ -35666,7 +35666,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C513" s="25">
         <v>150</v>
@@ -35684,7 +35684,7 @@
         <v>1.870769927</v>
       </c>
       <c r="I513" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L513" s="11">
         <v>0</v>
@@ -35719,7 +35719,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C514" s="25">
         <v>633</v>
@@ -35737,7 +35737,7 @@
         <v>1.8843065640000001</v>
       </c>
       <c r="I514" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J514" s="15">
         <v>2.1171132190000002</v>
@@ -35784,7 +35784,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C515" s="25">
         <v>231</v>
@@ -35802,7 +35802,7 @@
         <v>2.024527408</v>
       </c>
       <c r="I515" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J515" s="15">
         <v>3.3963334440000001</v>
@@ -35849,7 +35849,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C516" s="25">
         <v>726</v>
@@ -35867,7 +35867,7 @@
         <v>2.3949210999999999</v>
       </c>
       <c r="I516" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J516" s="15">
         <v>3.741753578</v>
@@ -35914,7 +35914,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C517" s="25">
         <v>157</v>
@@ -35932,7 +35932,7 @@
         <v>2.5142911319999999</v>
       </c>
       <c r="I517" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J517" s="15">
         <v>2.5966809319999999</v>
@@ -35976,7 +35976,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C518" s="25">
         <v>101</v>
@@ -35994,7 +35994,7 @@
         <v>2.6528628429999999</v>
       </c>
       <c r="I518" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J518" s="15">
         <v>-1.256002753</v>
@@ -36060,10 +36060,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36071,7 +36071,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -36079,23 +36079,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -36103,7 +36103,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -36115,7 +36115,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -36123,7 +36123,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36131,7 +36131,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36139,7 +36139,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -36151,7 +36151,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -36167,7 +36167,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -36175,7 +36175,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -36183,7 +36183,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -36195,7 +36195,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36203,7 +36203,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36211,7 +36211,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -36223,7 +36223,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36231,7 +36231,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -36239,7 +36239,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
@@ -36247,7 +36247,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -36259,7 +36259,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -36267,7 +36267,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
